--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABD792-92AD-4D39-98B4-FB31404C237D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D7E296-FFEB-4684-88DE-01C8B0898BFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
+    <workbookView xWindow="2985" yWindow="2010" windowWidth="28800" windowHeight="15450" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>Fly number</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>Recording-independent preparation caracteristics</t>
@@ -455,33 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -491,23 +458,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -517,6 +469,48 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,29 +828,29 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="51"/>
-    <col min="9" max="9" width="11.5703125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="8" style="51" customWidth="1"/>
-    <col min="12" max="12" width="7" style="51" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="51" customWidth="1"/>
-    <col min="14" max="14" width="7" style="51" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="51" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="51" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="37"/>
+    <col min="9" max="9" width="11.5703125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="8" style="37" customWidth="1"/>
+    <col min="12" max="12" width="7" style="37" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="37" customWidth="1"/>
+    <col min="14" max="14" width="7" style="37" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="37" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" style="37" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="38" customWidth="1"/>
     <col min="20" max="20" width="8.140625" style="6" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
     <col min="22" max="23" width="8.7109375" style="2" customWidth="1"/>
@@ -872,169 +866,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="25" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="27"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="41"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AF2" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
       <c r="T3" s="13"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D7E296-FFEB-4684-88DE-01C8B0898BFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5402A662-26AB-4A9F-94F0-B2CE8431DAD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2010" windowWidth="28800" windowHeight="15450" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Time</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Fly number</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>Recording-independent preparation caracteristics</t>
@@ -876,7 +879,7 @@
       <c r="D1" s="49"/>
       <c r="E1" s="50"/>
       <c r="F1" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -892,7 +895,7 @@
       <c r="R1" s="43"/>
       <c r="S1" s="44"/>
       <c r="T1" s="45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U1" s="46"/>
       <c r="V1" s="46"/>
@@ -1010,7 +1013,9 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="33"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5402A662-26AB-4A9F-94F0-B2CE8431DAD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF07D48F-A93E-4DCC-BF2D-67199F95A751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2010" windowWidth="28800" windowHeight="15450" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Time</t>
   </si>
@@ -80,9 +80,6 @@
     <t>UV glue on neck</t>
   </si>
   <si>
-    <t>Horizontal position (-5/+5)</t>
-  </si>
-  <si>
     <t>Vaseline</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Oxygenation (0/1)</t>
   </si>
   <si>
-    <t>Saline renewing</t>
-  </si>
-  <si>
     <t>Needle in brain</t>
   </si>
   <si>
@@ -134,6 +128,9 @@
     <t>Fly number</t>
   </si>
   <si>
+    <t>3A</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -141,6 +138,21 @@
   </si>
   <si>
     <t>Recording-dependent preparation caracteristics</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>Saline renewing (0/1)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Horizontal position (-5=head down/+5=head up)</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -432,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,8 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -508,12 +518,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,29 +846,29 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="37"/>
-    <col min="9" max="9" width="11.5703125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="8" style="37" customWidth="1"/>
-    <col min="12" max="12" width="7" style="37" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="37" customWidth="1"/>
-    <col min="14" max="14" width="7" style="37" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="37" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="37" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" style="37" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="35"/>
+    <col min="9" max="9" width="11.5703125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="8" style="35" customWidth="1"/>
+    <col min="12" max="12" width="7" style="35" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="7" style="35" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="35" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" style="35" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="36" customWidth="1"/>
     <col min="20" max="20" width="8.140625" style="6" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
     <col min="22" max="23" width="8.7109375" style="2" customWidth="1"/>
@@ -869,55 +884,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="42" t="s">
+      <c r="B1" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="39"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -926,123 +941,185 @@
       <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AD2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AE2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AF2" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="AE2" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF2" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="54">
+        <v>190722110152</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="F3" s="31">
+        <v>5</v>
+      </c>
+      <c r="G3" s="32">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32">
+        <v>5</v>
+      </c>
+      <c r="I3" s="32">
+        <v>4</v>
+      </c>
+      <c r="J3" s="32">
+        <v>5</v>
+      </c>
+      <c r="K3" s="32">
+        <v>4</v>
+      </c>
+      <c r="L3" s="32">
+        <v>7</v>
+      </c>
+      <c r="M3" s="32">
+        <v>5</v>
+      </c>
+      <c r="N3" s="32">
+        <v>10</v>
+      </c>
+      <c r="O3" s="32">
+        <v>4</v>
+      </c>
+      <c r="P3" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>5</v>
+      </c>
+      <c r="R3" s="32">
+        <v>0</v>
+      </c>
+      <c r="S3" s="33">
+        <v>3</v>
+      </c>
+      <c r="T3" s="13">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>8</v>
+      </c>
+      <c r="V3" s="14">
+        <v>7</v>
+      </c>
+      <c r="W3" s="14">
+        <v>8</v>
+      </c>
+      <c r="X3" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF07D48F-A93E-4DCC-BF2D-67199F95A751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13139D3-E32C-41D7-BA4A-76477E42DFD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>Time</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>Center front axis (-5=head left/+5=head right)</t>
+  </si>
+  <si>
+    <t>Recording number</t>
+  </si>
+  <si>
+    <t>Wax (0/1)</t>
   </si>
 </sst>
 </file>
@@ -206,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -440,11 +452,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -529,6 +637,18 @@
     </xf>
     <xf numFmtId="12" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,60 +963,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="35"/>
-    <col min="9" max="9" width="11.5703125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="8" style="35" customWidth="1"/>
-    <col min="12" max="12" width="7" style="35" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11" style="63" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="35"/>
+    <col min="11" max="11" width="11.5703125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="8" style="35" customWidth="1"/>
     <col min="14" max="14" width="7" style="35" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="35" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" style="35" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="36" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
-    <col min="22" max="23" width="8.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="7" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" style="3"/>
-    <col min="32" max="32" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="7" style="35" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="35" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="35" customWidth="1"/>
+    <col min="19" max="19" width="12" style="35" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="35" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="59" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" style="36" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="7" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="3"/>
+    <col min="35" max="35" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="41"/>
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
@@ -908,148 +1033,160 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="41"/>
       <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
       <c r="X1" s="44"/>
       <c r="Y1" s="44"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
       <c r="AE1" s="38"/>
-      <c r="AF1" s="39"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="U2" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="W2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="X2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="Y2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="Z2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="AA2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="AB2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="AC2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AD2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AE2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AF2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AG2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AH2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AI2" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>190722110152</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="62">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="31">
+      <c r="G3" s="31">
         <v>5</v>
       </c>
-      <c r="G3" s="32">
-        <v>1</v>
-      </c>
       <c r="H3" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="32">
         <v>5</v>
@@ -1058,75 +1195,619 @@
         <v>4</v>
       </c>
       <c r="L3" s="32">
+        <v>5</v>
+      </c>
+      <c r="M3" s="32">
+        <v>4</v>
+      </c>
+      <c r="N3" s="32">
         <v>7</v>
       </c>
-      <c r="M3" s="32">
+      <c r="O3" s="32">
         <v>5</v>
       </c>
-      <c r="N3" s="32">
+      <c r="P3" s="32">
         <v>10</v>
       </c>
-      <c r="O3" s="32">
+      <c r="Q3" s="32">
         <v>4</v>
       </c>
-      <c r="P3" s="32">
+      <c r="R3" s="32">
         <v>5</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="S3" s="32">
         <v>5</v>
       </c>
-      <c r="R3" s="32">
-        <v>0</v>
-      </c>
-      <c r="S3" s="33">
-        <v>3</v>
-      </c>
-      <c r="T3" s="13">
-        <v>0</v>
-      </c>
-      <c r="U3" s="14">
+      <c r="T3" s="32">
+        <v>0</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="33">
+        <v>3</v>
+      </c>
+      <c r="W3" s="13">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
         <v>8</v>
       </c>
-      <c r="V3" s="14">
+      <c r="Y3" s="14">
         <v>7</v>
       </c>
-      <c r="W3" s="14">
+      <c r="Z3" s="14">
         <v>8</v>
       </c>
-      <c r="X3" s="14">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="16">
         <v>4</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="AE3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AF3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="18" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>190722143627</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="34">
+        <v>3</v>
+      </c>
+      <c r="H4" s="35">
+        <v>2</v>
+      </c>
+      <c r="I4" s="35">
+        <v>1</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="35">
+        <v>6</v>
+      </c>
+      <c r="L4" s="35">
+        <v>2</v>
+      </c>
+      <c r="M4" s="35">
+        <v>2</v>
+      </c>
+      <c r="N4" s="35">
+        <v>3</v>
+      </c>
+      <c r="O4" s="35">
+        <v>3</v>
+      </c>
+      <c r="P4" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="35">
+        <v>7</v>
+      </c>
+      <c r="R4" s="35">
+        <v>2</v>
+      </c>
+      <c r="S4" s="35">
+        <v>2</v>
+      </c>
+      <c r="T4" s="35">
+        <v>0</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="36">
+        <v>-2</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
+        <v>190723103600</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="63">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="34">
+        <v>3</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35">
+        <v>1</v>
+      </c>
+      <c r="K5" s="35">
+        <v>8</v>
+      </c>
+      <c r="L5" s="35">
+        <v>0</v>
+      </c>
+      <c r="M5" s="35">
+        <v>1</v>
+      </c>
+      <c r="N5" s="35">
+        <v>2</v>
+      </c>
+      <c r="O5" s="35">
+        <v>2</v>
+      </c>
+      <c r="P5" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>9</v>
+      </c>
+      <c r="R5" s="35">
+        <v>4</v>
+      </c>
+      <c r="S5" s="35">
+        <v>2</v>
+      </c>
+      <c r="T5" s="35">
+        <v>1</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
+        <v>190723112600</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="34">
+        <v>4</v>
+      </c>
+      <c r="H6" s="35">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1</v>
+      </c>
+      <c r="K6" s="35">
+        <v>4</v>
+      </c>
+      <c r="L6" s="35">
+        <v>5</v>
+      </c>
+      <c r="M6" s="35">
+        <v>3</v>
+      </c>
+      <c r="N6" s="35">
+        <v>2</v>
+      </c>
+      <c r="O6" s="35">
+        <v>2</v>
+      </c>
+      <c r="P6" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>9</v>
+      </c>
+      <c r="R6" s="35">
+        <v>3</v>
+      </c>
+      <c r="S6" s="35">
+        <v>2</v>
+      </c>
+      <c r="T6" s="35">
+        <v>0</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
+        <v>190723140408</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="34">
+        <v>3</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35">
+        <v>3</v>
+      </c>
+      <c r="K7" s="35">
+        <v>5</v>
+      </c>
+      <c r="L7" s="35">
+        <v>1</v>
+      </c>
+      <c r="M7" s="35">
+        <v>3</v>
+      </c>
+      <c r="N7" s="35">
+        <v>3</v>
+      </c>
+      <c r="O7" s="35">
+        <v>3</v>
+      </c>
+      <c r="P7" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>7</v>
+      </c>
+      <c r="R7" s="35">
+        <v>2</v>
+      </c>
+      <c r="S7" s="35">
+        <v>2</v>
+      </c>
+      <c r="T7" s="35">
+        <v>0</v>
+      </c>
+      <c r="U7" s="59">
+        <v>-2</v>
+      </c>
+      <c r="V7" s="36">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
+        <v>190723140900</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="63">
+        <v>2</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35">
+        <v>3</v>
+      </c>
+      <c r="K8" s="35">
+        <v>5</v>
+      </c>
+      <c r="L8" s="35">
+        <v>1</v>
+      </c>
+      <c r="M8" s="35">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35">
+        <v>3</v>
+      </c>
+      <c r="O8" s="35">
+        <v>3</v>
+      </c>
+      <c r="P8" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>7</v>
+      </c>
+      <c r="R8" s="35">
+        <v>2</v>
+      </c>
+      <c r="S8" s="35">
+        <v>2</v>
+      </c>
+      <c r="T8" s="35">
+        <v>0</v>
+      </c>
+      <c r="U8" s="59">
+        <v>-2</v>
+      </c>
+      <c r="V8" s="36">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="F1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="G1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13139D3-E32C-41D7-BA4A-76477E42DFD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34817CE-9EA0-4F23-87F2-1E64F447BCE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Time</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>Wax (0/1)</t>
+  </si>
+  <si>
+    <t>Stimuli</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -548,11 +560,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -649,6 +718,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,8 +1072,8 @@
     <col min="18" max="18" width="8.85546875" style="35" customWidth="1"/>
     <col min="19" max="19" width="12" style="35" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="35" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="59" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="36" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="59" customWidth="1"/>
+    <col min="22" max="22" width="13" style="36" customWidth="1"/>
     <col min="23" max="23" width="8.140625" style="6" customWidth="1"/>
     <col min="24" max="24" width="10.7109375" style="2" customWidth="1"/>
     <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
@@ -1000,15 +1081,18 @@
     <col min="27" max="27" width="9.42578125" style="2" customWidth="1"/>
     <col min="28" max="28" width="10.28515625" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.7109375" style="7" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" style="3"/>
-    <col min="35" max="35" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.28515625" style="66" customWidth="1"/>
+    <col min="31" max="31" width="3.140625" style="66" customWidth="1"/>
+    <col min="32" max="32" width="4.28515625" style="66" customWidth="1"/>
+    <col min="33" max="33" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="3" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="3"/>
+    <col min="38" max="38" width="10.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -1046,16 +1130,21 @@
       <c r="AA1" s="44"/>
       <c r="AB1" s="44"/>
       <c r="AC1" s="45"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
       <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="39"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="19" t="s">
         <v>31</v>
@@ -1141,26 +1230,35 @@
       <c r="AC2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AH2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AI2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="26" t="s">
+      <c r="AK2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AL2" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>190722110152</v>
       </c>
@@ -1248,26 +1346,35 @@
       <c r="AC3" s="15">
         <v>0</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="16">
         <v>4</v>
       </c>
-      <c r="AE3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="AH3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AI3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>190722143627</v>
       </c>
@@ -1355,26 +1462,35 @@
       <c r="AC4" s="7">
         <v>0</v>
       </c>
-      <c r="AD4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>40</v>
+      <c r="AD4" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>3</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL4" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>190723103600</v>
       </c>
@@ -1462,26 +1578,35 @@
       <c r="AC5" s="7">
         <v>0</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="8">
         <v>6</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AH5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>190723112600</v>
       </c>
@@ -1569,26 +1694,35 @@
       <c r="AC6" s="7">
         <v>0</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="8">
         <v>4</v>
       </c>
-      <c r="AE6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AH6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL6" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>190723140408</v>
       </c>
@@ -1676,26 +1810,35 @@
       <c r="AC7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI7" s="9" t="s">
+      <c r="AD7" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="66">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="66">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>190723140900</v>
       </c>
@@ -1783,32 +1926,42 @@
       <c r="AC8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8" s="9" t="s">
+      <c r="AD8" s="66">
+        <v>90</v>
+      </c>
+      <c r="AE8" s="66">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="66">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL8" s="9" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="AD1:AI1"/>
+  <mergeCells count="6">
+    <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="G1:V1"/>
     <mergeCell ref="W1:AC1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34817CE-9EA0-4F23-87F2-1E64F447BCE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECCB074-9162-45F0-8EF1-2A21AB0F8955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="55">
   <si>
     <t>Time</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Neurons motion</t>
   </si>
   <si>
-    <t>Hemisphere (L/R/LR)</t>
-  </si>
-  <si>
     <t>Independent caracteristics</t>
   </si>
   <si>
@@ -177,6 +174,27 @@
   </si>
   <si>
     <t>Speed</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ROI size</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Opened hemisphere (L/R/LR)</t>
+  </si>
+  <si>
+    <t>ROI hemisphere (L/R)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +247,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -621,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -718,18 +742,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,51 +1090,52 @@
     <col min="6" max="6" width="4.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="35"/>
+    <col min="9" max="9" width="6.140625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="35" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="35" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="35" customWidth="1"/>
     <col min="13" max="13" width="8" style="35" customWidth="1"/>
     <col min="14" max="14" width="7" style="35" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="35" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="35" customWidth="1"/>
     <col min="16" max="16" width="7" style="35" customWidth="1"/>
     <col min="17" max="17" width="7.42578125" style="35" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" style="35" customWidth="1"/>
     <col min="19" max="19" width="12" style="35" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="35" customWidth="1"/>
     <col min="21" max="21" width="8.28515625" style="59" customWidth="1"/>
-    <col min="22" max="22" width="13" style="36" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" style="36" customWidth="1"/>
     <col min="23" max="23" width="8.140625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="7" customWidth="1"/>
-    <col min="30" max="30" width="4.28515625" style="66" customWidth="1"/>
-    <col min="31" max="31" width="3.140625" style="66" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" style="66" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="3"/>
-    <col min="38" max="38" width="10.85546875" style="9" customWidth="1"/>
+    <col min="24" max="25" width="8.140625" style="73" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="11" style="7" customWidth="1"/>
+    <col min="32" max="32" width="4.28515625" style="69" customWidth="1"/>
+    <col min="33" max="33" width="3.140625" style="69" customWidth="1"/>
+    <col min="34" max="34" width="4.28515625" style="69" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" style="3"/>
+    <col min="40" max="40" width="10.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="48"/>
       <c r="G1" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
@@ -1122,53 +1153,55 @@
       <c r="U1" s="56"/>
       <c r="V1" s="42"/>
       <c r="W1" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
+        <v>34</v>
+      </c>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
       <c r="Z1" s="44"/>
       <c r="AA1" s="44"/>
       <c r="AB1" s="44"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ1" s="38"/>
       <c r="AK1" s="38"/>
-      <c r="AL1" s="39"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
-    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>44</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>6</v>
@@ -1204,61 +1237,67 @@
         <v>15</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="AA2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="AB2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AC2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AD2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="64" t="s">
+      <c r="AE2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AI2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" s="26" t="s">
+      <c r="AJ2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AL2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AM2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="27" t="s">
-        <v>27</v>
+      <c r="AN2" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>190722110152</v>
       </c>
@@ -1269,13 +1308,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="G3" s="31">
         <v>5</v>
@@ -1320,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V3" s="33">
         <v>3</v>
@@ -1328,53 +1367,59 @@
       <c r="W3" s="13">
         <v>0</v>
       </c>
-      <c r="X3" s="14">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>7</v>
+      <c r="X3" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="Z3" s="14">
         <v>8</v>
       </c>
       <c r="AA3" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI3" s="17">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>4</v>
       </c>
       <c r="AJ3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AK3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>190722143627</v>
       </c>
@@ -1385,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="34">
         <v>3</v>
@@ -1436,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V4" s="36">
         <v>-2</v>
@@ -1444,70 +1489,76 @@
       <c r="W4" s="6">
         <v>0</v>
       </c>
-      <c r="X4" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>5</v>
+      <c r="X4" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="Z4" s="2">
         <v>5</v>
       </c>
       <c r="AA4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
+        <v>190723103200</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="63">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="AE4" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
-        <v>190723103600</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="63">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="34">
         <v>3</v>
@@ -1552,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V5" s="36">
         <v>-1</v>
@@ -1560,53 +1611,59 @@
       <c r="W5" s="6">
         <v>0</v>
       </c>
-      <c r="X5" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>2</v>
+      <c r="X5" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="Z5" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="2">
         <v>10</v>
       </c>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="8">
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="8">
         <v>6</v>
       </c>
-      <c r="AH5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>1</v>
-      </c>
       <c r="AJ5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>190723112600</v>
       </c>
@@ -1617,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G6" s="34">
         <v>4</v>
@@ -1668,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V6" s="36">
         <v>-1</v>
@@ -1676,53 +1733,59 @@
       <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="X6" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>2</v>
+      <c r="X6" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="Z6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="2">
         <v>10</v>
       </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE6" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>4</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>2</v>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG6" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>4</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>190723140408</v>
       </c>
@@ -1733,13 +1796,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="34">
         <v>3</v>
@@ -1790,72 +1853,78 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
+        <v>190723140500</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="63">
+        <v>2</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="66">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="66">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="66">
-        <v>10</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
-        <v>190723140900</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="63">
-        <v>2</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="34">
         <v>3</v>
@@ -1906,62 +1975,2386 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="X8" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="66">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" s="69">
         <v>90</v>
       </c>
-      <c r="AE8" s="66">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="66">
+      <c r="AG8" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="69">
         <v>10</v>
       </c>
-      <c r="AG8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>40</v>
+      <c r="AI8" s="8">
+        <v>0</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
+        <v>190724095226</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="63">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="34">
+        <v>6</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
+      <c r="K9" s="35">
+        <v>2</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35">
+        <v>1</v>
+      </c>
+      <c r="N9" s="35">
+        <v>4</v>
+      </c>
+      <c r="O9" s="35">
+        <v>7</v>
+      </c>
+      <c r="P9" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>6</v>
+      </c>
+      <c r="R9" s="35">
+        <v>5</v>
+      </c>
+      <c r="S9" s="35">
+        <v>4</v>
+      </c>
+      <c r="T9" s="35">
+        <v>4</v>
+      </c>
+      <c r="U9" s="59">
+        <v>0</v>
+      </c>
+      <c r="V9" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
+        <v>190724095658</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="63">
+        <v>2</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="34">
+        <v>6</v>
+      </c>
+      <c r="H10" s="35">
+        <v>1</v>
+      </c>
+      <c r="I10" s="35">
+        <v>1</v>
+      </c>
+      <c r="J10" s="35">
+        <v>0</v>
+      </c>
+      <c r="K10" s="35">
+        <v>2</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35">
+        <v>1</v>
+      </c>
+      <c r="N10" s="35">
+        <v>4</v>
+      </c>
+      <c r="O10" s="35">
+        <v>7</v>
+      </c>
+      <c r="P10" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>6</v>
+      </c>
+      <c r="R10" s="35">
+        <v>5</v>
+      </c>
+      <c r="S10" s="35">
+        <v>4</v>
+      </c>
+      <c r="T10" s="35">
+        <v>4</v>
+      </c>
+      <c r="U10" s="59">
+        <v>0</v>
+      </c>
+      <c r="V10" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" s="69">
+        <v>90</v>
+      </c>
+      <c r="AG10" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
+        <v>190724101220</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="63">
+        <v>3</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="35">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" s="35">
+        <v>2</v>
+      </c>
+      <c r="L11" s="35">
+        <v>0</v>
+      </c>
+      <c r="M11" s="35">
+        <v>1</v>
+      </c>
+      <c r="N11" s="35">
+        <v>4</v>
+      </c>
+      <c r="O11" s="35">
+        <v>7</v>
+      </c>
+      <c r="P11" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>6</v>
+      </c>
+      <c r="R11" s="35">
+        <v>5</v>
+      </c>
+      <c r="S11" s="35">
+        <v>4</v>
+      </c>
+      <c r="T11" s="35">
+        <v>4</v>
+      </c>
+      <c r="U11" s="59">
+        <v>0</v>
+      </c>
+      <c r="V11" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
+        <v>190724101316</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="63">
+        <v>4</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="34">
+        <v>6</v>
+      </c>
+      <c r="H12" s="35">
+        <v>1</v>
+      </c>
+      <c r="I12" s="35">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35">
+        <v>0</v>
+      </c>
+      <c r="K12" s="35">
+        <v>2</v>
+      </c>
+      <c r="L12" s="35">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35">
+        <v>1</v>
+      </c>
+      <c r="N12" s="35">
+        <v>4</v>
+      </c>
+      <c r="O12" s="35">
+        <v>7</v>
+      </c>
+      <c r="P12" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>6</v>
+      </c>
+      <c r="R12" s="35">
+        <v>5</v>
+      </c>
+      <c r="S12" s="35">
+        <v>4</v>
+      </c>
+      <c r="T12" s="35">
+        <v>4</v>
+      </c>
+      <c r="U12" s="59">
+        <v>0</v>
+      </c>
+      <c r="V12" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
+        <v>190724101415</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="63">
+        <v>5</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="34">
+        <v>6</v>
+      </c>
+      <c r="H13" s="35">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35">
+        <v>0</v>
+      </c>
+      <c r="K13" s="35">
+        <v>2</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35">
+        <v>1</v>
+      </c>
+      <c r="N13" s="35">
+        <v>4</v>
+      </c>
+      <c r="O13" s="35">
+        <v>7</v>
+      </c>
+      <c r="P13" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>6</v>
+      </c>
+      <c r="R13" s="35">
+        <v>5</v>
+      </c>
+      <c r="S13" s="35">
+        <v>4</v>
+      </c>
+      <c r="T13" s="35">
+        <v>4</v>
+      </c>
+      <c r="U13" s="59">
+        <v>0</v>
+      </c>
+      <c r="V13" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <v>190724104000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="63">
+        <v>6</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="34">
+        <v>6</v>
+      </c>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+      <c r="I14" s="35">
+        <v>1</v>
+      </c>
+      <c r="J14" s="35">
+        <v>0</v>
+      </c>
+      <c r="K14" s="35">
+        <v>2</v>
+      </c>
+      <c r="L14" s="35">
+        <v>0</v>
+      </c>
+      <c r="M14" s="35">
+        <v>1</v>
+      </c>
+      <c r="N14" s="35">
+        <v>4</v>
+      </c>
+      <c r="O14" s="35">
+        <v>7</v>
+      </c>
+      <c r="P14" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>6</v>
+      </c>
+      <c r="R14" s="35">
+        <v>5</v>
+      </c>
+      <c r="S14" s="35">
+        <v>4</v>
+      </c>
+      <c r="T14" s="35">
+        <v>4</v>
+      </c>
+      <c r="U14" s="59">
+        <v>0</v>
+      </c>
+      <c r="V14" s="36">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y14" s="72">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
+        <v>190724110920</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="63">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="34">
+        <v>3</v>
+      </c>
+      <c r="H15" s="35">
+        <v>4</v>
+      </c>
+      <c r="I15" s="35">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35">
+        <v>2</v>
+      </c>
+      <c r="L15" s="35">
+        <v>9</v>
+      </c>
+      <c r="M15" s="35">
+        <v>2</v>
+      </c>
+      <c r="N15" s="35">
+        <v>2</v>
+      </c>
+      <c r="O15" s="35">
+        <v>5</v>
+      </c>
+      <c r="P15" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>6</v>
+      </c>
+      <c r="R15" s="35">
+        <v>5</v>
+      </c>
+      <c r="S15" s="35">
+        <v>3</v>
+      </c>
+      <c r="T15" s="35">
+        <v>3</v>
+      </c>
+      <c r="U15" s="59">
+        <v>0</v>
+      </c>
+      <c r="V15" s="36">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF15" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
+        <v>190724111258</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7</v>
+      </c>
+      <c r="C16" s="63">
+        <v>2</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="34">
+        <v>3</v>
+      </c>
+      <c r="H16" s="35">
+        <v>4</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35">
+        <v>0</v>
+      </c>
+      <c r="K16" s="35">
+        <v>2</v>
+      </c>
+      <c r="L16" s="35">
+        <v>9</v>
+      </c>
+      <c r="M16" s="35">
+        <v>2</v>
+      </c>
+      <c r="N16" s="35">
+        <v>2</v>
+      </c>
+      <c r="O16" s="35">
+        <v>5</v>
+      </c>
+      <c r="P16" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>6</v>
+      </c>
+      <c r="R16" s="35">
+        <v>5</v>
+      </c>
+      <c r="S16" s="35">
+        <v>3</v>
+      </c>
+      <c r="T16" s="35">
+        <v>3</v>
+      </c>
+      <c r="U16" s="59">
+        <v>0</v>
+      </c>
+      <c r="V16" s="36">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF16" s="69">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>8</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>190724112900</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7</v>
+      </c>
+      <c r="C17" s="63">
+        <v>3</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="34">
+        <v>3</v>
+      </c>
+      <c r="H17" s="35">
+        <v>4</v>
+      </c>
+      <c r="I17" s="35">
+        <v>1</v>
+      </c>
+      <c r="J17" s="35">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35">
+        <v>2</v>
+      </c>
+      <c r="L17" s="35">
+        <v>9</v>
+      </c>
+      <c r="M17" s="35">
+        <v>2</v>
+      </c>
+      <c r="N17" s="35">
+        <v>2</v>
+      </c>
+      <c r="O17" s="35">
+        <v>5</v>
+      </c>
+      <c r="P17" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>6</v>
+      </c>
+      <c r="R17" s="35">
+        <v>5</v>
+      </c>
+      <c r="S17" s="35">
+        <v>3</v>
+      </c>
+      <c r="T17" s="35">
+        <v>3</v>
+      </c>
+      <c r="U17" s="59">
+        <v>0</v>
+      </c>
+      <c r="V17" s="36">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG17" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
+        <v>190724113048</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="63">
+        <v>4</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="34">
+        <v>3</v>
+      </c>
+      <c r="H18" s="35">
+        <v>4</v>
+      </c>
+      <c r="I18" s="35">
+        <v>1</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <v>2</v>
+      </c>
+      <c r="L18" s="35">
+        <v>9</v>
+      </c>
+      <c r="M18" s="35">
+        <v>2</v>
+      </c>
+      <c r="N18" s="35">
+        <v>2</v>
+      </c>
+      <c r="O18" s="35">
+        <v>5</v>
+      </c>
+      <c r="P18" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>6</v>
+      </c>
+      <c r="R18" s="35">
+        <v>5</v>
+      </c>
+      <c r="S18" s="35">
+        <v>3</v>
+      </c>
+      <c r="T18" s="35">
+        <v>3</v>
+      </c>
+      <c r="U18" s="59">
+        <v>0</v>
+      </c>
+      <c r="V18" s="36">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y18" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
+        <v>190724113229</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="63">
+        <v>5</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="34">
+        <v>3</v>
+      </c>
+      <c r="H19" s="35">
+        <v>4</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1</v>
+      </c>
+      <c r="J19" s="35">
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <v>2</v>
+      </c>
+      <c r="L19" s="35">
+        <v>9</v>
+      </c>
+      <c r="M19" s="35">
+        <v>2</v>
+      </c>
+      <c r="N19" s="35">
+        <v>2</v>
+      </c>
+      <c r="O19" s="35">
+        <v>5</v>
+      </c>
+      <c r="P19" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>6</v>
+      </c>
+      <c r="R19" s="35">
+        <v>5</v>
+      </c>
+      <c r="S19" s="35">
+        <v>3</v>
+      </c>
+      <c r="T19" s="35">
+        <v>3</v>
+      </c>
+      <c r="U19" s="59">
+        <v>0</v>
+      </c>
+      <c r="V19" s="36">
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y19" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="69">
+        <v>90</v>
+      </c>
+      <c r="AG19" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
+        <v>190724113717</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="63">
+        <v>6</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="34">
+        <v>3</v>
+      </c>
+      <c r="H20" s="35">
+        <v>4</v>
+      </c>
+      <c r="I20" s="35">
+        <v>1</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="35">
+        <v>2</v>
+      </c>
+      <c r="L20" s="35">
+        <v>9</v>
+      </c>
+      <c r="M20" s="35">
+        <v>2</v>
+      </c>
+      <c r="N20" s="35">
+        <v>2</v>
+      </c>
+      <c r="O20" s="35">
+        <v>5</v>
+      </c>
+      <c r="P20" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>6</v>
+      </c>
+      <c r="R20" s="35">
+        <v>5</v>
+      </c>
+      <c r="S20" s="35">
+        <v>3</v>
+      </c>
+      <c r="T20" s="35">
+        <v>3</v>
+      </c>
+      <c r="U20" s="59">
+        <v>0</v>
+      </c>
+      <c r="V20" s="36">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y20" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="69">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
+        <v>190724113809</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="63">
+        <v>7</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3</v>
+      </c>
+      <c r="H21" s="35">
+        <v>4</v>
+      </c>
+      <c r="I21" s="35">
+        <v>1</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="35">
+        <v>2</v>
+      </c>
+      <c r="L21" s="35">
+        <v>9</v>
+      </c>
+      <c r="M21" s="35">
+        <v>2</v>
+      </c>
+      <c r="N21" s="35">
+        <v>2</v>
+      </c>
+      <c r="O21" s="35">
+        <v>5</v>
+      </c>
+      <c r="P21" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>6</v>
+      </c>
+      <c r="R21" s="35">
+        <v>5</v>
+      </c>
+      <c r="S21" s="35">
+        <v>3</v>
+      </c>
+      <c r="T21" s="35">
+        <v>3</v>
+      </c>
+      <c r="U21" s="59">
+        <v>0</v>
+      </c>
+      <c r="V21" s="36">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0</v>
+      </c>
+      <c r="X21" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y21" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="69">
+        <v>90</v>
+      </c>
+      <c r="AG21" s="69">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN21" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="55">
+        <v>190724113909</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="63">
+        <v>8</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="34">
+        <v>3</v>
+      </c>
+      <c r="H22" s="35">
+        <v>4</v>
+      </c>
+      <c r="I22" s="35">
+        <v>1</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="35">
+        <v>2</v>
+      </c>
+      <c r="L22" s="35">
+        <v>9</v>
+      </c>
+      <c r="M22" s="35">
+        <v>2</v>
+      </c>
+      <c r="N22" s="35">
+        <v>2</v>
+      </c>
+      <c r="O22" s="35">
+        <v>5</v>
+      </c>
+      <c r="P22" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>6</v>
+      </c>
+      <c r="R22" s="35">
+        <v>5</v>
+      </c>
+      <c r="S22" s="35">
+        <v>3</v>
+      </c>
+      <c r="T22" s="35">
+        <v>3</v>
+      </c>
+      <c r="U22" s="59">
+        <v>0</v>
+      </c>
+      <c r="V22" s="36">
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0</v>
+      </c>
+      <c r="X22" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y22" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN22" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
+        <v>190724114002</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="63">
+        <v>9</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="34">
+        <v>3</v>
+      </c>
+      <c r="H23" s="35">
+        <v>4</v>
+      </c>
+      <c r="I23" s="35">
+        <v>1</v>
+      </c>
+      <c r="J23" s="35">
+        <v>0</v>
+      </c>
+      <c r="K23" s="35">
+        <v>2</v>
+      </c>
+      <c r="L23" s="35">
+        <v>9</v>
+      </c>
+      <c r="M23" s="35">
+        <v>2</v>
+      </c>
+      <c r="N23" s="35">
+        <v>2</v>
+      </c>
+      <c r="O23" s="35">
+        <v>5</v>
+      </c>
+      <c r="P23" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>6</v>
+      </c>
+      <c r="R23" s="35">
+        <v>5</v>
+      </c>
+      <c r="S23" s="35">
+        <v>3</v>
+      </c>
+      <c r="T23" s="35">
+        <v>3</v>
+      </c>
+      <c r="U23" s="59">
+        <v>0</v>
+      </c>
+      <c r="V23" s="36">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="69">
+        <v>90</v>
+      </c>
+      <c r="AG23" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="69">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>190724114307</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="63">
+        <v>10</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="34">
+        <v>3</v>
+      </c>
+      <c r="H24" s="35">
+        <v>4</v>
+      </c>
+      <c r="I24" s="35">
+        <v>1</v>
+      </c>
+      <c r="J24" s="35">
+        <v>0</v>
+      </c>
+      <c r="K24" s="35">
+        <v>2</v>
+      </c>
+      <c r="L24" s="35">
+        <v>9</v>
+      </c>
+      <c r="M24" s="35">
+        <v>2</v>
+      </c>
+      <c r="N24" s="35">
+        <v>2</v>
+      </c>
+      <c r="O24" s="35">
+        <v>5</v>
+      </c>
+      <c r="P24" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="35">
+        <v>6</v>
+      </c>
+      <c r="R24" s="35">
+        <v>5</v>
+      </c>
+      <c r="S24" s="35">
+        <v>3</v>
+      </c>
+      <c r="T24" s="35">
+        <v>3</v>
+      </c>
+      <c r="U24" s="59">
+        <v>0</v>
+      </c>
+      <c r="V24" s="36">
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0</v>
+      </c>
+      <c r="X24" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y24" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="69">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="55">
+        <v>190724114400</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="63">
+        <v>11</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="34">
+        <v>3</v>
+      </c>
+      <c r="H25" s="35">
+        <v>4</v>
+      </c>
+      <c r="I25" s="35">
+        <v>1</v>
+      </c>
+      <c r="J25" s="35">
+        <v>0</v>
+      </c>
+      <c r="K25" s="35">
+        <v>2</v>
+      </c>
+      <c r="L25" s="35">
+        <v>9</v>
+      </c>
+      <c r="M25" s="35">
+        <v>2</v>
+      </c>
+      <c r="N25" s="35">
+        <v>2</v>
+      </c>
+      <c r="O25" s="35">
+        <v>5</v>
+      </c>
+      <c r="P25" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>6</v>
+      </c>
+      <c r="R25" s="35">
+        <v>5</v>
+      </c>
+      <c r="S25" s="35">
+        <v>3</v>
+      </c>
+      <c r="T25" s="35">
+        <v>3</v>
+      </c>
+      <c r="U25" s="59">
+        <v>0</v>
+      </c>
+      <c r="V25" s="36">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y25" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="69">
+        <v>90</v>
+      </c>
+      <c r="AG25" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="69">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="55">
+        <v>190724114522</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="63">
+        <v>12</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="34">
+        <v>3</v>
+      </c>
+      <c r="H26" s="35">
+        <v>4</v>
+      </c>
+      <c r="I26" s="35">
+        <v>1</v>
+      </c>
+      <c r="J26" s="35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="35">
+        <v>2</v>
+      </c>
+      <c r="L26" s="35">
+        <v>9</v>
+      </c>
+      <c r="M26" s="35">
+        <v>2</v>
+      </c>
+      <c r="N26" s="35">
+        <v>2</v>
+      </c>
+      <c r="O26" s="35">
+        <v>5</v>
+      </c>
+      <c r="P26" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="35">
+        <v>6</v>
+      </c>
+      <c r="R26" s="35">
+        <v>5</v>
+      </c>
+      <c r="S26" s="35">
+        <v>3</v>
+      </c>
+      <c r="T26" s="35">
+        <v>3</v>
+      </c>
+      <c r="U26" s="59">
+        <v>0</v>
+      </c>
+      <c r="V26" s="36">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y26" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH26" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <v>190724114614</v>
+      </c>
+      <c r="B27" s="4">
+        <v>7</v>
+      </c>
+      <c r="C27" s="63">
+        <v>13</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="34">
+        <v>3</v>
+      </c>
+      <c r="H27" s="35">
+        <v>4</v>
+      </c>
+      <c r="I27" s="35">
+        <v>1</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <v>2</v>
+      </c>
+      <c r="L27" s="35">
+        <v>9</v>
+      </c>
+      <c r="M27" s="35">
+        <v>2</v>
+      </c>
+      <c r="N27" s="35">
+        <v>2</v>
+      </c>
+      <c r="O27" s="35">
+        <v>5</v>
+      </c>
+      <c r="P27" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="35">
+        <v>6</v>
+      </c>
+      <c r="R27" s="35">
+        <v>5</v>
+      </c>
+      <c r="S27" s="35">
+        <v>3</v>
+      </c>
+      <c r="T27" s="35">
+        <v>3</v>
+      </c>
+      <c r="U27" s="59">
+        <v>0</v>
+      </c>
+      <c r="V27" s="36">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <v>0</v>
+      </c>
+      <c r="X27" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y27" s="73">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="69">
+        <v>90</v>
+      </c>
+      <c r="AG27" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="G1:V1"/>
-    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="W1:AE1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12692AD4-3DBC-4F43-8D94-FF3A54824181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F6888-22A2-4A0B-909F-C0E2A1D40E83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="51">
   <si>
     <t>Time</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>ROI size</t>
@@ -2037,7 +2040,7 @@
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,12 +2062,12 @@
     <col min="16" max="16" width="8.140625" style="21" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" style="21" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="21" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="21" customWidth="1"/>
-    <col min="20" max="20" width="12" style="21" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="21" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" style="21" customWidth="1"/>
     <col min="21" max="21" width="10.28515625" style="26" customWidth="1"/>
     <col min="22" max="22" width="7.140625" style="22" customWidth="1"/>
     <col min="23" max="23" width="6.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="32" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="32" customWidth="1"/>
     <col min="25" max="25" width="5.28515625" style="32" customWidth="1"/>
     <col min="26" max="26" width="10.5703125" style="2" customWidth="1"/>
     <col min="27" max="27" width="8.42578125" style="2" customWidth="1"/>
@@ -2077,10 +2080,10 @@
     <col min="34" max="34" width="5.140625" style="30" customWidth="1"/>
     <col min="35" max="35" width="7.42578125" style="8" customWidth="1"/>
     <col min="36" max="36" width="14" style="3" customWidth="1"/>
-    <col min="37" max="37" width="10.140625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="10" style="3" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" style="3" customWidth="1"/>
-    <col min="40" max="40" width="9.7109375" style="36" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="12.140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="21" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2154,10 +2157,10 @@
         <v>16</v>
       </c>
       <c r="X1" s="57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z1" s="59" t="s">
         <v>19</v>
@@ -2202,7 +2205,7 @@
         <v>26</v>
       </c>
       <c r="AN1" s="61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -3618,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="31">
         <v>5</v>
@@ -3666,7 +3669,7 @@
         <v>35</v>
       </c>
       <c r="AN13" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -3680,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -3802,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -3924,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -3984,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="32">
         <v>2</v>
@@ -4046,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -4106,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y17" s="32">
         <v>2</v>
@@ -4141,8 +4144,8 @@
       <c r="AI17" s="8">
         <v>9</v>
       </c>
-      <c r="AJ17" s="3" t="s">
-        <v>35</v>
+      <c r="AJ17" s="3">
+        <v>6</v>
       </c>
       <c r="AK17" s="3" t="s">
         <v>35</v>
@@ -4168,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
@@ -4228,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y18" s="32">
         <v>2</v>
@@ -4290,7 +4293,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -4350,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y19" s="32">
         <v>2</v>
@@ -4385,8 +4388,8 @@
       <c r="AI19" s="8">
         <v>9</v>
       </c>
-      <c r="AJ19" s="3" t="s">
-        <v>35</v>
+      <c r="AJ19" s="3">
+        <v>8</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>35</v>
@@ -4412,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
@@ -4472,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y20" s="32">
         <v>2</v>
@@ -4534,7 +4537,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -4594,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y21" s="32">
         <v>2</v>
@@ -4629,8 +4632,8 @@
       <c r="AI21" s="8">
         <v>9</v>
       </c>
-      <c r="AJ21" s="3" t="s">
-        <v>35</v>
+      <c r="AJ21" s="3">
+        <v>10</v>
       </c>
       <c r="AK21" s="3" t="s">
         <v>35</v>
@@ -4656,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>29</v>
@@ -4716,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y22" s="32">
         <v>2</v>
@@ -4778,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
@@ -4838,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y23" s="32">
         <v>2</v>
@@ -4900,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -4960,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y24" s="32">
         <v>2</v>
@@ -5022,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -5082,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y25" s="32">
         <v>2</v>
@@ -5144,7 +5147,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
@@ -5204,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y26" s="32">
         <v>2</v>
@@ -5253,6 +5256,616 @@
       </c>
       <c r="AN26" s="36" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>190725153404</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="28">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="20">
+        <v>6</v>
+      </c>
+      <c r="H27" s="21">
+        <v>2</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="21">
+        <v>3</v>
+      </c>
+      <c r="L27" s="21">
+        <v>3</v>
+      </c>
+      <c r="M27" s="21">
+        <v>4</v>
+      </c>
+      <c r="N27" s="21">
+        <v>3</v>
+      </c>
+      <c r="O27" s="21">
+        <v>7</v>
+      </c>
+      <c r="P27" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>5</v>
+      </c>
+      <c r="R27" s="21">
+        <v>6</v>
+      </c>
+      <c r="S27" s="21">
+        <v>4</v>
+      </c>
+      <c r="T27" s="21">
+        <v>6</v>
+      </c>
+      <c r="U27" s="26">
+        <v>0</v>
+      </c>
+      <c r="V27" s="22">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="30">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="30">
+        <v>10</v>
+      </c>
+      <c r="AI27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN27" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>190725153917</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="20">
+        <v>6</v>
+      </c>
+      <c r="H28" s="21">
+        <v>2</v>
+      </c>
+      <c r="I28" s="21">
+        <v>1</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <v>3</v>
+      </c>
+      <c r="L28" s="21">
+        <v>3</v>
+      </c>
+      <c r="M28" s="21">
+        <v>4</v>
+      </c>
+      <c r="N28" s="21">
+        <v>3</v>
+      </c>
+      <c r="O28" s="21">
+        <v>7</v>
+      </c>
+      <c r="P28" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>5</v>
+      </c>
+      <c r="R28" s="21">
+        <v>6</v>
+      </c>
+      <c r="S28" s="21">
+        <v>4</v>
+      </c>
+      <c r="T28" s="21">
+        <v>6</v>
+      </c>
+      <c r="U28" s="26">
+        <v>0</v>
+      </c>
+      <c r="V28" s="22">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF28" s="30">
+        <v>90</v>
+      </c>
+      <c r="AG28" s="30">
+        <v>3</v>
+      </c>
+      <c r="AH28" s="30">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN28" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>190725154044</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="28">
+        <v>3</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="20">
+        <v>6</v>
+      </c>
+      <c r="H29" s="21">
+        <v>2</v>
+      </c>
+      <c r="I29" s="21">
+        <v>1</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="21">
+        <v>3</v>
+      </c>
+      <c r="L29" s="21">
+        <v>3</v>
+      </c>
+      <c r="M29" s="21">
+        <v>4</v>
+      </c>
+      <c r="N29" s="21">
+        <v>3</v>
+      </c>
+      <c r="O29" s="21">
+        <v>7</v>
+      </c>
+      <c r="P29" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>5</v>
+      </c>
+      <c r="R29" s="21">
+        <v>6</v>
+      </c>
+      <c r="S29" s="21">
+        <v>4</v>
+      </c>
+      <c r="T29" s="21">
+        <v>6</v>
+      </c>
+      <c r="U29" s="26">
+        <v>0</v>
+      </c>
+      <c r="V29" s="22">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF29" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="30">
+        <v>10</v>
+      </c>
+      <c r="AI29" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN29" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>190725160916</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="28">
+        <v>4</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="20">
+        <v>6</v>
+      </c>
+      <c r="H30" s="21">
+        <v>2</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1</v>
+      </c>
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <v>3</v>
+      </c>
+      <c r="L30" s="21">
+        <v>3</v>
+      </c>
+      <c r="M30" s="21">
+        <v>4</v>
+      </c>
+      <c r="N30" s="21">
+        <v>3</v>
+      </c>
+      <c r="O30" s="21">
+        <v>7</v>
+      </c>
+      <c r="P30" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>5</v>
+      </c>
+      <c r="R30" s="21">
+        <v>6</v>
+      </c>
+      <c r="S30" s="21">
+        <v>4</v>
+      </c>
+      <c r="T30" s="21">
+        <v>6</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0</v>
+      </c>
+      <c r="V30" s="22">
+        <v>0</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0</v>
+      </c>
+      <c r="X30" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y30" s="31">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="30">
+        <v>3</v>
+      </c>
+      <c r="AH30" s="30">
+        <v>10</v>
+      </c>
+      <c r="AI30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>190725161038</v>
+      </c>
+      <c r="B31" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" s="28">
+        <v>5</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="20">
+        <v>6</v>
+      </c>
+      <c r="H31" s="21">
+        <v>2</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1</v>
+      </c>
+      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
+        <v>3</v>
+      </c>
+      <c r="L31" s="21">
+        <v>3</v>
+      </c>
+      <c r="M31" s="21">
+        <v>4</v>
+      </c>
+      <c r="N31" s="21">
+        <v>3</v>
+      </c>
+      <c r="O31" s="21">
+        <v>7</v>
+      </c>
+      <c r="P31" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>5</v>
+      </c>
+      <c r="R31" s="21">
+        <v>6</v>
+      </c>
+      <c r="S31" s="21">
+        <v>4</v>
+      </c>
+      <c r="T31" s="21">
+        <v>6</v>
+      </c>
+      <c r="U31" s="26">
+        <v>0</v>
+      </c>
+      <c r="V31" s="22">
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0</v>
+      </c>
+      <c r="X31" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y31" s="31">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="30">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="30">
+        <v>10</v>
+      </c>
+      <c r="AI31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN31" s="36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="1048576" spans="1:40" x14ac:dyDescent="0.25">

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B9343D-2ADB-425A-9D43-EC51313EE2CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBACA0-E55D-422C-B5A2-BFCB0D80A133}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="58">
   <si>
     <t>Time</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -2134,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="AJ65" sqref="AJ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,11 +4008,11 @@
       <c r="AL14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM14" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN14" s="16">
-        <v>1400</v>
+      <c r="AM14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN14" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO14" s="3" t="s">
         <v>35</v>
@@ -4133,11 +4139,11 @@
       <c r="AL15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM15" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN15" s="16">
-        <v>1400</v>
+      <c r="AM15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN15" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO15" s="3" t="s">
         <v>35</v>
@@ -4395,11 +4401,11 @@
       <c r="AL17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM17" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN17" s="16">
-        <v>1400</v>
+      <c r="AM17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN17" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO17" s="3" t="s">
         <v>35</v>
@@ -4526,11 +4532,11 @@
       <c r="AL18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM18" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN18" s="16">
-        <v>1400</v>
+      <c r="AM18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN18" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO18" s="3" t="s">
         <v>35</v>
@@ -4657,11 +4663,11 @@
       <c r="AL19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM19" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN19" s="16">
-        <v>1400</v>
+      <c r="AM19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN19" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO19" s="3" t="s">
         <v>35</v>
@@ -4788,11 +4794,11 @@
       <c r="AL20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM20" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN20" s="16">
-        <v>1400</v>
+      <c r="AM20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN20" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO20" s="3" t="s">
         <v>35</v>
@@ -4919,11 +4925,11 @@
       <c r="AL21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM21" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN21" s="16">
-        <v>1400</v>
+      <c r="AM21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN21" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO21" s="3" t="s">
         <v>35</v>
@@ -5050,11 +5056,11 @@
       <c r="AL22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM22" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN22" s="16">
-        <v>1400</v>
+      <c r="AM22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN22" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO22" s="3" t="s">
         <v>35</v>
@@ -5181,11 +5187,11 @@
       <c r="AL23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM23" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN23" s="16">
-        <v>1400</v>
+      <c r="AM23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN23" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO23" s="3" t="s">
         <v>35</v>
@@ -5312,11 +5318,11 @@
       <c r="AL24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM24" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN24" s="16">
-        <v>1400</v>
+      <c r="AM24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN24" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO24" s="3" t="s">
         <v>35</v>
@@ -5443,11 +5449,11 @@
       <c r="AL25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM25" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN25" s="16">
-        <v>1400</v>
+      <c r="AM25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN25" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO25" s="3" t="s">
         <v>35</v>
@@ -5574,11 +5580,11 @@
       <c r="AL26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM26" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN26" s="16">
-        <v>1400</v>
+      <c r="AM26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN26" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO26" s="3" t="s">
         <v>35</v>
@@ -5705,11 +5711,11 @@
       <c r="AL27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM27" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN27" s="16">
-        <v>1400</v>
+      <c r="AM27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN27" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO27" s="3" t="s">
         <v>35</v>
@@ -5836,11 +5842,11 @@
       <c r="AL28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM28" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN28" s="16">
-        <v>1400</v>
+      <c r="AM28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN28" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO28" s="3" t="s">
         <v>35</v>
@@ -5967,11 +5973,11 @@
       <c r="AL29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM29" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN29" s="16">
-        <v>1400</v>
+      <c r="AM29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN29" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO29" s="3" t="s">
         <v>35</v>
@@ -6360,11 +6366,11 @@
       <c r="AL32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM32" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN32" s="16">
-        <v>1400</v>
+      <c r="AM32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN32" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO32" s="3" t="s">
         <v>35</v>
@@ -6491,11 +6497,11 @@
       <c r="AL33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM33" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN33" s="16">
-        <v>1400</v>
+      <c r="AM33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN33" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO33" s="3" t="s">
         <v>35</v>
@@ -6753,11 +6759,11 @@
       <c r="AL35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM35" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN35" s="16">
-        <v>1400</v>
+      <c r="AM35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN35" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO35" s="3" t="s">
         <v>35</v>
@@ -6884,11 +6890,11 @@
       <c r="AL36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM36" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN36" s="16">
-        <v>1400</v>
+      <c r="AM36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN36" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO36" s="3" t="s">
         <v>35</v>
@@ -7015,11 +7021,11 @@
       <c r="AL37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM37" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN37" s="16">
-        <v>1400</v>
+      <c r="AM37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN37" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO37" s="3" t="s">
         <v>35</v>
@@ -7146,11 +7152,11 @@
       <c r="AL38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM38" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN38" s="16">
-        <v>1400</v>
+      <c r="AM38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN38" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO38" s="3" t="s">
         <v>35</v>
@@ -7277,11 +7283,11 @@
       <c r="AL39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM39" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN39" s="16">
-        <v>1400</v>
+      <c r="AM39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN39" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO39" s="3" t="s">
         <v>35</v>
@@ -7408,11 +7414,11 @@
       <c r="AL40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM40" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN40" s="16">
-        <v>1400</v>
+      <c r="AM40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN40" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO40" s="3" t="s">
         <v>35</v>
@@ -7539,11 +7545,11 @@
       <c r="AL41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM41" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN41" s="16">
-        <v>1400</v>
+      <c r="AM41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN41" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO41" s="3" t="s">
         <v>35</v>
@@ -7670,11 +7676,11 @@
       <c r="AL42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM42" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN42" s="16">
-        <v>1400</v>
+      <c r="AM42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN42" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO42" s="3" t="s">
         <v>35</v>
@@ -7801,11 +7807,11 @@
       <c r="AL43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM43" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN43" s="16">
-        <v>1400</v>
+      <c r="AM43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN43" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO43" s="3" t="s">
         <v>35</v>
@@ -7932,11 +7938,11 @@
       <c r="AL44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM44" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN44" s="16">
-        <v>1400</v>
+      <c r="AM44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN44" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO44" s="3" t="s">
         <v>35</v>
@@ -8063,11 +8069,11 @@
       <c r="AL45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM45" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN45" s="16">
-        <v>1400</v>
+      <c r="AM45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN45" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO45" s="3" t="s">
         <v>35</v>
@@ -8194,11 +8200,11 @@
       <c r="AL46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM46" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN46" s="16">
-        <v>1400</v>
+      <c r="AM46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN46" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO46" s="3" t="s">
         <v>35</v>
@@ -8325,11 +8331,11 @@
       <c r="AL47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM47" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN47" s="16">
-        <v>1400</v>
+      <c r="AM47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN47" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO47" s="3" t="s">
         <v>35</v>
@@ -8456,11 +8462,11 @@
       <c r="AL48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM48" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN48" s="16">
-        <v>1400</v>
+      <c r="AM48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN48" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO48" s="3" t="s">
         <v>35</v>
@@ -9111,11 +9117,11 @@
       <c r="AL53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM53" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN53" s="16">
-        <v>1400</v>
+      <c r="AM53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN53" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO53" s="3" t="s">
         <v>35</v>
@@ -9242,11 +9248,11 @@
       <c r="AL54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM54" s="3">
-        <v>91</v>
-      </c>
-      <c r="AN54" s="16">
-        <v>1400</v>
+      <c r="AM54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN54" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="AO54" s="3" t="s">
         <v>35</v>
@@ -10435,6 +10441,1316 @@
       </c>
       <c r="AQ63" s="34" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A64" s="32">
+        <v>190729150645</v>
+      </c>
+      <c r="B64" s="4">
+        <v>13</v>
+      </c>
+      <c r="C64" s="26">
+        <v>1</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="19">
+        <v>2</v>
+      </c>
+      <c r="H64" s="20">
+        <v>2</v>
+      </c>
+      <c r="I64" s="20">
+        <v>1</v>
+      </c>
+      <c r="J64" s="20">
+        <v>0</v>
+      </c>
+      <c r="K64" s="20">
+        <v>8</v>
+      </c>
+      <c r="L64" s="20">
+        <v>10</v>
+      </c>
+      <c r="M64" s="20">
+        <v>4</v>
+      </c>
+      <c r="N64" s="20">
+        <v>8</v>
+      </c>
+      <c r="O64" s="20">
+        <v>9</v>
+      </c>
+      <c r="P64" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>5</v>
+      </c>
+      <c r="R64" s="20">
+        <v>1</v>
+      </c>
+      <c r="S64" s="20">
+        <v>2</v>
+      </c>
+      <c r="T64" s="20">
+        <v>3</v>
+      </c>
+      <c r="U64" s="24">
+        <v>0</v>
+      </c>
+      <c r="V64" s="20">
+        <v>0</v>
+      </c>
+      <c r="W64" s="60">
+        <v>0</v>
+      </c>
+      <c r="X64" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y64" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z64" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG64" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ64" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A65" s="32">
+        <v>190729150855</v>
+      </c>
+      <c r="B65" s="4">
+        <v>13</v>
+      </c>
+      <c r="C65" s="26">
+        <v>2</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="19">
+        <v>2</v>
+      </c>
+      <c r="H65" s="20">
+        <v>2</v>
+      </c>
+      <c r="I65" s="20">
+        <v>1</v>
+      </c>
+      <c r="J65" s="20">
+        <v>0</v>
+      </c>
+      <c r="K65" s="20">
+        <v>8</v>
+      </c>
+      <c r="L65" s="20">
+        <v>10</v>
+      </c>
+      <c r="M65" s="20">
+        <v>4</v>
+      </c>
+      <c r="N65" s="20">
+        <v>8</v>
+      </c>
+      <c r="O65" s="20">
+        <v>9</v>
+      </c>
+      <c r="P65" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="20">
+        <v>5</v>
+      </c>
+      <c r="R65" s="20">
+        <v>1</v>
+      </c>
+      <c r="S65" s="20">
+        <v>2</v>
+      </c>
+      <c r="T65" s="20">
+        <v>3</v>
+      </c>
+      <c r="U65" s="24">
+        <v>0</v>
+      </c>
+      <c r="V65" s="20">
+        <v>0</v>
+      </c>
+      <c r="W65" s="60">
+        <v>0</v>
+      </c>
+      <c r="X65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y65" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z65" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG65" s="28">
+        <v>90</v>
+      </c>
+      <c r="AH65" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN65" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ65" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A66" s="32">
+        <v>190729152341</v>
+      </c>
+      <c r="B66" s="4">
+        <v>13</v>
+      </c>
+      <c r="C66" s="26">
+        <v>3</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="19">
+        <v>2</v>
+      </c>
+      <c r="H66" s="20">
+        <v>2</v>
+      </c>
+      <c r="I66" s="20">
+        <v>1</v>
+      </c>
+      <c r="J66" s="20">
+        <v>0</v>
+      </c>
+      <c r="K66" s="20">
+        <v>8</v>
+      </c>
+      <c r="L66" s="20">
+        <v>10</v>
+      </c>
+      <c r="M66" s="20">
+        <v>4</v>
+      </c>
+      <c r="N66" s="20">
+        <v>8</v>
+      </c>
+      <c r="O66" s="20">
+        <v>9</v>
+      </c>
+      <c r="P66" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q66" s="20">
+        <v>5</v>
+      </c>
+      <c r="R66" s="20">
+        <v>1</v>
+      </c>
+      <c r="S66" s="20">
+        <v>2</v>
+      </c>
+      <c r="T66" s="20">
+        <v>3</v>
+      </c>
+      <c r="U66" s="24">
+        <v>0</v>
+      </c>
+      <c r="V66" s="20">
+        <v>0</v>
+      </c>
+      <c r="W66" s="60">
+        <v>0</v>
+      </c>
+      <c r="X66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z66" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI66" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL66" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM66" s="3">
+        <v>89</v>
+      </c>
+      <c r="AN66" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP66" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ66" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A67" s="32">
+        <v>190729152454</v>
+      </c>
+      <c r="B67" s="4">
+        <v>13</v>
+      </c>
+      <c r="C67" s="26">
+        <v>4</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="19">
+        <v>2</v>
+      </c>
+      <c r="H67" s="20">
+        <v>2</v>
+      </c>
+      <c r="I67" s="20">
+        <v>1</v>
+      </c>
+      <c r="J67" s="20">
+        <v>0</v>
+      </c>
+      <c r="K67" s="20">
+        <v>8</v>
+      </c>
+      <c r="L67" s="20">
+        <v>10</v>
+      </c>
+      <c r="M67" s="20">
+        <v>4</v>
+      </c>
+      <c r="N67" s="20">
+        <v>8</v>
+      </c>
+      <c r="O67" s="20">
+        <v>9</v>
+      </c>
+      <c r="P67" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>5</v>
+      </c>
+      <c r="R67" s="20">
+        <v>1</v>
+      </c>
+      <c r="S67" s="20">
+        <v>2</v>
+      </c>
+      <c r="T67" s="20">
+        <v>3</v>
+      </c>
+      <c r="U67" s="24">
+        <v>0</v>
+      </c>
+      <c r="V67" s="20">
+        <v>0</v>
+      </c>
+      <c r="W67" s="60">
+        <v>0</v>
+      </c>
+      <c r="X67" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z67" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI67" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL67" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM67" s="3">
+        <v>89</v>
+      </c>
+      <c r="AN67" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP67" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ67" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A68" s="32">
+        <v>190729153210</v>
+      </c>
+      <c r="B68" s="4">
+        <v>13</v>
+      </c>
+      <c r="C68" s="26">
+        <v>5</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="19">
+        <v>2</v>
+      </c>
+      <c r="H68" s="20">
+        <v>2</v>
+      </c>
+      <c r="I68" s="20">
+        <v>1</v>
+      </c>
+      <c r="J68" s="20">
+        <v>0</v>
+      </c>
+      <c r="K68" s="20">
+        <v>8</v>
+      </c>
+      <c r="L68" s="20">
+        <v>10</v>
+      </c>
+      <c r="M68" s="20">
+        <v>4</v>
+      </c>
+      <c r="N68" s="20">
+        <v>8</v>
+      </c>
+      <c r="O68" s="20">
+        <v>9</v>
+      </c>
+      <c r="P68" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="20">
+        <v>5</v>
+      </c>
+      <c r="R68" s="20">
+        <v>1</v>
+      </c>
+      <c r="S68" s="20">
+        <v>2</v>
+      </c>
+      <c r="T68" s="20">
+        <v>3</v>
+      </c>
+      <c r="U68" s="24">
+        <v>0</v>
+      </c>
+      <c r="V68" s="20">
+        <v>0</v>
+      </c>
+      <c r="W68" s="60">
+        <v>0</v>
+      </c>
+      <c r="X68" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z68" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI68" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ68" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL68" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM68" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN68" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP68" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ68" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A69" s="32">
+        <v>190729153307</v>
+      </c>
+      <c r="B69" s="4">
+        <v>13</v>
+      </c>
+      <c r="C69" s="26">
+        <v>6</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="19">
+        <v>2</v>
+      </c>
+      <c r="H69" s="20">
+        <v>2</v>
+      </c>
+      <c r="I69" s="20">
+        <v>1</v>
+      </c>
+      <c r="J69" s="20">
+        <v>0</v>
+      </c>
+      <c r="K69" s="20">
+        <v>8</v>
+      </c>
+      <c r="L69" s="20">
+        <v>10</v>
+      </c>
+      <c r="M69" s="20">
+        <v>4</v>
+      </c>
+      <c r="N69" s="20">
+        <v>8</v>
+      </c>
+      <c r="O69" s="20">
+        <v>9</v>
+      </c>
+      <c r="P69" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="20">
+        <v>5</v>
+      </c>
+      <c r="R69" s="20">
+        <v>1</v>
+      </c>
+      <c r="S69" s="20">
+        <v>2</v>
+      </c>
+      <c r="T69" s="20">
+        <v>3</v>
+      </c>
+      <c r="U69" s="24">
+        <v>0</v>
+      </c>
+      <c r="V69" s="20">
+        <v>0</v>
+      </c>
+      <c r="W69" s="60">
+        <v>0</v>
+      </c>
+      <c r="X69" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z69" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI69" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ69" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL69" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM69" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN69" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP69" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ69" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
+        <v>190729153435</v>
+      </c>
+      <c r="B70" s="4">
+        <v>13</v>
+      </c>
+      <c r="C70" s="26">
+        <v>7</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="19">
+        <v>2</v>
+      </c>
+      <c r="H70" s="20">
+        <v>2</v>
+      </c>
+      <c r="I70" s="20">
+        <v>1</v>
+      </c>
+      <c r="J70" s="20">
+        <v>0</v>
+      </c>
+      <c r="K70" s="20">
+        <v>8</v>
+      </c>
+      <c r="L70" s="20">
+        <v>10</v>
+      </c>
+      <c r="M70" s="20">
+        <v>4</v>
+      </c>
+      <c r="N70" s="20">
+        <v>8</v>
+      </c>
+      <c r="O70" s="20">
+        <v>9</v>
+      </c>
+      <c r="P70" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="20">
+        <v>5</v>
+      </c>
+      <c r="R70" s="20">
+        <v>1</v>
+      </c>
+      <c r="S70" s="20">
+        <v>2</v>
+      </c>
+      <c r="T70" s="20">
+        <v>3</v>
+      </c>
+      <c r="U70" s="24">
+        <v>0</v>
+      </c>
+      <c r="V70" s="20">
+        <v>0</v>
+      </c>
+      <c r="W70" s="60">
+        <v>0</v>
+      </c>
+      <c r="X70" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z70" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI70" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ70" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL70" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM70" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN70" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP70" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ70" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A71" s="32">
+        <v>190729154828</v>
+      </c>
+      <c r="B71" s="4">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26">
+        <v>8</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="19">
+        <v>2</v>
+      </c>
+      <c r="H71" s="20">
+        <v>2</v>
+      </c>
+      <c r="I71" s="20">
+        <v>1</v>
+      </c>
+      <c r="J71" s="20">
+        <v>0</v>
+      </c>
+      <c r="K71" s="20">
+        <v>8</v>
+      </c>
+      <c r="L71" s="20">
+        <v>10</v>
+      </c>
+      <c r="M71" s="20">
+        <v>4</v>
+      </c>
+      <c r="N71" s="20">
+        <v>8</v>
+      </c>
+      <c r="O71" s="20">
+        <v>9</v>
+      </c>
+      <c r="P71" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q71" s="20">
+        <v>5</v>
+      </c>
+      <c r="R71" s="20">
+        <v>1</v>
+      </c>
+      <c r="S71" s="20">
+        <v>2</v>
+      </c>
+      <c r="T71" s="20">
+        <v>3</v>
+      </c>
+      <c r="U71" s="24">
+        <v>0</v>
+      </c>
+      <c r="V71" s="20">
+        <v>0</v>
+      </c>
+      <c r="W71" s="60">
+        <v>0</v>
+      </c>
+      <c r="X71" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z71" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI71" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ71" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL71" s="3">
+        <v>9</v>
+      </c>
+      <c r="AM71" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN71" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP71" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ71" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A72" s="32">
+        <v>190729154930</v>
+      </c>
+      <c r="B72" s="4">
+        <v>13</v>
+      </c>
+      <c r="C72" s="26">
+        <v>9</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="19">
+        <v>2</v>
+      </c>
+      <c r="H72" s="20">
+        <v>2</v>
+      </c>
+      <c r="I72" s="20">
+        <v>1</v>
+      </c>
+      <c r="J72" s="20">
+        <v>0</v>
+      </c>
+      <c r="K72" s="20">
+        <v>8</v>
+      </c>
+      <c r="L72" s="20">
+        <v>10</v>
+      </c>
+      <c r="M72" s="20">
+        <v>4</v>
+      </c>
+      <c r="N72" s="20">
+        <v>8</v>
+      </c>
+      <c r="O72" s="20">
+        <v>9</v>
+      </c>
+      <c r="P72" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q72" s="20">
+        <v>5</v>
+      </c>
+      <c r="R72" s="20">
+        <v>1</v>
+      </c>
+      <c r="S72" s="20">
+        <v>2</v>
+      </c>
+      <c r="T72" s="20">
+        <v>3</v>
+      </c>
+      <c r="U72" s="24">
+        <v>0</v>
+      </c>
+      <c r="V72" s="20">
+        <v>0</v>
+      </c>
+      <c r="W72" s="60">
+        <v>0</v>
+      </c>
+      <c r="X72" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z72" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI72" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ72" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL72" s="3">
+        <v>9</v>
+      </c>
+      <c r="AM72" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN72" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP72" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ72" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A73" s="32">
+        <v>190729155022</v>
+      </c>
+      <c r="B73" s="4">
+        <v>13</v>
+      </c>
+      <c r="C73" s="26">
+        <v>10</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="19">
+        <v>2</v>
+      </c>
+      <c r="H73" s="20">
+        <v>2</v>
+      </c>
+      <c r="I73" s="20">
+        <v>1</v>
+      </c>
+      <c r="J73" s="20">
+        <v>0</v>
+      </c>
+      <c r="K73" s="20">
+        <v>8</v>
+      </c>
+      <c r="L73" s="20">
+        <v>10</v>
+      </c>
+      <c r="M73" s="20">
+        <v>4</v>
+      </c>
+      <c r="N73" s="20">
+        <v>8</v>
+      </c>
+      <c r="O73" s="20">
+        <v>9</v>
+      </c>
+      <c r="P73" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q73" s="20">
+        <v>5</v>
+      </c>
+      <c r="R73" s="20">
+        <v>1</v>
+      </c>
+      <c r="S73" s="20">
+        <v>2</v>
+      </c>
+      <c r="T73" s="20">
+        <v>3</v>
+      </c>
+      <c r="U73" s="24">
+        <v>0</v>
+      </c>
+      <c r="V73" s="20">
+        <v>0</v>
+      </c>
+      <c r="W73" s="60">
+        <v>0</v>
+      </c>
+      <c r="X73" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z73" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI73" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ73" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL73" s="3">
+        <v>9</v>
+      </c>
+      <c r="AM73" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN73" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP73" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ73" s="34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="1048576" spans="1:43" x14ac:dyDescent="0.25">

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBACA0-E55D-422C-B5A2-BFCB0D80A133}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208BD729-D9E8-4AB5-9F49-8246F8F6662D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="58">
   <si>
     <t>Time</t>
   </si>
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="AJ65" sqref="AJ65"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="AC76" sqref="AC76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11750,6 +11750,792 @@
         <v>3</v>
       </c>
       <c r="AQ73" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A74" s="32">
+        <v>190729155529</v>
+      </c>
+      <c r="B74" s="4">
+        <v>13</v>
+      </c>
+      <c r="C74" s="26">
+        <v>11</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="19">
+        <v>2</v>
+      </c>
+      <c r="H74" s="20">
+        <v>2</v>
+      </c>
+      <c r="I74" s="20">
+        <v>1</v>
+      </c>
+      <c r="J74" s="20">
+        <v>0</v>
+      </c>
+      <c r="K74" s="20">
+        <v>8</v>
+      </c>
+      <c r="L74" s="20">
+        <v>10</v>
+      </c>
+      <c r="M74" s="20">
+        <v>4</v>
+      </c>
+      <c r="N74" s="20">
+        <v>8</v>
+      </c>
+      <c r="O74" s="20">
+        <v>9</v>
+      </c>
+      <c r="P74" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q74" s="20">
+        <v>5</v>
+      </c>
+      <c r="R74" s="20">
+        <v>1</v>
+      </c>
+      <c r="S74" s="20">
+        <v>2</v>
+      </c>
+      <c r="T74" s="20">
+        <v>3</v>
+      </c>
+      <c r="U74" s="24">
+        <v>0</v>
+      </c>
+      <c r="V74" s="20">
+        <v>0</v>
+      </c>
+      <c r="W74" s="60">
+        <v>0</v>
+      </c>
+      <c r="X74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z74" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ74" s="8">
+        <v>8</v>
+      </c>
+      <c r="AK74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL74" s="3">
+        <v>9</v>
+      </c>
+      <c r="AM74" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN74" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP74" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ74" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A75" s="32">
+        <v>190729155629</v>
+      </c>
+      <c r="B75" s="4">
+        <v>13</v>
+      </c>
+      <c r="C75" s="26">
+        <v>12</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="19">
+        <v>2</v>
+      </c>
+      <c r="H75" s="20">
+        <v>2</v>
+      </c>
+      <c r="I75" s="20">
+        <v>1</v>
+      </c>
+      <c r="J75" s="20">
+        <v>0</v>
+      </c>
+      <c r="K75" s="20">
+        <v>8</v>
+      </c>
+      <c r="L75" s="20">
+        <v>10</v>
+      </c>
+      <c r="M75" s="20">
+        <v>4</v>
+      </c>
+      <c r="N75" s="20">
+        <v>8</v>
+      </c>
+      <c r="O75" s="20">
+        <v>9</v>
+      </c>
+      <c r="P75" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q75" s="20">
+        <v>5</v>
+      </c>
+      <c r="R75" s="20">
+        <v>1</v>
+      </c>
+      <c r="S75" s="20">
+        <v>2</v>
+      </c>
+      <c r="T75" s="20">
+        <v>3</v>
+      </c>
+      <c r="U75" s="24">
+        <v>0</v>
+      </c>
+      <c r="V75" s="20">
+        <v>0</v>
+      </c>
+      <c r="W75" s="60">
+        <v>0</v>
+      </c>
+      <c r="X75" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z75" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="28">
+        <v>10</v>
+      </c>
+      <c r="AJ75" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL75" s="3">
+        <v>9</v>
+      </c>
+      <c r="AM75" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN75" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP75" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ75" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A76" s="32">
+        <v>190729160322</v>
+      </c>
+      <c r="B76" s="4">
+        <v>13</v>
+      </c>
+      <c r="C76" s="26">
+        <v>13</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="19">
+        <v>2</v>
+      </c>
+      <c r="H76" s="20">
+        <v>2</v>
+      </c>
+      <c r="I76" s="20">
+        <v>1</v>
+      </c>
+      <c r="J76" s="20">
+        <v>0</v>
+      </c>
+      <c r="K76" s="20">
+        <v>8</v>
+      </c>
+      <c r="L76" s="20">
+        <v>10</v>
+      </c>
+      <c r="M76" s="20">
+        <v>4</v>
+      </c>
+      <c r="N76" s="20">
+        <v>8</v>
+      </c>
+      <c r="O76" s="20">
+        <v>9</v>
+      </c>
+      <c r="P76" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q76" s="20">
+        <v>5</v>
+      </c>
+      <c r="R76" s="20">
+        <v>1</v>
+      </c>
+      <c r="S76" s="20">
+        <v>2</v>
+      </c>
+      <c r="T76" s="20">
+        <v>3</v>
+      </c>
+      <c r="U76" s="24">
+        <v>0</v>
+      </c>
+      <c r="V76" s="20">
+        <v>0</v>
+      </c>
+      <c r="W76" s="60">
+        <v>0</v>
+      </c>
+      <c r="X76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z76" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI76" s="28">
+        <v>2</v>
+      </c>
+      <c r="AJ76" s="8">
+        <v>5</v>
+      </c>
+      <c r="AK76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL76" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM76" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN76" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP76" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ76" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A77" s="32">
+        <v>190729160412</v>
+      </c>
+      <c r="B77" s="4">
+        <v>13</v>
+      </c>
+      <c r="C77" s="26">
+        <v>14</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" s="19">
+        <v>2</v>
+      </c>
+      <c r="H77" s="20">
+        <v>2</v>
+      </c>
+      <c r="I77" s="20">
+        <v>1</v>
+      </c>
+      <c r="J77" s="20">
+        <v>0</v>
+      </c>
+      <c r="K77" s="20">
+        <v>8</v>
+      </c>
+      <c r="L77" s="20">
+        <v>10</v>
+      </c>
+      <c r="M77" s="20">
+        <v>4</v>
+      </c>
+      <c r="N77" s="20">
+        <v>8</v>
+      </c>
+      <c r="O77" s="20">
+        <v>9</v>
+      </c>
+      <c r="P77" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q77" s="20">
+        <v>5</v>
+      </c>
+      <c r="R77" s="20">
+        <v>1</v>
+      </c>
+      <c r="S77" s="20">
+        <v>2</v>
+      </c>
+      <c r="T77" s="20">
+        <v>3</v>
+      </c>
+      <c r="U77" s="24">
+        <v>0</v>
+      </c>
+      <c r="V77" s="20">
+        <v>0</v>
+      </c>
+      <c r="W77" s="60">
+        <v>0</v>
+      </c>
+      <c r="X77" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z77" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI77" s="28">
+        <v>2</v>
+      </c>
+      <c r="AJ77" s="8">
+        <v>5</v>
+      </c>
+      <c r="AK77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL77" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM77" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN77" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP77" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ77" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A78" s="32">
+        <v>190729160521</v>
+      </c>
+      <c r="B78" s="4">
+        <v>13</v>
+      </c>
+      <c r="C78" s="26">
+        <v>15</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="19">
+        <v>2</v>
+      </c>
+      <c r="H78" s="20">
+        <v>2</v>
+      </c>
+      <c r="I78" s="20">
+        <v>1</v>
+      </c>
+      <c r="J78" s="20">
+        <v>0</v>
+      </c>
+      <c r="K78" s="20">
+        <v>8</v>
+      </c>
+      <c r="L78" s="20">
+        <v>10</v>
+      </c>
+      <c r="M78" s="20">
+        <v>4</v>
+      </c>
+      <c r="N78" s="20">
+        <v>8</v>
+      </c>
+      <c r="O78" s="20">
+        <v>9</v>
+      </c>
+      <c r="P78" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q78" s="20">
+        <v>5</v>
+      </c>
+      <c r="R78" s="20">
+        <v>1</v>
+      </c>
+      <c r="S78" s="20">
+        <v>2</v>
+      </c>
+      <c r="T78" s="20">
+        <v>3</v>
+      </c>
+      <c r="U78" s="24">
+        <v>0</v>
+      </c>
+      <c r="V78" s="20">
+        <v>0</v>
+      </c>
+      <c r="W78" s="60">
+        <v>0</v>
+      </c>
+      <c r="X78" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z78" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI78" s="28">
+        <v>2</v>
+      </c>
+      <c r="AJ78" s="8">
+        <v>5</v>
+      </c>
+      <c r="AK78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL78" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM78" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN78" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP78" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ78" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A79" s="32">
+        <v>190729160613</v>
+      </c>
+      <c r="B79" s="4">
+        <v>13</v>
+      </c>
+      <c r="C79" s="26">
+        <v>16</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="19">
+        <v>2</v>
+      </c>
+      <c r="H79" s="20">
+        <v>2</v>
+      </c>
+      <c r="I79" s="20">
+        <v>1</v>
+      </c>
+      <c r="J79" s="20">
+        <v>0</v>
+      </c>
+      <c r="K79" s="20">
+        <v>8</v>
+      </c>
+      <c r="L79" s="20">
+        <v>10</v>
+      </c>
+      <c r="M79" s="20">
+        <v>4</v>
+      </c>
+      <c r="N79" s="20">
+        <v>8</v>
+      </c>
+      <c r="O79" s="20">
+        <v>9</v>
+      </c>
+      <c r="P79" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="20">
+        <v>5</v>
+      </c>
+      <c r="R79" s="20">
+        <v>1</v>
+      </c>
+      <c r="S79" s="20">
+        <v>2</v>
+      </c>
+      <c r="T79" s="20">
+        <v>3</v>
+      </c>
+      <c r="U79" s="24">
+        <v>0</v>
+      </c>
+      <c r="V79" s="20">
+        <v>0</v>
+      </c>
+      <c r="W79" s="60">
+        <v>0</v>
+      </c>
+      <c r="X79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z79" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF79" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI79" s="28">
+        <v>2</v>
+      </c>
+      <c r="AJ79" s="8">
+        <v>5</v>
+      </c>
+      <c r="AK79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL79" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM79" s="3">
+        <v>91</v>
+      </c>
+      <c r="AN79" s="16">
+        <v>1400</v>
+      </c>
+      <c r="AO79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP79" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ79" s="34" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208BD729-D9E8-4AB5-9F49-8246F8F6662D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1506D44-142A-4CE3-9FDD-3766453AB103}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -200,10 +200,10 @@
     <t>Power</t>
   </si>
   <si>
-    <t>L21</t>
+    <t>F</t>
   </si>
   <si>
-    <t>F</t>
+    <t>21D</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2141,7 @@
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="AC76" sqref="AC76"/>
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10457,10 +10457,10 @@
         <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G64" s="19">
         <v>2</v>
@@ -10588,10 +10588,10 @@
         <v>48</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G65" s="19">
         <v>2</v>
@@ -10719,10 +10719,10 @@
         <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G66" s="19">
         <v>2</v>
@@ -10850,10 +10850,10 @@
         <v>48</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G67" s="19">
         <v>2</v>
@@ -10981,10 +10981,10 @@
         <v>48</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G68" s="19">
         <v>2</v>
@@ -11112,10 +11112,10 @@
         <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G69" s="19">
         <v>2</v>
@@ -11243,10 +11243,10 @@
         <v>48</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G70" s="19">
         <v>2</v>
@@ -11374,10 +11374,10 @@
         <v>48</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G71" s="19">
         <v>2</v>
@@ -11505,10 +11505,10 @@
         <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G72" s="19">
         <v>2</v>
@@ -11636,10 +11636,10 @@
         <v>48</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G73" s="19">
         <v>2</v>
@@ -11767,10 +11767,10 @@
         <v>48</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G74" s="19">
         <v>2</v>
@@ -11898,10 +11898,10 @@
         <v>48</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G75" s="19">
         <v>2</v>
@@ -12029,10 +12029,10 @@
         <v>48</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G76" s="19">
         <v>2</v>
@@ -12160,10 +12160,10 @@
         <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G77" s="19">
         <v>2</v>
@@ -12291,10 +12291,10 @@
         <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G78" s="19">
         <v>2</v>
@@ -12422,10 +12422,10 @@
         <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G79" s="19">
         <v>2</v>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EEDD20-54DA-4259-8F29-5FCA1EC53753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BED5F4-3289-4B0D-BCB6-82E7952B023A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="68">
   <si>
     <t>Time</t>
   </si>
@@ -226,15 +226,30 @@
   <si>
     <t>bars2</t>
   </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>bars10ic</t>
+  </si>
+  <si>
+    <t>bars2ic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2234,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,13 +2267,13 @@
     <col min="10" max="10" width="7.85546875" style="16" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="16" customWidth="1"/>
     <col min="12" max="12" width="6.42578125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="16" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="16" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="16" customWidth="1"/>
     <col min="16" max="16" width="9" style="16" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="16" customWidth="1"/>
     <col min="21" max="21" width="10.28515625" style="20" customWidth="1"/>
     <col min="22" max="22" width="7.140625" style="16" customWidth="1"/>
     <col min="23" max="23" width="9" style="51" customWidth="1"/>
@@ -2274,7 +2289,7 @@
     <col min="33" max="33" width="4.140625" style="62" customWidth="1"/>
     <col min="34" max="34" width="4.85546875" style="62" customWidth="1"/>
     <col min="35" max="35" width="5.140625" style="62" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="62" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" style="62" customWidth="1"/>
     <col min="37" max="37" width="7.42578125" style="60" customWidth="1"/>
     <col min="38" max="38" width="7" style="3" customWidth="1"/>
     <col min="39" max="39" width="13.42578125" style="3" customWidth="1"/>
@@ -13408,6 +13423,3624 @@
       </c>
       <c r="AR83" s="28" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
+        <v>190731113856</v>
+      </c>
+      <c r="B84" s="4">
+        <v>15</v>
+      </c>
+      <c r="C84" s="22">
+        <v>1</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" s="15">
+        <v>2</v>
+      </c>
+      <c r="H84" s="16">
+        <v>2</v>
+      </c>
+      <c r="I84" s="16">
+        <v>1</v>
+      </c>
+      <c r="J84" s="16">
+        <v>2</v>
+      </c>
+      <c r="K84" s="16">
+        <v>0</v>
+      </c>
+      <c r="L84" s="16">
+        <v>0</v>
+      </c>
+      <c r="M84" s="16">
+        <v>5</v>
+      </c>
+      <c r="N84" s="16">
+        <v>4</v>
+      </c>
+      <c r="O84" s="16">
+        <v>6</v>
+      </c>
+      <c r="P84" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q84" s="16">
+        <v>5</v>
+      </c>
+      <c r="R84" s="16">
+        <v>1</v>
+      </c>
+      <c r="S84" s="16">
+        <v>3</v>
+      </c>
+      <c r="T84" s="16">
+        <v>0</v>
+      </c>
+      <c r="U84" s="20">
+        <v>0</v>
+      </c>
+      <c r="V84" s="16">
+        <v>2</v>
+      </c>
+      <c r="W84" s="51">
+        <v>-1</v>
+      </c>
+      <c r="X84" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y84" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z84" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF84" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG84" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI84" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ84" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK84" s="60">
+        <v>2</v>
+      </c>
+      <c r="AL84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR84" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>190731114036</v>
+      </c>
+      <c r="B85" s="4">
+        <v>15</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="15">
+        <v>2</v>
+      </c>
+      <c r="H85" s="16">
+        <v>2</v>
+      </c>
+      <c r="I85" s="16">
+        <v>1</v>
+      </c>
+      <c r="J85" s="16">
+        <v>2</v>
+      </c>
+      <c r="K85" s="16">
+        <v>0</v>
+      </c>
+      <c r="L85" s="16">
+        <v>0</v>
+      </c>
+      <c r="M85" s="16">
+        <v>5</v>
+      </c>
+      <c r="N85" s="16">
+        <v>4</v>
+      </c>
+      <c r="O85" s="16">
+        <v>6</v>
+      </c>
+      <c r="P85" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q85" s="16">
+        <v>5</v>
+      </c>
+      <c r="R85" s="16">
+        <v>1</v>
+      </c>
+      <c r="S85" s="16">
+        <v>3</v>
+      </c>
+      <c r="T85" s="16">
+        <v>0</v>
+      </c>
+      <c r="U85" s="20">
+        <v>0</v>
+      </c>
+      <c r="V85" s="16">
+        <v>2</v>
+      </c>
+      <c r="W85" s="51">
+        <v>-1</v>
+      </c>
+      <c r="X85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y85" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z85" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF85" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG85" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ85" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK85" s="60">
+        <v>3</v>
+      </c>
+      <c r="AL85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR85" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>190731114631</v>
+      </c>
+      <c r="B86" s="4">
+        <v>15</v>
+      </c>
+      <c r="C86" s="22">
+        <v>3</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="15">
+        <v>2</v>
+      </c>
+      <c r="H86" s="16">
+        <v>2</v>
+      </c>
+      <c r="I86" s="16">
+        <v>1</v>
+      </c>
+      <c r="J86" s="16">
+        <v>2</v>
+      </c>
+      <c r="K86" s="16">
+        <v>0</v>
+      </c>
+      <c r="L86" s="16">
+        <v>0</v>
+      </c>
+      <c r="M86" s="16">
+        <v>5</v>
+      </c>
+      <c r="N86" s="16">
+        <v>4</v>
+      </c>
+      <c r="O86" s="16">
+        <v>6</v>
+      </c>
+      <c r="P86" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q86" s="16">
+        <v>5</v>
+      </c>
+      <c r="R86" s="16">
+        <v>1</v>
+      </c>
+      <c r="S86" s="16">
+        <v>3</v>
+      </c>
+      <c r="T86" s="16">
+        <v>0</v>
+      </c>
+      <c r="U86" s="20">
+        <v>0</v>
+      </c>
+      <c r="V86" s="16">
+        <v>2</v>
+      </c>
+      <c r="W86" s="51">
+        <v>1</v>
+      </c>
+      <c r="X86" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y86" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z86" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF86" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG86" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ86" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK86" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR86" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
+        <v>190731114932</v>
+      </c>
+      <c r="B87" s="4">
+        <v>15</v>
+      </c>
+      <c r="C87" s="22">
+        <v>4</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="15">
+        <v>2</v>
+      </c>
+      <c r="H87" s="16">
+        <v>2</v>
+      </c>
+      <c r="I87" s="16">
+        <v>1</v>
+      </c>
+      <c r="J87" s="16">
+        <v>2</v>
+      </c>
+      <c r="K87" s="16">
+        <v>0</v>
+      </c>
+      <c r="L87" s="16">
+        <v>0</v>
+      </c>
+      <c r="M87" s="16">
+        <v>5</v>
+      </c>
+      <c r="N87" s="16">
+        <v>4</v>
+      </c>
+      <c r="O87" s="16">
+        <v>6</v>
+      </c>
+      <c r="P87" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q87" s="16">
+        <v>5</v>
+      </c>
+      <c r="R87" s="16">
+        <v>1</v>
+      </c>
+      <c r="S87" s="16">
+        <v>3</v>
+      </c>
+      <c r="T87" s="16">
+        <v>0</v>
+      </c>
+      <c r="U87" s="20">
+        <v>0</v>
+      </c>
+      <c r="V87" s="16">
+        <v>2</v>
+      </c>
+      <c r="W87" s="51">
+        <v>0</v>
+      </c>
+      <c r="X87" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y87" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z87" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF87" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG87" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI87" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ87" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK87" s="60">
+        <v>3</v>
+      </c>
+      <c r="AL87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR87" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
+        <v>190731120454</v>
+      </c>
+      <c r="B88" s="4">
+        <v>15</v>
+      </c>
+      <c r="C88" s="22">
+        <v>5</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="15">
+        <v>2</v>
+      </c>
+      <c r="H88" s="16">
+        <v>2</v>
+      </c>
+      <c r="I88" s="16">
+        <v>1</v>
+      </c>
+      <c r="J88" s="16">
+        <v>2</v>
+      </c>
+      <c r="K88" s="16">
+        <v>0</v>
+      </c>
+      <c r="L88" s="16">
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
+        <v>5</v>
+      </c>
+      <c r="N88" s="16">
+        <v>4</v>
+      </c>
+      <c r="O88" s="16">
+        <v>6</v>
+      </c>
+      <c r="P88" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q88" s="16">
+        <v>5</v>
+      </c>
+      <c r="R88" s="16">
+        <v>1</v>
+      </c>
+      <c r="S88" s="16">
+        <v>3</v>
+      </c>
+      <c r="T88" s="16">
+        <v>0</v>
+      </c>
+      <c r="U88" s="20">
+        <v>0</v>
+      </c>
+      <c r="V88" s="16">
+        <v>2</v>
+      </c>
+      <c r="W88" s="51">
+        <v>0</v>
+      </c>
+      <c r="X88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z88" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC88" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF88" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI88" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ88" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK88" s="60">
+        <v>4</v>
+      </c>
+      <c r="AL88" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM88" s="3">
+        <v>9</v>
+      </c>
+      <c r="AN88" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO88" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP88" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ88" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR88" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A89" s="26">
+        <v>190731120554</v>
+      </c>
+      <c r="B89" s="4">
+        <v>15</v>
+      </c>
+      <c r="C89" s="22">
+        <v>6</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="15">
+        <v>2</v>
+      </c>
+      <c r="H89" s="16">
+        <v>2</v>
+      </c>
+      <c r="I89" s="16">
+        <v>1</v>
+      </c>
+      <c r="J89" s="16">
+        <v>2</v>
+      </c>
+      <c r="K89" s="16">
+        <v>0</v>
+      </c>
+      <c r="L89" s="16">
+        <v>0</v>
+      </c>
+      <c r="M89" s="16">
+        <v>5</v>
+      </c>
+      <c r="N89" s="16">
+        <v>4</v>
+      </c>
+      <c r="O89" s="16">
+        <v>6</v>
+      </c>
+      <c r="P89" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q89" s="16">
+        <v>5</v>
+      </c>
+      <c r="R89" s="16">
+        <v>1</v>
+      </c>
+      <c r="S89" s="16">
+        <v>3</v>
+      </c>
+      <c r="T89" s="16">
+        <v>0</v>
+      </c>
+      <c r="U89" s="20">
+        <v>0</v>
+      </c>
+      <c r="V89" s="16">
+        <v>2</v>
+      </c>
+      <c r="W89" s="51">
+        <v>0</v>
+      </c>
+      <c r="X89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z89" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF89" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI89" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ89" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK89" s="60">
+        <v>5</v>
+      </c>
+      <c r="AL89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM89" s="3">
+        <v>9</v>
+      </c>
+      <c r="AN89" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ89" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR89" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A90" s="26">
+        <v>190731120643</v>
+      </c>
+      <c r="B90" s="4">
+        <v>15</v>
+      </c>
+      <c r="C90" s="22">
+        <v>7</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="15">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16">
+        <v>2</v>
+      </c>
+      <c r="I90" s="16">
+        <v>1</v>
+      </c>
+      <c r="J90" s="16">
+        <v>2</v>
+      </c>
+      <c r="K90" s="16">
+        <v>0</v>
+      </c>
+      <c r="L90" s="16">
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <v>5</v>
+      </c>
+      <c r="N90" s="16">
+        <v>4</v>
+      </c>
+      <c r="O90" s="16">
+        <v>6</v>
+      </c>
+      <c r="P90" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q90" s="16">
+        <v>5</v>
+      </c>
+      <c r="R90" s="16">
+        <v>1</v>
+      </c>
+      <c r="S90" s="16">
+        <v>3</v>
+      </c>
+      <c r="T90" s="16">
+        <v>0</v>
+      </c>
+      <c r="U90" s="20">
+        <v>0</v>
+      </c>
+      <c r="V90" s="16">
+        <v>2</v>
+      </c>
+      <c r="W90" s="51">
+        <v>0</v>
+      </c>
+      <c r="X90" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z90" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC90" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI90" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ90" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK90" s="60">
+        <v>6</v>
+      </c>
+      <c r="AL90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM90" s="3">
+        <v>9</v>
+      </c>
+      <c r="AN90" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO90" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ90" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR90" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A91" s="26">
+        <v>190731121115</v>
+      </c>
+      <c r="B91" s="4">
+        <v>15</v>
+      </c>
+      <c r="C91" s="22">
+        <v>8</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="15">
+        <v>2</v>
+      </c>
+      <c r="H91" s="16">
+        <v>2</v>
+      </c>
+      <c r="I91" s="16">
+        <v>1</v>
+      </c>
+      <c r="J91" s="16">
+        <v>2</v>
+      </c>
+      <c r="K91" s="16">
+        <v>0</v>
+      </c>
+      <c r="L91" s="16">
+        <v>0</v>
+      </c>
+      <c r="M91" s="16">
+        <v>5</v>
+      </c>
+      <c r="N91" s="16">
+        <v>4</v>
+      </c>
+      <c r="O91" s="16">
+        <v>6</v>
+      </c>
+      <c r="P91" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q91" s="16">
+        <v>5</v>
+      </c>
+      <c r="R91" s="16">
+        <v>1</v>
+      </c>
+      <c r="S91" s="16">
+        <v>3</v>
+      </c>
+      <c r="T91" s="16">
+        <v>0</v>
+      </c>
+      <c r="U91" s="20">
+        <v>0</v>
+      </c>
+      <c r="V91" s="16">
+        <v>2</v>
+      </c>
+      <c r="W91" s="51">
+        <v>0</v>
+      </c>
+      <c r="X91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z91" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC91" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI91" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ91" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK91" s="60">
+        <v>10</v>
+      </c>
+      <c r="AL91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM91" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN91" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO91" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ91" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR91" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A92" s="26">
+        <v>190731121214</v>
+      </c>
+      <c r="B92" s="4">
+        <v>15</v>
+      </c>
+      <c r="C92" s="22">
+        <v>9</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="15">
+        <v>2</v>
+      </c>
+      <c r="H92" s="16">
+        <v>2</v>
+      </c>
+      <c r="I92" s="16">
+        <v>1</v>
+      </c>
+      <c r="J92" s="16">
+        <v>2</v>
+      </c>
+      <c r="K92" s="16">
+        <v>0</v>
+      </c>
+      <c r="L92" s="16">
+        <v>0</v>
+      </c>
+      <c r="M92" s="16">
+        <v>5</v>
+      </c>
+      <c r="N92" s="16">
+        <v>4</v>
+      </c>
+      <c r="O92" s="16">
+        <v>6</v>
+      </c>
+      <c r="P92" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q92" s="16">
+        <v>5</v>
+      </c>
+      <c r="R92" s="16">
+        <v>1</v>
+      </c>
+      <c r="S92" s="16">
+        <v>3</v>
+      </c>
+      <c r="T92" s="16">
+        <v>0</v>
+      </c>
+      <c r="U92" s="20">
+        <v>0</v>
+      </c>
+      <c r="V92" s="16">
+        <v>2</v>
+      </c>
+      <c r="W92" s="51">
+        <v>0</v>
+      </c>
+      <c r="X92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z92" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC92" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF92" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI92" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ92" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK92" s="60">
+        <v>7</v>
+      </c>
+      <c r="AL92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM92" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN92" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO92" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ92" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR92" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A93" s="26">
+        <v>190731121316</v>
+      </c>
+      <c r="B93" s="4">
+        <v>15</v>
+      </c>
+      <c r="C93" s="22">
+        <v>10</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="15">
+        <v>2</v>
+      </c>
+      <c r="H93" s="16">
+        <v>2</v>
+      </c>
+      <c r="I93" s="16">
+        <v>1</v>
+      </c>
+      <c r="J93" s="16">
+        <v>2</v>
+      </c>
+      <c r="K93" s="16">
+        <v>0</v>
+      </c>
+      <c r="L93" s="16">
+        <v>0</v>
+      </c>
+      <c r="M93" s="16">
+        <v>5</v>
+      </c>
+      <c r="N93" s="16">
+        <v>4</v>
+      </c>
+      <c r="O93" s="16">
+        <v>6</v>
+      </c>
+      <c r="P93" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q93" s="16">
+        <v>5</v>
+      </c>
+      <c r="R93" s="16">
+        <v>1</v>
+      </c>
+      <c r="S93" s="16">
+        <v>3</v>
+      </c>
+      <c r="T93" s="16">
+        <v>0</v>
+      </c>
+      <c r="U93" s="20">
+        <v>0</v>
+      </c>
+      <c r="V93" s="16">
+        <v>2</v>
+      </c>
+      <c r="W93" s="51">
+        <v>0</v>
+      </c>
+      <c r="X93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z93" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF93" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI93" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ93" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK93" s="60">
+        <v>10</v>
+      </c>
+      <c r="AL93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM93" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN93" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO93" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ93" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR93" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A94" s="26">
+        <v>190731121738</v>
+      </c>
+      <c r="B94" s="4">
+        <v>15</v>
+      </c>
+      <c r="C94" s="22">
+        <v>11</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="15">
+        <v>2</v>
+      </c>
+      <c r="H94" s="16">
+        <v>2</v>
+      </c>
+      <c r="I94" s="16">
+        <v>1</v>
+      </c>
+      <c r="J94" s="16">
+        <v>2</v>
+      </c>
+      <c r="K94" s="16">
+        <v>0</v>
+      </c>
+      <c r="L94" s="16">
+        <v>0</v>
+      </c>
+      <c r="M94" s="16">
+        <v>5</v>
+      </c>
+      <c r="N94" s="16">
+        <v>4</v>
+      </c>
+      <c r="O94" s="16">
+        <v>6</v>
+      </c>
+      <c r="P94" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q94" s="16">
+        <v>5</v>
+      </c>
+      <c r="R94" s="16">
+        <v>1</v>
+      </c>
+      <c r="S94" s="16">
+        <v>3</v>
+      </c>
+      <c r="T94" s="16">
+        <v>0</v>
+      </c>
+      <c r="U94" s="20">
+        <v>0</v>
+      </c>
+      <c r="V94" s="16">
+        <v>2</v>
+      </c>
+      <c r="W94" s="51">
+        <v>0</v>
+      </c>
+      <c r="X94" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z94" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC94" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI94" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ94" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK94" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM94" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN94" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO94" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ94" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR94" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A95" s="26">
+        <v>190731121833</v>
+      </c>
+      <c r="B95" s="4">
+        <v>15</v>
+      </c>
+      <c r="C95" s="22">
+        <v>12</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="15">
+        <v>2</v>
+      </c>
+      <c r="H95" s="16">
+        <v>2</v>
+      </c>
+      <c r="I95" s="16">
+        <v>1</v>
+      </c>
+      <c r="J95" s="16">
+        <v>2</v>
+      </c>
+      <c r="K95" s="16">
+        <v>0</v>
+      </c>
+      <c r="L95" s="16">
+        <v>0</v>
+      </c>
+      <c r="M95" s="16">
+        <v>5</v>
+      </c>
+      <c r="N95" s="16">
+        <v>4</v>
+      </c>
+      <c r="O95" s="16">
+        <v>6</v>
+      </c>
+      <c r="P95" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q95" s="16">
+        <v>5</v>
+      </c>
+      <c r="R95" s="16">
+        <v>1</v>
+      </c>
+      <c r="S95" s="16">
+        <v>3</v>
+      </c>
+      <c r="T95" s="16">
+        <v>0</v>
+      </c>
+      <c r="U95" s="20">
+        <v>0</v>
+      </c>
+      <c r="V95" s="16">
+        <v>2</v>
+      </c>
+      <c r="W95" s="51">
+        <v>0</v>
+      </c>
+      <c r="X95" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z95" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC95" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF95" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI95" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ95" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK95" s="60">
+        <v>9</v>
+      </c>
+      <c r="AL95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM95" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN95" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO95" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ95" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR95" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A96" s="26">
+        <v>190731121931</v>
+      </c>
+      <c r="B96" s="4">
+        <v>15</v>
+      </c>
+      <c r="C96" s="22">
+        <v>13</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" s="15">
+        <v>2</v>
+      </c>
+      <c r="H96" s="16">
+        <v>2</v>
+      </c>
+      <c r="I96" s="16">
+        <v>1</v>
+      </c>
+      <c r="J96" s="16">
+        <v>2</v>
+      </c>
+      <c r="K96" s="16">
+        <v>0</v>
+      </c>
+      <c r="L96" s="16">
+        <v>0</v>
+      </c>
+      <c r="M96" s="16">
+        <v>5</v>
+      </c>
+      <c r="N96" s="16">
+        <v>4</v>
+      </c>
+      <c r="O96" s="16">
+        <v>6</v>
+      </c>
+      <c r="P96" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q96" s="16">
+        <v>5</v>
+      </c>
+      <c r="R96" s="16">
+        <v>1</v>
+      </c>
+      <c r="S96" s="16">
+        <v>3</v>
+      </c>
+      <c r="T96" s="16">
+        <v>0</v>
+      </c>
+      <c r="U96" s="20">
+        <v>0</v>
+      </c>
+      <c r="V96" s="16">
+        <v>2</v>
+      </c>
+      <c r="W96" s="51">
+        <v>0</v>
+      </c>
+      <c r="X96" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z96" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF96" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI96" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ96" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK96" s="60">
+        <v>7</v>
+      </c>
+      <c r="AL96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM96" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN96" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO96" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ96" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR96" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A97" s="26">
+        <v>190731122231</v>
+      </c>
+      <c r="B97" s="4">
+        <v>15</v>
+      </c>
+      <c r="C97" s="22">
+        <v>14</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" s="15">
+        <v>2</v>
+      </c>
+      <c r="H97" s="16">
+        <v>2</v>
+      </c>
+      <c r="I97" s="16">
+        <v>1</v>
+      </c>
+      <c r="J97" s="16">
+        <v>2</v>
+      </c>
+      <c r="K97" s="16">
+        <v>0</v>
+      </c>
+      <c r="L97" s="16">
+        <v>0</v>
+      </c>
+      <c r="M97" s="16">
+        <v>5</v>
+      </c>
+      <c r="N97" s="16">
+        <v>4</v>
+      </c>
+      <c r="O97" s="16">
+        <v>6</v>
+      </c>
+      <c r="P97" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q97" s="16">
+        <v>5</v>
+      </c>
+      <c r="R97" s="16">
+        <v>1</v>
+      </c>
+      <c r="S97" s="16">
+        <v>3</v>
+      </c>
+      <c r="T97" s="16">
+        <v>0</v>
+      </c>
+      <c r="U97" s="20">
+        <v>0</v>
+      </c>
+      <c r="V97" s="16">
+        <v>2</v>
+      </c>
+      <c r="W97" s="51">
+        <v>0</v>
+      </c>
+      <c r="X97" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z97" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC97" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF97" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI97" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ97" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK97" s="60">
+        <v>6</v>
+      </c>
+      <c r="AL97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR97" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A98" s="26">
+        <v>190731122520</v>
+      </c>
+      <c r="B98" s="4">
+        <v>15</v>
+      </c>
+      <c r="C98" s="22">
+        <v>15</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="15">
+        <v>2</v>
+      </c>
+      <c r="H98" s="16">
+        <v>2</v>
+      </c>
+      <c r="I98" s="16">
+        <v>1</v>
+      </c>
+      <c r="J98" s="16">
+        <v>2</v>
+      </c>
+      <c r="K98" s="16">
+        <v>0</v>
+      </c>
+      <c r="L98" s="16">
+        <v>0</v>
+      </c>
+      <c r="M98" s="16">
+        <v>5</v>
+      </c>
+      <c r="N98" s="16">
+        <v>4</v>
+      </c>
+      <c r="O98" s="16">
+        <v>6</v>
+      </c>
+      <c r="P98" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q98" s="16">
+        <v>5</v>
+      </c>
+      <c r="R98" s="16">
+        <v>1</v>
+      </c>
+      <c r="S98" s="16">
+        <v>3</v>
+      </c>
+      <c r="T98" s="16">
+        <v>0</v>
+      </c>
+      <c r="U98" s="20">
+        <v>0</v>
+      </c>
+      <c r="V98" s="16">
+        <v>2</v>
+      </c>
+      <c r="W98" s="51">
+        <v>0</v>
+      </c>
+      <c r="X98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z98" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC98" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF98" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI98" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ98" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK98" s="60">
+        <v>6</v>
+      </c>
+      <c r="AL98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM98" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN98" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO98" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP98" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ98" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR98" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A99" s="26">
+        <v>190731122614</v>
+      </c>
+      <c r="B99" s="4">
+        <v>15</v>
+      </c>
+      <c r="C99" s="22">
+        <v>16</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" s="15">
+        <v>2</v>
+      </c>
+      <c r="H99" s="16">
+        <v>2</v>
+      </c>
+      <c r="I99" s="16">
+        <v>1</v>
+      </c>
+      <c r="J99" s="16">
+        <v>2</v>
+      </c>
+      <c r="K99" s="16">
+        <v>0</v>
+      </c>
+      <c r="L99" s="16">
+        <v>0</v>
+      </c>
+      <c r="M99" s="16">
+        <v>5</v>
+      </c>
+      <c r="N99" s="16">
+        <v>4</v>
+      </c>
+      <c r="O99" s="16">
+        <v>6</v>
+      </c>
+      <c r="P99" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q99" s="16">
+        <v>5</v>
+      </c>
+      <c r="R99" s="16">
+        <v>1</v>
+      </c>
+      <c r="S99" s="16">
+        <v>3</v>
+      </c>
+      <c r="T99" s="16">
+        <v>0</v>
+      </c>
+      <c r="U99" s="20">
+        <v>0</v>
+      </c>
+      <c r="V99" s="16">
+        <v>2</v>
+      </c>
+      <c r="W99" s="51">
+        <v>0</v>
+      </c>
+      <c r="X99" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z99" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC99" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI99" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ99" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK99" s="60">
+        <v>6</v>
+      </c>
+      <c r="AL99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM99" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN99" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO99" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP99" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ99" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR99" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A100" s="26">
+        <v>190731122703</v>
+      </c>
+      <c r="B100" s="4">
+        <v>15</v>
+      </c>
+      <c r="C100" s="22">
+        <v>17</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="15">
+        <v>2</v>
+      </c>
+      <c r="H100" s="16">
+        <v>2</v>
+      </c>
+      <c r="I100" s="16">
+        <v>1</v>
+      </c>
+      <c r="J100" s="16">
+        <v>2</v>
+      </c>
+      <c r="K100" s="16">
+        <v>0</v>
+      </c>
+      <c r="L100" s="16">
+        <v>0</v>
+      </c>
+      <c r="M100" s="16">
+        <v>5</v>
+      </c>
+      <c r="N100" s="16">
+        <v>4</v>
+      </c>
+      <c r="O100" s="16">
+        <v>6</v>
+      </c>
+      <c r="P100" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q100" s="16">
+        <v>5</v>
+      </c>
+      <c r="R100" s="16">
+        <v>1</v>
+      </c>
+      <c r="S100" s="16">
+        <v>3</v>
+      </c>
+      <c r="T100" s="16">
+        <v>0</v>
+      </c>
+      <c r="U100" s="20">
+        <v>0</v>
+      </c>
+      <c r="V100" s="16">
+        <v>2</v>
+      </c>
+      <c r="W100" s="51">
+        <v>0</v>
+      </c>
+      <c r="X100" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z100" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB100" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC100" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF100" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI100" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ100" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK100" s="60">
+        <v>10</v>
+      </c>
+      <c r="AL100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM100" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN100" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP100" s="3">
+        <v>7</v>
+      </c>
+      <c r="AQ100" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR100" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A101" s="26">
+        <v>190731123148</v>
+      </c>
+      <c r="B101" s="4">
+        <v>15</v>
+      </c>
+      <c r="C101" s="22">
+        <v>18</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" s="15">
+        <v>2</v>
+      </c>
+      <c r="H101" s="16">
+        <v>2</v>
+      </c>
+      <c r="I101" s="16">
+        <v>1</v>
+      </c>
+      <c r="J101" s="16">
+        <v>2</v>
+      </c>
+      <c r="K101" s="16">
+        <v>0</v>
+      </c>
+      <c r="L101" s="16">
+        <v>0</v>
+      </c>
+      <c r="M101" s="16">
+        <v>5</v>
+      </c>
+      <c r="N101" s="16">
+        <v>4</v>
+      </c>
+      <c r="O101" s="16">
+        <v>6</v>
+      </c>
+      <c r="P101" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q101" s="16">
+        <v>5</v>
+      </c>
+      <c r="R101" s="16">
+        <v>1</v>
+      </c>
+      <c r="S101" s="16">
+        <v>3</v>
+      </c>
+      <c r="T101" s="16">
+        <v>0</v>
+      </c>
+      <c r="U101" s="20">
+        <v>0</v>
+      </c>
+      <c r="V101" s="16">
+        <v>2</v>
+      </c>
+      <c r="W101" s="51">
+        <v>0</v>
+      </c>
+      <c r="X101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z101" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC101" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF101" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI101" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ101" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK101" s="60">
+        <v>4</v>
+      </c>
+      <c r="AL101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM101" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN101" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ101" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR101" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A102" s="26">
+        <v>190731123243</v>
+      </c>
+      <c r="B102" s="4">
+        <v>15</v>
+      </c>
+      <c r="C102" s="22">
+        <v>19</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" s="15">
+        <v>2</v>
+      </c>
+      <c r="H102" s="16">
+        <v>2</v>
+      </c>
+      <c r="I102" s="16">
+        <v>1</v>
+      </c>
+      <c r="J102" s="16">
+        <v>2</v>
+      </c>
+      <c r="K102" s="16">
+        <v>0</v>
+      </c>
+      <c r="L102" s="16">
+        <v>0</v>
+      </c>
+      <c r="M102" s="16">
+        <v>5</v>
+      </c>
+      <c r="N102" s="16">
+        <v>4</v>
+      </c>
+      <c r="O102" s="16">
+        <v>6</v>
+      </c>
+      <c r="P102" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q102" s="16">
+        <v>5</v>
+      </c>
+      <c r="R102" s="16">
+        <v>1</v>
+      </c>
+      <c r="S102" s="16">
+        <v>3</v>
+      </c>
+      <c r="T102" s="16">
+        <v>0</v>
+      </c>
+      <c r="U102" s="20">
+        <v>0</v>
+      </c>
+      <c r="V102" s="16">
+        <v>2</v>
+      </c>
+      <c r="W102" s="51">
+        <v>0</v>
+      </c>
+      <c r="X102" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z102" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF102" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI102" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ102" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK102" s="60">
+        <v>10</v>
+      </c>
+      <c r="AL102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM102" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN102" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ102" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR102" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A103" s="26">
+        <v>190731123339</v>
+      </c>
+      <c r="B103" s="4">
+        <v>15</v>
+      </c>
+      <c r="C103" s="22">
+        <v>20</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="15">
+        <v>2</v>
+      </c>
+      <c r="H103" s="16">
+        <v>2</v>
+      </c>
+      <c r="I103" s="16">
+        <v>1</v>
+      </c>
+      <c r="J103" s="16">
+        <v>2</v>
+      </c>
+      <c r="K103" s="16">
+        <v>0</v>
+      </c>
+      <c r="L103" s="16">
+        <v>0</v>
+      </c>
+      <c r="M103" s="16">
+        <v>5</v>
+      </c>
+      <c r="N103" s="16">
+        <v>4</v>
+      </c>
+      <c r="O103" s="16">
+        <v>6</v>
+      </c>
+      <c r="P103" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q103" s="16">
+        <v>5</v>
+      </c>
+      <c r="R103" s="16">
+        <v>1</v>
+      </c>
+      <c r="S103" s="16">
+        <v>3</v>
+      </c>
+      <c r="T103" s="16">
+        <v>0</v>
+      </c>
+      <c r="U103" s="20">
+        <v>0</v>
+      </c>
+      <c r="V103" s="16">
+        <v>2</v>
+      </c>
+      <c r="W103" s="51">
+        <v>0</v>
+      </c>
+      <c r="X103" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z103" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA103" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB103" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC103" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF103" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI103" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ103" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK103" s="60">
+        <v>7</v>
+      </c>
+      <c r="AL103" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM103" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN103" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO103" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP103" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ103" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR103" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A104" s="26">
+        <v>190731123431</v>
+      </c>
+      <c r="B104" s="4">
+        <v>15</v>
+      </c>
+      <c r="C104" s="22">
+        <v>21</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="15">
+        <v>2</v>
+      </c>
+      <c r="H104" s="16">
+        <v>2</v>
+      </c>
+      <c r="I104" s="16">
+        <v>1</v>
+      </c>
+      <c r="J104" s="16">
+        <v>2</v>
+      </c>
+      <c r="K104" s="16">
+        <v>0</v>
+      </c>
+      <c r="L104" s="16">
+        <v>0</v>
+      </c>
+      <c r="M104" s="16">
+        <v>5</v>
+      </c>
+      <c r="N104" s="16">
+        <v>4</v>
+      </c>
+      <c r="O104" s="16">
+        <v>6</v>
+      </c>
+      <c r="P104" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q104" s="16">
+        <v>5</v>
+      </c>
+      <c r="R104" s="16">
+        <v>1</v>
+      </c>
+      <c r="S104" s="16">
+        <v>3</v>
+      </c>
+      <c r="T104" s="16">
+        <v>0</v>
+      </c>
+      <c r="U104" s="20">
+        <v>0</v>
+      </c>
+      <c r="V104" s="16">
+        <v>2</v>
+      </c>
+      <c r="W104" s="51">
+        <v>0</v>
+      </c>
+      <c r="X104" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z104" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB104" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC104" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF104" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI104" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ104" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK104" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM104" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN104" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO104" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ104" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR104" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A105" s="26">
+        <v>190731123809</v>
+      </c>
+      <c r="B105" s="4">
+        <v>15</v>
+      </c>
+      <c r="C105" s="22">
+        <v>22</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="15">
+        <v>2</v>
+      </c>
+      <c r="H105" s="16">
+        <v>2</v>
+      </c>
+      <c r="I105" s="16">
+        <v>1</v>
+      </c>
+      <c r="J105" s="16">
+        <v>2</v>
+      </c>
+      <c r="K105" s="16">
+        <v>0</v>
+      </c>
+      <c r="L105" s="16">
+        <v>0</v>
+      </c>
+      <c r="M105" s="16">
+        <v>5</v>
+      </c>
+      <c r="N105" s="16">
+        <v>4</v>
+      </c>
+      <c r="O105" s="16">
+        <v>6</v>
+      </c>
+      <c r="P105" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q105" s="16">
+        <v>5</v>
+      </c>
+      <c r="R105" s="16">
+        <v>1</v>
+      </c>
+      <c r="S105" s="16">
+        <v>3</v>
+      </c>
+      <c r="T105" s="16">
+        <v>0</v>
+      </c>
+      <c r="U105" s="20">
+        <v>0</v>
+      </c>
+      <c r="V105" s="16">
+        <v>2</v>
+      </c>
+      <c r="W105" s="51">
+        <v>0</v>
+      </c>
+      <c r="X105" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z105" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA105" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB105" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC105" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF105" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI105" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ105" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK105" s="60">
+        <v>5</v>
+      </c>
+      <c r="AL105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR105" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A106" s="26">
+        <v>190731123902</v>
+      </c>
+      <c r="B106" s="4">
+        <v>15</v>
+      </c>
+      <c r="C106" s="22">
+        <v>23</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" s="15">
+        <v>2</v>
+      </c>
+      <c r="H106" s="16">
+        <v>2</v>
+      </c>
+      <c r="I106" s="16">
+        <v>1</v>
+      </c>
+      <c r="J106" s="16">
+        <v>2</v>
+      </c>
+      <c r="K106" s="16">
+        <v>0</v>
+      </c>
+      <c r="L106" s="16">
+        <v>0</v>
+      </c>
+      <c r="M106" s="16">
+        <v>5</v>
+      </c>
+      <c r="N106" s="16">
+        <v>4</v>
+      </c>
+      <c r="O106" s="16">
+        <v>6</v>
+      </c>
+      <c r="P106" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q106" s="16">
+        <v>5</v>
+      </c>
+      <c r="R106" s="16">
+        <v>1</v>
+      </c>
+      <c r="S106" s="16">
+        <v>3</v>
+      </c>
+      <c r="T106" s="16">
+        <v>0</v>
+      </c>
+      <c r="U106" s="20">
+        <v>0</v>
+      </c>
+      <c r="V106" s="16">
+        <v>2</v>
+      </c>
+      <c r="W106" s="51">
+        <v>0</v>
+      </c>
+      <c r="X106" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z106" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA106" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB106" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC106" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH106" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI106" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ106" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK106" s="60">
+        <v>9</v>
+      </c>
+      <c r="AL106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR106" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A107" s="26">
+        <v>190731124004</v>
+      </c>
+      <c r="B107" s="4">
+        <v>15</v>
+      </c>
+      <c r="C107" s="22">
+        <v>24</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="15">
+        <v>2</v>
+      </c>
+      <c r="H107" s="16">
+        <v>2</v>
+      </c>
+      <c r="I107" s="16">
+        <v>1</v>
+      </c>
+      <c r="J107" s="16">
+        <v>2</v>
+      </c>
+      <c r="K107" s="16">
+        <v>0</v>
+      </c>
+      <c r="L107" s="16">
+        <v>0</v>
+      </c>
+      <c r="M107" s="16">
+        <v>5</v>
+      </c>
+      <c r="N107" s="16">
+        <v>4</v>
+      </c>
+      <c r="O107" s="16">
+        <v>6</v>
+      </c>
+      <c r="P107" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q107" s="16">
+        <v>5</v>
+      </c>
+      <c r="R107" s="16">
+        <v>1</v>
+      </c>
+      <c r="S107" s="16">
+        <v>3</v>
+      </c>
+      <c r="T107" s="16">
+        <v>0</v>
+      </c>
+      <c r="U107" s="20">
+        <v>0</v>
+      </c>
+      <c r="V107" s="16">
+        <v>2</v>
+      </c>
+      <c r="W107" s="51">
+        <v>0</v>
+      </c>
+      <c r="X107" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z107" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA107" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB107" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC107" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF107" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI107" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ107" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK107" s="60">
+        <v>7</v>
+      </c>
+      <c r="AL107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR107" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A108" s="26">
+        <v>190731124128</v>
+      </c>
+      <c r="B108" s="4">
+        <v>15</v>
+      </c>
+      <c r="C108" s="22">
+        <v>25</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" s="15">
+        <v>2</v>
+      </c>
+      <c r="H108" s="16">
+        <v>2</v>
+      </c>
+      <c r="I108" s="16">
+        <v>1</v>
+      </c>
+      <c r="J108" s="16">
+        <v>2</v>
+      </c>
+      <c r="K108" s="16">
+        <v>0</v>
+      </c>
+      <c r="L108" s="16">
+        <v>0</v>
+      </c>
+      <c r="M108" s="16">
+        <v>5</v>
+      </c>
+      <c r="N108" s="16">
+        <v>4</v>
+      </c>
+      <c r="O108" s="16">
+        <v>6</v>
+      </c>
+      <c r="P108" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q108" s="16">
+        <v>5</v>
+      </c>
+      <c r="R108" s="16">
+        <v>1</v>
+      </c>
+      <c r="S108" s="16">
+        <v>3</v>
+      </c>
+      <c r="T108" s="16">
+        <v>0</v>
+      </c>
+      <c r="U108" s="20">
+        <v>0</v>
+      </c>
+      <c r="V108" s="16">
+        <v>2</v>
+      </c>
+      <c r="W108" s="51">
+        <v>0</v>
+      </c>
+      <c r="X108" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z108" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA108" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB108" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC108" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF108" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH108" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI108" s="62">
+        <v>1</v>
+      </c>
+      <c r="AJ108" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK108" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR108" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A109" s="26">
+        <v>190731124219</v>
+      </c>
+      <c r="B109" s="4">
+        <v>15</v>
+      </c>
+      <c r="C109" s="22">
+        <v>26</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="15">
+        <v>2</v>
+      </c>
+      <c r="H109" s="16">
+        <v>2</v>
+      </c>
+      <c r="I109" s="16">
+        <v>1</v>
+      </c>
+      <c r="J109" s="16">
+        <v>2</v>
+      </c>
+      <c r="K109" s="16">
+        <v>0</v>
+      </c>
+      <c r="L109" s="16">
+        <v>0</v>
+      </c>
+      <c r="M109" s="16">
+        <v>5</v>
+      </c>
+      <c r="N109" s="16">
+        <v>4</v>
+      </c>
+      <c r="O109" s="16">
+        <v>6</v>
+      </c>
+      <c r="P109" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q109" s="16">
+        <v>5</v>
+      </c>
+      <c r="R109" s="16">
+        <v>1</v>
+      </c>
+      <c r="S109" s="16">
+        <v>3</v>
+      </c>
+      <c r="T109" s="16">
+        <v>0</v>
+      </c>
+      <c r="U109" s="20">
+        <v>0</v>
+      </c>
+      <c r="V109" s="16">
+        <v>2</v>
+      </c>
+      <c r="W109" s="51">
+        <v>0</v>
+      </c>
+      <c r="X109" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z109" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA109" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB109" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC109" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF109" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI109" s="62">
+        <v>1</v>
+      </c>
+      <c r="AJ109" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK109" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR109" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A110" s="26">
+        <v>190731124321</v>
+      </c>
+      <c r="B110" s="4">
+        <v>15</v>
+      </c>
+      <c r="C110" s="22">
+        <v>27</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" s="15">
+        <v>2</v>
+      </c>
+      <c r="H110" s="16">
+        <v>2</v>
+      </c>
+      <c r="I110" s="16">
+        <v>1</v>
+      </c>
+      <c r="J110" s="16">
+        <v>2</v>
+      </c>
+      <c r="K110" s="16">
+        <v>0</v>
+      </c>
+      <c r="L110" s="16">
+        <v>0</v>
+      </c>
+      <c r="M110" s="16">
+        <v>5</v>
+      </c>
+      <c r="N110" s="16">
+        <v>4</v>
+      </c>
+      <c r="O110" s="16">
+        <v>6</v>
+      </c>
+      <c r="P110" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q110" s="16">
+        <v>5</v>
+      </c>
+      <c r="R110" s="16">
+        <v>1</v>
+      </c>
+      <c r="S110" s="16">
+        <v>3</v>
+      </c>
+      <c r="T110" s="16">
+        <v>0</v>
+      </c>
+      <c r="U110" s="20">
+        <v>0</v>
+      </c>
+      <c r="V110" s="16">
+        <v>2</v>
+      </c>
+      <c r="W110" s="51">
+        <v>0</v>
+      </c>
+      <c r="X110" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z110" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB110" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC110" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF110" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI110" s="62">
+        <v>1</v>
+      </c>
+      <c r="AJ110" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK110" s="60">
+        <v>3</v>
+      </c>
+      <c r="AL110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR110" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="1048576" spans="1:44" x14ac:dyDescent="0.25">
@@ -13452,6 +17085,7 @@
       <c r="AR1048576" s="42"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BED5F4-3289-4B0D-BCB6-82E7952B023A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D003BD-D98C-449A-A3D8-97C233E698FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="68">
   <si>
     <t>Time</t>
   </si>
@@ -209,9 +209,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>21D</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>bars2ic</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2250,7 @@
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="U100" sqref="U100"/>
+      <selection activeCell="AN128" sqref="AN128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,13 +2266,13 @@
     <col min="9" max="9" width="6.28515625" style="16" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" style="16" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="16" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" style="16" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="16" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="16" customWidth="1"/>
     <col min="16" max="16" width="9" style="16" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="16" customWidth="1"/>
     <col min="20" max="20" width="8.85546875" style="16" customWidth="1"/>
     <col min="21" max="21" width="10.28515625" style="20" customWidth="1"/>
     <col min="22" max="22" width="7.140625" style="16" customWidth="1"/>
@@ -2407,7 +2407,7 @@
         <v>41</v>
       </c>
       <c r="AJ1" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK1" s="44" t="s">
         <v>23</v>
@@ -2544,7 +2544,7 @@
         <v>35</v>
       </c>
       <c r="AJ2" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK2" s="59">
         <v>4</v>
@@ -2678,7 +2678,7 @@
         <v>35</v>
       </c>
       <c r="AJ3" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK3" s="60">
         <v>3</v>
@@ -2812,7 +2812,7 @@
         <v>35</v>
       </c>
       <c r="AJ4" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK4" s="60">
         <v>6</v>
@@ -2946,7 +2946,7 @@
         <v>35</v>
       </c>
       <c r="AJ5" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK5" s="60">
         <v>4</v>
@@ -3080,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK6" s="60">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>10</v>
       </c>
       <c r="AJ7" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK7" s="60">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK8" s="60">
         <v>8</v>
@@ -3482,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="AJ9" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK9" s="60">
         <v>7</v>
@@ -3616,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="AJ10" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK10" s="60">
         <v>9</v>
@@ -3750,7 +3750,7 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK11" s="60">
         <v>9</v>
@@ -3884,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="AJ12" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK12" s="60">
         <v>9</v>
@@ -4018,7 +4018,7 @@
         <v>35</v>
       </c>
       <c r="AJ13" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK13" s="60">
         <v>8</v>
@@ -4152,7 +4152,7 @@
         <v>10</v>
       </c>
       <c r="AJ14" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK14" s="60">
         <v>7</v>
@@ -4286,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="AJ15" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK15" s="60">
         <v>8</v>
@@ -4420,7 +4420,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK16" s="60">
         <v>10</v>
@@ -4554,7 +4554,7 @@
         <v>10</v>
       </c>
       <c r="AJ17" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK17" s="60">
         <v>9</v>
@@ -4688,7 +4688,7 @@
         <v>10</v>
       </c>
       <c r="AJ18" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK18" s="60">
         <v>10</v>
@@ -4822,7 +4822,7 @@
         <v>10</v>
       </c>
       <c r="AJ19" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK19" s="60">
         <v>9</v>
@@ -4956,7 +4956,7 @@
         <v>10</v>
       </c>
       <c r="AJ20" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK20" s="60">
         <v>9</v>
@@ -5090,7 +5090,7 @@
         <v>10</v>
       </c>
       <c r="AJ21" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK21" s="60">
         <v>9</v>
@@ -5224,7 +5224,7 @@
         <v>10</v>
       </c>
       <c r="AJ22" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK22" s="60">
         <v>9</v>
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="AJ23" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK23" s="60">
         <v>10</v>
@@ -5492,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="AJ24" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK24" s="60">
         <v>10</v>
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK25" s="60">
         <v>10</v>
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK26" s="60">
         <v>10</v>
@@ -5894,7 +5894,7 @@
         <v>10</v>
       </c>
       <c r="AJ27" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK27" s="60">
         <v>6</v>
@@ -6028,7 +6028,7 @@
         <v>10</v>
       </c>
       <c r="AJ28" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK28" s="60">
         <v>5</v>
@@ -6162,7 +6162,7 @@
         <v>10</v>
       </c>
       <c r="AJ29" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK29" s="60">
         <v>5</v>
@@ -6296,7 +6296,7 @@
         <v>10</v>
       </c>
       <c r="AJ30" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK30" s="60">
         <v>7</v>
@@ -6430,7 +6430,7 @@
         <v>10</v>
       </c>
       <c r="AJ31" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK31" s="60">
         <v>7</v>
@@ -6564,7 +6564,7 @@
         <v>10</v>
       </c>
       <c r="AJ32" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK32" s="60">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>10</v>
       </c>
       <c r="AJ33" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK33" s="60">
         <v>0</v>
@@ -6832,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="AJ34" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK34" s="60">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>10</v>
       </c>
       <c r="AJ35" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK35" s="60">
         <v>7</v>
@@ -7100,7 +7100,7 @@
         <v>10</v>
       </c>
       <c r="AJ36" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK36" s="60">
         <v>7</v>
@@ -7234,7 +7234,7 @@
         <v>10</v>
       </c>
       <c r="AJ37" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK37" s="60">
         <v>7</v>
@@ -7368,7 +7368,7 @@
         <v>2</v>
       </c>
       <c r="AJ38" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK38" s="60">
         <v>7</v>
@@ -7502,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="AJ39" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK39" s="60">
         <v>7</v>
@@ -7636,7 +7636,7 @@
         <v>2</v>
       </c>
       <c r="AJ40" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK40" s="60">
         <v>7</v>
@@ -7770,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="AJ41" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK41" s="60">
         <v>7</v>
@@ -7904,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="AJ42" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK42" s="60">
         <v>7</v>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK43" s="60">
         <v>7</v>
@@ -8172,7 +8172,7 @@
         <v>10</v>
       </c>
       <c r="AJ44" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK44" s="60">
         <v>6</v>
@@ -8306,7 +8306,7 @@
         <v>10</v>
       </c>
       <c r="AJ45" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK45" s="60">
         <v>7</v>
@@ -8440,7 +8440,7 @@
         <v>10</v>
       </c>
       <c r="AJ46" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK46" s="60">
         <v>7</v>
@@ -8574,7 +8574,7 @@
         <v>10</v>
       </c>
       <c r="AJ47" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK47" s="60">
         <v>7</v>
@@ -8708,7 +8708,7 @@
         <v>10</v>
       </c>
       <c r="AJ48" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK48" s="60">
         <v>7</v>
@@ -8842,7 +8842,7 @@
         <v>10</v>
       </c>
       <c r="AJ49" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK49" s="60">
         <v>5</v>
@@ -8976,7 +8976,7 @@
         <v>10</v>
       </c>
       <c r="AJ50" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK50" s="60">
         <v>5</v>
@@ -9110,7 +9110,7 @@
         <v>10</v>
       </c>
       <c r="AJ51" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK51" s="60">
         <v>5</v>
@@ -9244,7 +9244,7 @@
         <v>10</v>
       </c>
       <c r="AJ52" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK52" s="60">
         <v>5</v>
@@ -9378,7 +9378,7 @@
         <v>10</v>
       </c>
       <c r="AJ53" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK53" s="60">
         <v>5</v>
@@ -9512,7 +9512,7 @@
         <v>10</v>
       </c>
       <c r="AJ54" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK54" s="60">
         <v>5</v>
@@ -9646,7 +9646,7 @@
         <v>10</v>
       </c>
       <c r="AJ55" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK55" s="60">
         <v>6</v>
@@ -9780,7 +9780,7 @@
         <v>10</v>
       </c>
       <c r="AJ56" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK56" s="60">
         <v>8</v>
@@ -9914,7 +9914,7 @@
         <v>10</v>
       </c>
       <c r="AJ57" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK57" s="60">
         <v>8</v>
@@ -10048,7 +10048,7 @@
         <v>10</v>
       </c>
       <c r="AJ58" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK58" s="60">
         <v>6</v>
@@ -10182,7 +10182,7 @@
         <v>10</v>
       </c>
       <c r="AJ59" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK59" s="60">
         <v>5</v>
@@ -10316,7 +10316,7 @@
         <v>10</v>
       </c>
       <c r="AJ60" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK60" s="60">
         <v>5</v>
@@ -10450,7 +10450,7 @@
         <v>10</v>
       </c>
       <c r="AJ61" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK61" s="60">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>10</v>
       </c>
       <c r="AJ62" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK62" s="60">
         <v>1</v>
@@ -10718,7 +10718,7 @@
         <v>10</v>
       </c>
       <c r="AJ63" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK63" s="60">
         <v>1</v>
@@ -10759,7 +10759,7 @@
         <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>58</v>
@@ -10852,7 +10852,7 @@
         <v>10</v>
       </c>
       <c r="AJ64" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK64" s="60">
         <v>0</v>
@@ -10893,7 +10893,7 @@
         <v>48</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>58</v>
@@ -10986,7 +10986,7 @@
         <v>10</v>
       </c>
       <c r="AJ65" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK65" s="60">
         <v>0</v>
@@ -11027,7 +11027,7 @@
         <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>58</v>
@@ -11120,7 +11120,7 @@
         <v>10</v>
       </c>
       <c r="AJ66" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK66" s="60" t="s">
         <v>35</v>
@@ -11161,7 +11161,7 @@
         <v>48</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>58</v>
@@ -11254,7 +11254,7 @@
         <v>10</v>
       </c>
       <c r="AJ67" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK67" s="60" t="s">
         <v>35</v>
@@ -11295,7 +11295,7 @@
         <v>48</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>58</v>
@@ -11388,7 +11388,7 @@
         <v>10</v>
       </c>
       <c r="AJ68" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK68" s="60">
         <v>9</v>
@@ -11429,7 +11429,7 @@
         <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>58</v>
@@ -11522,7 +11522,7 @@
         <v>10</v>
       </c>
       <c r="AJ69" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK69" s="60">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>48</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>58</v>
@@ -11656,7 +11656,7 @@
         <v>10</v>
       </c>
       <c r="AJ70" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK70" s="60">
         <v>9</v>
@@ -11697,7 +11697,7 @@
         <v>48</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>58</v>
@@ -11790,7 +11790,7 @@
         <v>10</v>
       </c>
       <c r="AJ71" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK71" s="60">
         <v>10</v>
@@ -11831,7 +11831,7 @@
         <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>58</v>
@@ -11924,7 +11924,7 @@
         <v>10</v>
       </c>
       <c r="AJ72" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK72" s="60">
         <v>10</v>
@@ -11965,7 +11965,7 @@
         <v>48</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
@@ -12058,7 +12058,7 @@
         <v>10</v>
       </c>
       <c r="AJ73" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK73" s="60">
         <v>10</v>
@@ -12099,7 +12099,7 @@
         <v>48</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>58</v>
@@ -12192,7 +12192,7 @@
         <v>10</v>
       </c>
       <c r="AJ74" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK74" s="60">
         <v>8</v>
@@ -12233,7 +12233,7 @@
         <v>48</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>58</v>
@@ -12326,7 +12326,7 @@
         <v>10</v>
       </c>
       <c r="AJ75" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK75" s="60">
         <v>10</v>
@@ -12367,7 +12367,7 @@
         <v>48</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>58</v>
@@ -12460,7 +12460,7 @@
         <v>2</v>
       </c>
       <c r="AJ76" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK76" s="60">
         <v>5</v>
@@ -12501,7 +12501,7 @@
         <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>58</v>
@@ -12594,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="AJ77" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK77" s="60">
         <v>5</v>
@@ -12635,7 +12635,7 @@
         <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>58</v>
@@ -12728,7 +12728,7 @@
         <v>2</v>
       </c>
       <c r="AJ78" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK78" s="60">
         <v>5</v>
@@ -12769,7 +12769,7 @@
         <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>58</v>
@@ -12862,7 +12862,7 @@
         <v>2</v>
       </c>
       <c r="AJ79" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK79" s="60">
         <v>5</v>
@@ -12900,10 +12900,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>58</v>
@@ -12996,7 +12996,7 @@
         <v>10</v>
       </c>
       <c r="AJ80" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK80" s="60">
         <v>1</v>
@@ -13034,10 +13034,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>58</v>
@@ -13130,7 +13130,7 @@
         <v>10</v>
       </c>
       <c r="AJ81" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK81" s="60">
         <v>1</v>
@@ -13168,10 +13168,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>58</v>
@@ -13264,7 +13264,7 @@
         <v>10</v>
       </c>
       <c r="AJ82" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK82" s="60">
         <v>1</v>
@@ -13302,10 +13302,10 @@
         <v>4</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>58</v>
@@ -13398,7 +13398,7 @@
         <v>2</v>
       </c>
       <c r="AJ83" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK83" s="60">
         <v>1</v>
@@ -13436,10 +13436,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>30</v>
@@ -13532,7 +13532,7 @@
         <v>10</v>
       </c>
       <c r="AJ84" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK84" s="60">
         <v>2</v>
@@ -13570,10 +13570,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>30</v>
@@ -13666,7 +13666,7 @@
         <v>10</v>
       </c>
       <c r="AJ85" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK85" s="60">
         <v>3</v>
@@ -13704,10 +13704,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>30</v>
@@ -13800,7 +13800,7 @@
         <v>10</v>
       </c>
       <c r="AJ86" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK86" s="60">
         <v>1</v>
@@ -13838,10 +13838,10 @@
         <v>4</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>30</v>
@@ -13934,7 +13934,7 @@
         <v>10</v>
       </c>
       <c r="AJ87" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK87" s="60">
         <v>3</v>
@@ -13972,10 +13972,10 @@
         <v>5</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>30</v>
@@ -14068,7 +14068,7 @@
         <v>10</v>
       </c>
       <c r="AJ88" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK88" s="60">
         <v>4</v>
@@ -14085,8 +14085,8 @@
       <c r="AO88" s="3">
         <v>1400</v>
       </c>
-      <c r="AP88" s="3" t="s">
-        <v>35</v>
+      <c r="AP88" s="3">
+        <v>2</v>
       </c>
       <c r="AQ88" s="3">
         <v>5</v>
@@ -14106,10 +14106,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>30</v>
@@ -14202,7 +14202,7 @@
         <v>10</v>
       </c>
       <c r="AJ89" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK89" s="60">
         <v>5</v>
@@ -14219,8 +14219,8 @@
       <c r="AO89" s="3">
         <v>1400</v>
       </c>
-      <c r="AP89" s="3" t="s">
-        <v>35</v>
+      <c r="AP89" s="3">
+        <v>2</v>
       </c>
       <c r="AQ89" s="3">
         <v>5</v>
@@ -14240,10 +14240,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>30</v>
@@ -14336,7 +14336,7 @@
         <v>10</v>
       </c>
       <c r="AJ90" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK90" s="60">
         <v>6</v>
@@ -14353,8 +14353,8 @@
       <c r="AO90" s="3">
         <v>1400</v>
       </c>
-      <c r="AP90" s="3" t="s">
-        <v>35</v>
+      <c r="AP90" s="3">
+        <v>2</v>
       </c>
       <c r="AQ90" s="3">
         <v>5</v>
@@ -14374,10 +14374,10 @@
         <v>8</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>30</v>
@@ -14470,7 +14470,7 @@
         <v>10</v>
       </c>
       <c r="AJ91" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK91" s="60">
         <v>10</v>
@@ -14487,8 +14487,8 @@
       <c r="AO91" s="3">
         <v>1400</v>
       </c>
-      <c r="AP91" s="3" t="s">
-        <v>35</v>
+      <c r="AP91" s="3">
+        <v>0</v>
       </c>
       <c r="AQ91" s="3">
         <v>5</v>
@@ -14508,10 +14508,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>30</v>
@@ -14604,7 +14604,7 @@
         <v>10</v>
       </c>
       <c r="AJ92" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK92" s="60">
         <v>7</v>
@@ -14621,8 +14621,8 @@
       <c r="AO92" s="3">
         <v>1400</v>
       </c>
-      <c r="AP92" s="3" t="s">
-        <v>35</v>
+      <c r="AP92" s="3">
+        <v>0</v>
       </c>
       <c r="AQ92" s="3">
         <v>5</v>
@@ -14642,10 +14642,10 @@
         <v>10</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>30</v>
@@ -14738,7 +14738,7 @@
         <v>10</v>
       </c>
       <c r="AJ93" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK93" s="60">
         <v>10</v>
@@ -14755,8 +14755,8 @@
       <c r="AO93" s="3">
         <v>1400</v>
       </c>
-      <c r="AP93" s="3" t="s">
-        <v>35</v>
+      <c r="AP93" s="3">
+        <v>0</v>
       </c>
       <c r="AQ93" s="3">
         <v>5</v>
@@ -14776,10 +14776,10 @@
         <v>11</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>30</v>
@@ -14872,7 +14872,7 @@
         <v>2</v>
       </c>
       <c r="AJ94" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK94" s="60">
         <v>8</v>
@@ -14889,8 +14889,8 @@
       <c r="AO94" s="3">
         <v>1400</v>
       </c>
-      <c r="AP94" s="3" t="s">
-        <v>35</v>
+      <c r="AP94" s="3">
+        <v>0</v>
       </c>
       <c r="AQ94" s="3">
         <v>5</v>
@@ -14910,10 +14910,10 @@
         <v>12</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>30</v>
@@ -15006,7 +15006,7 @@
         <v>2</v>
       </c>
       <c r="AJ95" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK95" s="60">
         <v>9</v>
@@ -15023,8 +15023,8 @@
       <c r="AO95" s="3">
         <v>1400</v>
       </c>
-      <c r="AP95" s="3" t="s">
-        <v>35</v>
+      <c r="AP95" s="3">
+        <v>0</v>
       </c>
       <c r="AQ95" s="3">
         <v>5</v>
@@ -15044,10 +15044,10 @@
         <v>13</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>30</v>
@@ -15140,7 +15140,7 @@
         <v>2</v>
       </c>
       <c r="AJ96" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK96" s="60">
         <v>7</v>
@@ -15157,8 +15157,8 @@
       <c r="AO96" s="3">
         <v>1400</v>
       </c>
-      <c r="AP96" s="3" t="s">
-        <v>35</v>
+      <c r="AP96" s="3">
+        <v>0</v>
       </c>
       <c r="AQ96" s="3">
         <v>5</v>
@@ -15178,10 +15178,10 @@
         <v>14</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>30</v>
@@ -15274,7 +15274,7 @@
         <v>10</v>
       </c>
       <c r="AJ97" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK97" s="60">
         <v>6</v>
@@ -15312,10 +15312,10 @@
         <v>15</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>30</v>
@@ -15408,7 +15408,7 @@
         <v>10</v>
       </c>
       <c r="AJ98" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK98" s="60">
         <v>6</v>
@@ -15446,10 +15446,10 @@
         <v>16</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>30</v>
@@ -15542,7 +15542,7 @@
         <v>10</v>
       </c>
       <c r="AJ99" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK99" s="60">
         <v>6</v>
@@ -15580,10 +15580,10 @@
         <v>17</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>30</v>
@@ -15676,7 +15676,7 @@
         <v>10</v>
       </c>
       <c r="AJ100" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK100" s="60">
         <v>10</v>
@@ -15714,10 +15714,10 @@
         <v>18</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>30</v>
@@ -15810,7 +15810,7 @@
         <v>10</v>
       </c>
       <c r="AJ101" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK101" s="60">
         <v>4</v>
@@ -15827,8 +15827,8 @@
       <c r="AO101" s="3">
         <v>1400</v>
       </c>
-      <c r="AP101" s="3" t="s">
-        <v>35</v>
+      <c r="AP101" s="3">
+        <v>2</v>
       </c>
       <c r="AQ101" s="3">
         <v>5</v>
@@ -15848,10 +15848,10 @@
         <v>19</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>30</v>
@@ -15944,7 +15944,7 @@
         <v>10</v>
       </c>
       <c r="AJ102" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK102" s="60">
         <v>10</v>
@@ -15961,8 +15961,8 @@
       <c r="AO102" s="3">
         <v>1400</v>
       </c>
-      <c r="AP102" s="3" t="s">
-        <v>35</v>
+      <c r="AP102" s="3">
+        <v>3</v>
       </c>
       <c r="AQ102" s="3">
         <v>5</v>
@@ -15982,10 +15982,10 @@
         <v>20</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>30</v>
@@ -16078,7 +16078,7 @@
         <v>10</v>
       </c>
       <c r="AJ103" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK103" s="60">
         <v>7</v>
@@ -16095,8 +16095,8 @@
       <c r="AO103" s="3">
         <v>1400</v>
       </c>
-      <c r="AP103" s="3" t="s">
-        <v>35</v>
+      <c r="AP103" s="3">
+        <v>2</v>
       </c>
       <c r="AQ103" s="3">
         <v>5</v>
@@ -16116,10 +16116,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>30</v>
@@ -16212,7 +16212,7 @@
         <v>10</v>
       </c>
       <c r="AJ104" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK104" s="60">
         <v>8</v>
@@ -16229,8 +16229,8 @@
       <c r="AO104" s="3">
         <v>1400</v>
       </c>
-      <c r="AP104" s="3" t="s">
-        <v>35</v>
+      <c r="AP104" s="3">
+        <v>2</v>
       </c>
       <c r="AQ104" s="3">
         <v>5</v>
@@ -16250,10 +16250,10 @@
         <v>22</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>30</v>
@@ -16346,7 +16346,7 @@
         <v>2</v>
       </c>
       <c r="AJ105" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK105" s="60">
         <v>5</v>
@@ -16384,10 +16384,10 @@
         <v>23</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>30</v>
@@ -16480,7 +16480,7 @@
         <v>2</v>
       </c>
       <c r="AJ106" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK106" s="60">
         <v>9</v>
@@ -16518,10 +16518,10 @@
         <v>24</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>30</v>
@@ -16614,7 +16614,7 @@
         <v>2</v>
       </c>
       <c r="AJ107" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK107" s="60">
         <v>7</v>
@@ -16652,10 +16652,10 @@
         <v>25</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>30</v>
@@ -16748,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="AJ108" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK108" s="60">
         <v>8</v>
@@ -16786,10 +16786,10 @@
         <v>26</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>30</v>
@@ -16882,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="AJ109" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK109" s="60">
         <v>8</v>
@@ -16920,10 +16920,10 @@
         <v>27</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>30</v>
@@ -17016,30 +17016,2442 @@
         <v>1</v>
       </c>
       <c r="AJ110" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK110" s="60">
+        <v>3</v>
+      </c>
+      <c r="AL110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR110" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A111" s="26">
+        <v>190801163458</v>
+      </c>
+      <c r="B111" s="4">
+        <v>16</v>
+      </c>
+      <c r="C111" s="22">
+        <v>1</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="15">
+        <v>3</v>
+      </c>
+      <c r="H111" s="16">
+        <v>2</v>
+      </c>
+      <c r="I111" s="16">
+        <v>0</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L111" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M111" s="16">
+        <v>2</v>
+      </c>
+      <c r="N111" s="16">
+        <v>2</v>
+      </c>
+      <c r="O111" s="16">
+        <v>5</v>
+      </c>
+      <c r="P111" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q111" s="16">
+        <v>3</v>
+      </c>
+      <c r="R111" s="16">
+        <v>8</v>
+      </c>
+      <c r="S111" s="16">
+        <v>7</v>
+      </c>
+      <c r="T111" s="16">
+        <v>3</v>
+      </c>
+      <c r="U111" s="20">
+        <v>0</v>
+      </c>
+      <c r="V111" s="16">
+        <v>0</v>
+      </c>
+      <c r="W111" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="X111" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z111" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA111" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB111" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC111" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF111" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH111" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI111" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ111" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK111" s="60">
+        <v>10</v>
+      </c>
+      <c r="AL111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM111" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN111" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO111" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ111" s="3">
+        <v>8</v>
+      </c>
+      <c r="AR111" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A112" s="26">
+        <v>190801163634</v>
+      </c>
+      <c r="B112" s="4">
+        <v>16</v>
+      </c>
+      <c r="C112" s="22">
+        <v>2</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="15">
+        <v>3</v>
+      </c>
+      <c r="H112" s="16">
+        <v>2</v>
+      </c>
+      <c r="I112" s="16">
+        <v>0</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L112" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M112" s="16">
+        <v>2</v>
+      </c>
+      <c r="N112" s="16">
+        <v>2</v>
+      </c>
+      <c r="O112" s="16">
+        <v>5</v>
+      </c>
+      <c r="P112" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q112" s="16">
+        <v>3</v>
+      </c>
+      <c r="R112" s="16">
+        <v>8</v>
+      </c>
+      <c r="S112" s="16">
+        <v>7</v>
+      </c>
+      <c r="T112" s="16">
+        <v>3</v>
+      </c>
+      <c r="U112" s="20">
+        <v>0</v>
+      </c>
+      <c r="V112" s="16">
+        <v>0</v>
+      </c>
+      <c r="W112" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="X112" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z112" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA112" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB112" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC112" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD112" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF112" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI112" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ112" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK112" s="60">
+        <v>10</v>
+      </c>
+      <c r="AL112" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM112" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN112" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO112" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP112" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ112" s="3">
+        <v>8</v>
+      </c>
+      <c r="AR112" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A113" s="26">
+        <v>190801163748</v>
+      </c>
+      <c r="B113" s="4">
+        <v>16</v>
+      </c>
+      <c r="C113" s="22">
+        <v>3</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="15">
+        <v>3</v>
+      </c>
+      <c r="H113" s="16">
+        <v>2</v>
+      </c>
+      <c r="I113" s="16">
+        <v>0</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L113" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M113" s="16">
+        <v>2</v>
+      </c>
+      <c r="N113" s="16">
+        <v>2</v>
+      </c>
+      <c r="O113" s="16">
+        <v>5</v>
+      </c>
+      <c r="P113" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q113" s="16">
+        <v>3</v>
+      </c>
+      <c r="R113" s="16">
+        <v>8</v>
+      </c>
+      <c r="S113" s="16">
+        <v>7</v>
+      </c>
+      <c r="T113" s="16">
+        <v>3</v>
+      </c>
+      <c r="U113" s="20">
+        <v>0</v>
+      </c>
+      <c r="V113" s="16">
+        <v>0</v>
+      </c>
+      <c r="W113" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="X113" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z113" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA113" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB113" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC113" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF113" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI113" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ113" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK113" s="60">
+        <v>10</v>
+      </c>
+      <c r="AL113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM113" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN113" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO113" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ113" s="3">
+        <v>8</v>
+      </c>
+      <c r="AR113" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A114" s="26">
+        <v>190802143534</v>
+      </c>
+      <c r="B114" s="4">
+        <v>17</v>
+      </c>
+      <c r="C114" s="22">
+        <v>1</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" s="15">
+        <v>2</v>
+      </c>
+      <c r="H114" s="16">
+        <v>6</v>
+      </c>
+      <c r="I114" s="16">
+        <v>1</v>
+      </c>
+      <c r="J114" s="16">
+        <v>0</v>
+      </c>
+      <c r="K114" s="16">
+        <v>3</v>
+      </c>
+      <c r="L114" s="16">
+        <v>5</v>
+      </c>
+      <c r="M114" s="16">
+        <v>5</v>
+      </c>
+      <c r="N114" s="16">
+        <v>6</v>
+      </c>
+      <c r="O114" s="16">
+        <v>5</v>
+      </c>
+      <c r="P114" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q114" s="16">
+        <v>7</v>
+      </c>
+      <c r="R114" s="16">
+        <v>4</v>
+      </c>
+      <c r="S114" s="16">
+        <v>2</v>
+      </c>
+      <c r="T114" s="16">
+        <v>1</v>
+      </c>
+      <c r="U114" s="20">
+        <v>0</v>
+      </c>
+      <c r="V114" s="16">
+        <v>0</v>
+      </c>
+      <c r="W114" s="51">
+        <v>0</v>
+      </c>
+      <c r="X114" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y114" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z114" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF114" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG114" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI114" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ114" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK114" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR114" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
+        <v>190802143700</v>
+      </c>
+      <c r="B115" s="4">
+        <v>17</v>
+      </c>
+      <c r="C115" s="22">
+        <v>2</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="15">
+        <v>2</v>
+      </c>
+      <c r="H115" s="16">
+        <v>6</v>
+      </c>
+      <c r="I115" s="16">
+        <v>1</v>
+      </c>
+      <c r="J115" s="16">
+        <v>0</v>
+      </c>
+      <c r="K115" s="16">
+        <v>3</v>
+      </c>
+      <c r="L115" s="16">
+        <v>5</v>
+      </c>
+      <c r="M115" s="16">
+        <v>5</v>
+      </c>
+      <c r="N115" s="16">
+        <v>6</v>
+      </c>
+      <c r="O115" s="16">
+        <v>5</v>
+      </c>
+      <c r="P115" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q115" s="16">
+        <v>7</v>
+      </c>
+      <c r="R115" s="16">
+        <v>4</v>
+      </c>
+      <c r="S115" s="16">
+        <v>2</v>
+      </c>
+      <c r="T115" s="16">
+        <v>1</v>
+      </c>
+      <c r="U115" s="20">
+        <v>0</v>
+      </c>
+      <c r="V115" s="16">
+        <v>0</v>
+      </c>
+      <c r="W115" s="51">
+        <v>0</v>
+      </c>
+      <c r="X115" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y115" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z115" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF115" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG115" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI115" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ115" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK115" s="60">
+        <v>2</v>
+      </c>
+      <c r="AL115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR115" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A116" s="26">
+        <v>190802145224</v>
+      </c>
+      <c r="B116" s="4">
+        <v>17</v>
+      </c>
+      <c r="C116" s="22">
+        <v>3</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" s="15">
+        <v>2</v>
+      </c>
+      <c r="H116" s="16">
+        <v>6</v>
+      </c>
+      <c r="I116" s="16">
+        <v>1</v>
+      </c>
+      <c r="J116" s="16">
+        <v>0</v>
+      </c>
+      <c r="K116" s="16">
+        <v>3</v>
+      </c>
+      <c r="L116" s="16">
+        <v>5</v>
+      </c>
+      <c r="M116" s="16">
+        <v>5</v>
+      </c>
+      <c r="N116" s="16">
+        <v>6</v>
+      </c>
+      <c r="O116" s="16">
+        <v>5</v>
+      </c>
+      <c r="P116" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q116" s="16">
+        <v>7</v>
+      </c>
+      <c r="R116" s="16">
+        <v>4</v>
+      </c>
+      <c r="S116" s="16">
+        <v>2</v>
+      </c>
+      <c r="T116" s="16">
+        <v>1</v>
+      </c>
+      <c r="U116" s="20">
+        <v>0</v>
+      </c>
+      <c r="V116" s="16">
+        <v>0</v>
+      </c>
+      <c r="W116" s="51">
+        <v>0</v>
+      </c>
+      <c r="X116" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z116" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA116" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB116" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC116" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF116" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG116" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI116" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ116" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK116" s="60">
+        <v>2</v>
+      </c>
+      <c r="AL116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM116" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN116" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO116" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ116" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR116" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A117" s="26">
+        <v>190802145349</v>
+      </c>
+      <c r="B117" s="4">
+        <v>17</v>
+      </c>
+      <c r="C117" s="22">
+        <v>4</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="15">
+        <v>2</v>
+      </c>
+      <c r="H117" s="16">
+        <v>6</v>
+      </c>
+      <c r="I117" s="16">
+        <v>1</v>
+      </c>
+      <c r="J117" s="16">
+        <v>0</v>
+      </c>
+      <c r="K117" s="16">
+        <v>3</v>
+      </c>
+      <c r="L117" s="16">
+        <v>5</v>
+      </c>
+      <c r="M117" s="16">
+        <v>5</v>
+      </c>
+      <c r="N117" s="16">
+        <v>6</v>
+      </c>
+      <c r="O117" s="16">
+        <v>5</v>
+      </c>
+      <c r="P117" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q117" s="16">
+        <v>7</v>
+      </c>
+      <c r="R117" s="16">
+        <v>4</v>
+      </c>
+      <c r="S117" s="16">
+        <v>2</v>
+      </c>
+      <c r="T117" s="16">
+        <v>1</v>
+      </c>
+      <c r="U117" s="20">
+        <v>0</v>
+      </c>
+      <c r="V117" s="16">
+        <v>0</v>
+      </c>
+      <c r="W117" s="51">
+        <v>0</v>
+      </c>
+      <c r="X117" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z117" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA117" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB117" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC117" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF117" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH117" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI117" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ117" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK117" s="60">
+        <v>2</v>
+      </c>
+      <c r="AL117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM117" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN117" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO117" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ117" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR117" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A118" s="26">
+        <v>190802145515</v>
+      </c>
+      <c r="B118" s="4">
+        <v>17</v>
+      </c>
+      <c r="C118" s="22">
+        <v>5</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="15">
+        <v>2</v>
+      </c>
+      <c r="H118" s="16">
+        <v>6</v>
+      </c>
+      <c r="I118" s="16">
+        <v>1</v>
+      </c>
+      <c r="J118" s="16">
+        <v>0</v>
+      </c>
+      <c r="K118" s="16">
+        <v>3</v>
+      </c>
+      <c r="L118" s="16">
+        <v>5</v>
+      </c>
+      <c r="M118" s="16">
+        <v>5</v>
+      </c>
+      <c r="N118" s="16">
+        <v>6</v>
+      </c>
+      <c r="O118" s="16">
+        <v>5</v>
+      </c>
+      <c r="P118" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q118" s="16">
+        <v>7</v>
+      </c>
+      <c r="R118" s="16">
+        <v>4</v>
+      </c>
+      <c r="S118" s="16">
+        <v>2</v>
+      </c>
+      <c r="T118" s="16">
+        <v>1</v>
+      </c>
+      <c r="U118" s="20">
+        <v>0</v>
+      </c>
+      <c r="V118" s="16">
+        <v>0</v>
+      </c>
+      <c r="W118" s="51">
+        <v>0</v>
+      </c>
+      <c r="X118" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z118" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA118" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB118" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC118" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF118" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG118" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH118" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI118" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ118" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AK110" s="60">
-        <v>3</v>
-      </c>
-      <c r="AL110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR110" s="28" t="s">
+      <c r="AK118" s="60">
+        <v>4</v>
+      </c>
+      <c r="AL118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM118" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN118" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO118" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ118" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR118" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A119" s="26">
+        <v>190802145635</v>
+      </c>
+      <c r="B119" s="4">
+        <v>17</v>
+      </c>
+      <c r="C119" s="22">
+        <v>6</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="15">
+        <v>2</v>
+      </c>
+      <c r="H119" s="16">
+        <v>6</v>
+      </c>
+      <c r="I119" s="16">
+        <v>1</v>
+      </c>
+      <c r="J119" s="16">
+        <v>0</v>
+      </c>
+      <c r="K119" s="16">
+        <v>3</v>
+      </c>
+      <c r="L119" s="16">
+        <v>5</v>
+      </c>
+      <c r="M119" s="16">
+        <v>5</v>
+      </c>
+      <c r="N119" s="16">
+        <v>6</v>
+      </c>
+      <c r="O119" s="16">
+        <v>5</v>
+      </c>
+      <c r="P119" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q119" s="16">
+        <v>7</v>
+      </c>
+      <c r="R119" s="16">
+        <v>4</v>
+      </c>
+      <c r="S119" s="16">
+        <v>2</v>
+      </c>
+      <c r="T119" s="16">
+        <v>1</v>
+      </c>
+      <c r="U119" s="20">
+        <v>0</v>
+      </c>
+      <c r="V119" s="16">
+        <v>0</v>
+      </c>
+      <c r="W119" s="51">
+        <v>0</v>
+      </c>
+      <c r="X119" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z119" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA119" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB119" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC119" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF119" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH119" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI119" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ119" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK119" s="60">
+        <v>5</v>
+      </c>
+      <c r="AL119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM119" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN119" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO119" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ119" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR119" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A120" s="26">
+        <v>190802151023</v>
+      </c>
+      <c r="B120" s="4">
+        <v>17</v>
+      </c>
+      <c r="C120" s="22">
+        <v>7</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" s="15">
+        <v>2</v>
+      </c>
+      <c r="H120" s="16">
+        <v>6</v>
+      </c>
+      <c r="I120" s="16">
+        <v>1</v>
+      </c>
+      <c r="J120" s="16">
+        <v>0</v>
+      </c>
+      <c r="K120" s="16">
+        <v>3</v>
+      </c>
+      <c r="L120" s="16">
+        <v>5</v>
+      </c>
+      <c r="M120" s="16">
+        <v>5</v>
+      </c>
+      <c r="N120" s="16">
+        <v>6</v>
+      </c>
+      <c r="O120" s="16">
+        <v>5</v>
+      </c>
+      <c r="P120" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q120" s="16">
+        <v>7</v>
+      </c>
+      <c r="R120" s="16">
+        <v>4</v>
+      </c>
+      <c r="S120" s="16">
+        <v>2</v>
+      </c>
+      <c r="T120" s="16">
+        <v>1</v>
+      </c>
+      <c r="U120" s="20">
+        <v>0</v>
+      </c>
+      <c r="V120" s="16">
+        <v>0</v>
+      </c>
+      <c r="W120" s="51">
+        <v>0</v>
+      </c>
+      <c r="X120" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z120" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC120" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD120" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI120" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ120" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK120" s="60">
+        <v>7</v>
+      </c>
+      <c r="AL120" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM120" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN120" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO120" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP120" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ120" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR120" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A121" s="26">
+        <v>190802151327</v>
+      </c>
+      <c r="B121" s="4">
+        <v>17</v>
+      </c>
+      <c r="C121" s="22">
+        <v>8</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="15">
+        <v>2</v>
+      </c>
+      <c r="H121" s="16">
+        <v>6</v>
+      </c>
+      <c r="I121" s="16">
+        <v>1</v>
+      </c>
+      <c r="J121" s="16">
+        <v>0</v>
+      </c>
+      <c r="K121" s="16">
+        <v>3</v>
+      </c>
+      <c r="L121" s="16">
+        <v>5</v>
+      </c>
+      <c r="M121" s="16">
+        <v>5</v>
+      </c>
+      <c r="N121" s="16">
+        <v>6</v>
+      </c>
+      <c r="O121" s="16">
+        <v>5</v>
+      </c>
+      <c r="P121" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q121" s="16">
+        <v>7</v>
+      </c>
+      <c r="R121" s="16">
+        <v>4</v>
+      </c>
+      <c r="S121" s="16">
+        <v>2</v>
+      </c>
+      <c r="T121" s="16">
+        <v>1</v>
+      </c>
+      <c r="U121" s="20">
+        <v>0</v>
+      </c>
+      <c r="V121" s="16">
+        <v>0</v>
+      </c>
+      <c r="W121" s="51">
+        <v>0</v>
+      </c>
+      <c r="X121" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z121" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA121" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB121" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC121" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD121" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF121" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG121" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH121" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI121" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ121" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK121" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM121" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN121" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO121" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ121" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR121" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A122" s="26">
+        <v>190802151454</v>
+      </c>
+      <c r="B122" s="4">
+        <v>17</v>
+      </c>
+      <c r="C122" s="22">
+        <v>9</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="15">
+        <v>2</v>
+      </c>
+      <c r="H122" s="16">
+        <v>6</v>
+      </c>
+      <c r="I122" s="16">
+        <v>1</v>
+      </c>
+      <c r="J122" s="16">
+        <v>0</v>
+      </c>
+      <c r="K122" s="16">
+        <v>3</v>
+      </c>
+      <c r="L122" s="16">
+        <v>5</v>
+      </c>
+      <c r="M122" s="16">
+        <v>5</v>
+      </c>
+      <c r="N122" s="16">
+        <v>6</v>
+      </c>
+      <c r="O122" s="16">
+        <v>5</v>
+      </c>
+      <c r="P122" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q122" s="16">
+        <v>7</v>
+      </c>
+      <c r="R122" s="16">
+        <v>4</v>
+      </c>
+      <c r="S122" s="16">
+        <v>2</v>
+      </c>
+      <c r="T122" s="16">
+        <v>1</v>
+      </c>
+      <c r="U122" s="20">
+        <v>0</v>
+      </c>
+      <c r="V122" s="16">
+        <v>0</v>
+      </c>
+      <c r="W122" s="51">
+        <v>0</v>
+      </c>
+      <c r="X122" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z122" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA122" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB122" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC122" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF122" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI122" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ122" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK122" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL122" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM122" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN122" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO122" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP122" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ122" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR122" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A123" s="26">
+        <v>190802151613</v>
+      </c>
+      <c r="B123" s="4">
+        <v>17</v>
+      </c>
+      <c r="C123" s="22">
+        <v>10</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="15">
+        <v>2</v>
+      </c>
+      <c r="H123" s="16">
+        <v>6</v>
+      </c>
+      <c r="I123" s="16">
+        <v>1</v>
+      </c>
+      <c r="J123" s="16">
+        <v>0</v>
+      </c>
+      <c r="K123" s="16">
+        <v>3</v>
+      </c>
+      <c r="L123" s="16">
+        <v>5</v>
+      </c>
+      <c r="M123" s="16">
+        <v>5</v>
+      </c>
+      <c r="N123" s="16">
+        <v>6</v>
+      </c>
+      <c r="O123" s="16">
+        <v>5</v>
+      </c>
+      <c r="P123" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q123" s="16">
+        <v>7</v>
+      </c>
+      <c r="R123" s="16">
+        <v>4</v>
+      </c>
+      <c r="S123" s="16">
+        <v>2</v>
+      </c>
+      <c r="T123" s="16">
+        <v>1</v>
+      </c>
+      <c r="U123" s="20">
+        <v>0</v>
+      </c>
+      <c r="V123" s="16">
+        <v>0</v>
+      </c>
+      <c r="W123" s="51">
+        <v>0</v>
+      </c>
+      <c r="X123" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z123" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA123" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB123" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC123" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD123" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF123" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG123" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI123" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ123" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK123" s="60">
+        <v>9</v>
+      </c>
+      <c r="AL123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM123" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN123" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO123" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ123" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR123" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A124" s="26">
+        <v>190802151725</v>
+      </c>
+      <c r="B124" s="4">
+        <v>17</v>
+      </c>
+      <c r="C124" s="22">
+        <v>11</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="15">
+        <v>2</v>
+      </c>
+      <c r="H124" s="16">
+        <v>6</v>
+      </c>
+      <c r="I124" s="16">
+        <v>1</v>
+      </c>
+      <c r="J124" s="16">
+        <v>0</v>
+      </c>
+      <c r="K124" s="16">
+        <v>3</v>
+      </c>
+      <c r="L124" s="16">
+        <v>5</v>
+      </c>
+      <c r="M124" s="16">
+        <v>5</v>
+      </c>
+      <c r="N124" s="16">
+        <v>6</v>
+      </c>
+      <c r="O124" s="16">
+        <v>5</v>
+      </c>
+      <c r="P124" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q124" s="16">
+        <v>7</v>
+      </c>
+      <c r="R124" s="16">
+        <v>4</v>
+      </c>
+      <c r="S124" s="16">
+        <v>2</v>
+      </c>
+      <c r="T124" s="16">
+        <v>1</v>
+      </c>
+      <c r="U124" s="20">
+        <v>0</v>
+      </c>
+      <c r="V124" s="16">
+        <v>0</v>
+      </c>
+      <c r="W124" s="51">
+        <v>0</v>
+      </c>
+      <c r="X124" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z124" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA124" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB124" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC124" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD124" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF124" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI124" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ124" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK124" s="60">
+        <v>9</v>
+      </c>
+      <c r="AL124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM124" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN124" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO124" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ124" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR124" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A125" s="26">
+        <v>190802153219</v>
+      </c>
+      <c r="B125" s="4">
+        <v>17</v>
+      </c>
+      <c r="C125" s="22">
+        <v>12</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" s="15">
+        <v>2</v>
+      </c>
+      <c r="H125" s="16">
+        <v>6</v>
+      </c>
+      <c r="I125" s="16">
+        <v>1</v>
+      </c>
+      <c r="J125" s="16">
+        <v>0</v>
+      </c>
+      <c r="K125" s="16">
+        <v>3</v>
+      </c>
+      <c r="L125" s="16">
+        <v>5</v>
+      </c>
+      <c r="M125" s="16">
+        <v>5</v>
+      </c>
+      <c r="N125" s="16">
+        <v>6</v>
+      </c>
+      <c r="O125" s="16">
+        <v>5</v>
+      </c>
+      <c r="P125" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q125" s="16">
+        <v>7</v>
+      </c>
+      <c r="R125" s="16">
+        <v>4</v>
+      </c>
+      <c r="S125" s="16">
+        <v>2</v>
+      </c>
+      <c r="T125" s="16">
+        <v>1</v>
+      </c>
+      <c r="U125" s="20">
+        <v>0</v>
+      </c>
+      <c r="V125" s="16">
+        <v>0</v>
+      </c>
+      <c r="W125" s="51">
+        <v>0</v>
+      </c>
+      <c r="X125" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z125" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA125" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB125" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC125" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD125" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF125" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI125" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ125" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK125" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM125" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN125" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO125" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ125" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR125" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A126" s="26">
+        <v>190802153423</v>
+      </c>
+      <c r="B126" s="4">
+        <v>17</v>
+      </c>
+      <c r="C126" s="22">
+        <v>13</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="15">
+        <v>2</v>
+      </c>
+      <c r="H126" s="16">
+        <v>6</v>
+      </c>
+      <c r="I126" s="16">
+        <v>1</v>
+      </c>
+      <c r="J126" s="16">
+        <v>0</v>
+      </c>
+      <c r="K126" s="16">
+        <v>3</v>
+      </c>
+      <c r="L126" s="16">
+        <v>5</v>
+      </c>
+      <c r="M126" s="16">
+        <v>5</v>
+      </c>
+      <c r="N126" s="16">
+        <v>6</v>
+      </c>
+      <c r="O126" s="16">
+        <v>5</v>
+      </c>
+      <c r="P126" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q126" s="16">
+        <v>7</v>
+      </c>
+      <c r="R126" s="16">
+        <v>4</v>
+      </c>
+      <c r="S126" s="16">
+        <v>2</v>
+      </c>
+      <c r="T126" s="16">
+        <v>1</v>
+      </c>
+      <c r="U126" s="20">
+        <v>0</v>
+      </c>
+      <c r="V126" s="16">
+        <v>0</v>
+      </c>
+      <c r="W126" s="51">
+        <v>0</v>
+      </c>
+      <c r="X126" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z126" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA126" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB126" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC126" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD126" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF126" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI126" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ126" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK126" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL126" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM126" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN126" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO126" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP126" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ126" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR126" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A127" s="26">
+        <v>190802153549</v>
+      </c>
+      <c r="B127" s="4">
+        <v>17</v>
+      </c>
+      <c r="C127" s="22">
+        <v>14</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="15">
+        <v>2</v>
+      </c>
+      <c r="H127" s="16">
+        <v>6</v>
+      </c>
+      <c r="I127" s="16">
+        <v>1</v>
+      </c>
+      <c r="J127" s="16">
+        <v>0</v>
+      </c>
+      <c r="K127" s="16">
+        <v>3</v>
+      </c>
+      <c r="L127" s="16">
+        <v>5</v>
+      </c>
+      <c r="M127" s="16">
+        <v>5</v>
+      </c>
+      <c r="N127" s="16">
+        <v>6</v>
+      </c>
+      <c r="O127" s="16">
+        <v>5</v>
+      </c>
+      <c r="P127" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q127" s="16">
+        <v>7</v>
+      </c>
+      <c r="R127" s="16">
+        <v>4</v>
+      </c>
+      <c r="S127" s="16">
+        <v>2</v>
+      </c>
+      <c r="T127" s="16">
+        <v>1</v>
+      </c>
+      <c r="U127" s="20">
+        <v>0</v>
+      </c>
+      <c r="V127" s="16">
+        <v>0</v>
+      </c>
+      <c r="W127" s="51">
+        <v>0</v>
+      </c>
+      <c r="X127" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z127" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA127" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB127" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC127" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD127" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF127" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH127" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI127" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ127" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK127" s="60">
+        <v>9</v>
+      </c>
+      <c r="AL127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM127" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN127" s="3">
+        <v>92</v>
+      </c>
+      <c r="AO127" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AP127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ127" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR127" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A128" s="26">
+        <v>190802154458</v>
+      </c>
+      <c r="B128" s="4">
+        <v>17</v>
+      </c>
+      <c r="C128" s="22">
+        <v>15</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="15">
+        <v>2</v>
+      </c>
+      <c r="H128" s="16">
+        <v>6</v>
+      </c>
+      <c r="I128" s="16">
+        <v>1</v>
+      </c>
+      <c r="J128" s="16">
+        <v>0</v>
+      </c>
+      <c r="K128" s="16">
+        <v>3</v>
+      </c>
+      <c r="L128" s="16">
+        <v>5</v>
+      </c>
+      <c r="M128" s="16">
+        <v>5</v>
+      </c>
+      <c r="N128" s="16">
+        <v>6</v>
+      </c>
+      <c r="O128" s="16">
+        <v>5</v>
+      </c>
+      <c r="P128" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q128" s="16">
+        <v>7</v>
+      </c>
+      <c r="R128" s="16">
+        <v>4</v>
+      </c>
+      <c r="S128" s="16">
+        <v>2</v>
+      </c>
+      <c r="T128" s="16">
+        <v>1</v>
+      </c>
+      <c r="U128" s="20">
+        <v>0</v>
+      </c>
+      <c r="V128" s="16">
+        <v>0</v>
+      </c>
+      <c r="W128" s="51">
+        <v>0</v>
+      </c>
+      <c r="X128" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z128" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA128" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB128" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC128" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF128" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="62">
+        <v>2</v>
+      </c>
+      <c r="AJ128" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK128" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR128" s="28" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D003BD-D98C-449A-A3D8-97C233E698FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286DC2BB-1E49-440F-8CAD-950DCB84D628}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="75">
   <si>
     <t>Time</t>
   </si>
@@ -191,6 +191,9 @@
     <t>Colonne2</t>
   </si>
   <si>
+    <t>Colonne3</t>
+  </si>
+  <si>
     <t>3A Neveen</t>
   </si>
   <si>
@@ -234,6 +237,24 @@
   </si>
   <si>
     <t>C3</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>Ball shaking (0,1,2,3)</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>flashic</t>
   </si>
 </sst>
 </file>
@@ -742,7 +763,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="medium">
@@ -1897,54 +1962,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA7C8421-DF2C-4599-818A-D2D98AFA87C1}" name="Tableau2" displayName="Tableau2" ref="A1:AR1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" headerRowBorderDxfId="0" tableBorderDxfId="48">
-  <autoFilter ref="A1:AR1048576" xr:uid="{C8DAFCE6-E8D4-40F2-AC2E-F035329812A7}"/>
-  <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{7AE8BBEB-9E3A-49AB-B65F-935A1990E780}" name="Time" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{9EACCC28-AAC9-43D0-B0A5-417611F81894}" name="Fly number" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{4A92A856-D076-45FB-974C-1CA50722A469}" name="Recording number" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{B883D019-118A-4B04-9603-05E4366C8018}" name="Fly age" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{B21AE04B-282C-48ED-9768-7ADA7B4F00B3}" name="Line" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{3431CBA3-3DDE-4839-AEBF-D673D7D8F561}" name="Sex" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{FC12805A-9175-4F9C-B866-F064B10339E2}" name="Wet" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{2289CCEC-D351-4A92-A936-7048CB20CD09}" name="Crushed" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{A45B5DA9-43E5-419F-8B2A-CB70E7CED04C}" name="Wax (0/1)" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{2E15B9E5-8E0F-49C6-AF12-B10EFFBC131F}" name="Eyes waxed" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{DFCB7E13-20AA-4C5A-B211-8C30FAB56379}" name="Long proboscus wax" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{9A9A46EE-3954-46B7-9E57-DE7037078214}" name="Antenna waxed" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{763A207B-827B-4719-8851-7F7335BCA91B}" name="Head burnt" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{0B98EE9E-BC82-45D0-A31B-546535415D7B}" name="Body burnt" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{A63CE04A-9E90-4D87-A839-286990A22BA4}" name="Neck pulled" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{A52B07FC-F14F-4C28-9D89-B601754DB691}" name="Eyes below" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{EB332093-8FF6-415F-BFAC-38C3495880E1}" name="Head flat" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{77B954B8-6CC2-4653-A5B3-5DF6293FFD37}" name="UV glue liquid" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{6151277A-272D-4DBE-B80F-07EF1447FA13}" name="UV glue on eyes" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{19B64ADE-81CE-4DBE-80D6-C2DF8738F9DE}" name="UV glue on neck" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{21B139A1-0D62-42C0-8126-75539C9454DC}" name="Center front axis (-5=head left/+5=head right)" dataDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{C5A4A706-7555-4648-8588-57CD0A244AD8}" name="Horizontal position (-5=head down/+5=head up)" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{2838C73B-5BC1-4059-A864-E4B37D6F3FEF}" name="Ball relative height (-5:crushed; 0:one body up;5:touches the ball)" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{290759F5-3D9A-44D0-8D25-F137B6F9CDD9}" name="Vaseline" dataDxfId="26"/>
-    <tableColumn id="24" xr3:uid="{50C037F3-9761-401E-8A07-5F90988AB74A}" name="Opened hemisphere (L/R/LR)" dataDxfId="25"/>
-    <tableColumn id="25" xr3:uid="{17745546-B0DC-4142-8BC6-7B2F80BAA754}" name="ROI size" dataDxfId="24"/>
-    <tableColumn id="26" xr3:uid="{32035E8D-EEF3-48FF-B027-71BB5B85A8AF}" name="Needle in brain" dataDxfId="23"/>
-    <tableColumn id="27" xr3:uid="{CA5D181A-970C-4EE9-AD9A-72346F701CFB}" name="Tissue pulled" dataDxfId="22"/>
-    <tableColumn id="28" xr3:uid="{1EAEE1CC-53A6-45B8-A01B-DCD90F492E34}" name="Fatty cells out" dataDxfId="21"/>
-    <tableColumn id="29" xr3:uid="{47D110BE-B0BB-4981-98A9-8A48C59AFAA1}" name="Saline leakage" dataDxfId="20"/>
-    <tableColumn id="30" xr3:uid="{4736DEFB-C8C5-4835-B349-9E08B4319831}" name="Oxygenation (0/1)" dataDxfId="19"/>
-    <tableColumn id="31" xr3:uid="{5889B99C-CB8F-4973-B96F-5C389C0EA341}" name="Saline renewing (0/1)" dataDxfId="18"/>
-    <tableColumn id="45" xr3:uid="{AF039847-CA81-4769-84CB-B7D8535026F8}" name="Angle" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{2860E0C0-4658-4183-A68C-9175C61026D7}" name="Speed" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{5B80E564-F15C-4887-B182-44A519DD1931}" name="Thickness" dataDxfId="2"/>
-    <tableColumn id="47" xr3:uid="{F79AC15F-3D6F-42F3-94FF-DA010EABD1EF}" name="Type" dataDxfId="1"/>
-    <tableColumn id="34" xr3:uid="{6515C373-DBFA-4BED-81D2-F24A38EE0E30}" name="Active fly" dataDxfId="17"/>
-    <tableColumn id="35" xr3:uid="{7B38C5B6-8F39-415A-BF2D-B71FDA456B96}" name="Behavioural responses" dataDxfId="16"/>
-    <tableColumn id="36" xr3:uid="{B4517F09-911B-4FE0-9E97-49FCBED80AEC}" name="Neurons quality" dataDxfId="15"/>
-    <tableColumn id="37" xr3:uid="{28AC2BE0-9538-41D0-8EB4-9A373FE94120}" name="Gain" dataDxfId="14"/>
-    <tableColumn id="42" xr3:uid="{5A3CB7EE-E2CD-478B-8198-9C1295BDA074}" name="Power" dataDxfId="6"/>
-    <tableColumn id="43" xr3:uid="{E2C8D575-2B3B-4D87-90BB-16791A0B48AA}" name="Neurons response" dataDxfId="5"/>
-    <tableColumn id="38" xr3:uid="{558261E4-1E16-4FFB-BF49-277254093C8C}" name="Neurons motion" dataDxfId="13"/>
-    <tableColumn id="39" xr3:uid="{7782EFBD-5613-4CB8-9827-B87761249818}" name="ROI hemisphere (L/R)" dataDxfId="12"/>
-    <tableColumn id="40" xr3:uid="{458F3B4E-3770-4A3A-90CD-E00E7E49BBC6}" name="Colonne2" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA7C8421-DF2C-4599-818A-D2D98AFA87C1}" name="Tableau2" displayName="Tableau2" ref="A1:AS1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="2" tableBorderDxfId="50">
+  <autoFilter ref="A1:AS1048576" xr:uid="{C8DAFCE6-E8D4-40F2-AC2E-F035329812A7}"/>
+  <tableColumns count="47">
+    <tableColumn id="1" xr3:uid="{7AE8BBEB-9E3A-49AB-B65F-935A1990E780}" name="Time" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{9EACCC28-AAC9-43D0-B0A5-417611F81894}" name="Fly number" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{4A92A856-D076-45FB-974C-1CA50722A469}" name="Recording number" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{B883D019-118A-4B04-9603-05E4366C8018}" name="Fly age" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{B21AE04B-282C-48ED-9768-7ADA7B4F00B3}" name="Line" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{3431CBA3-3DDE-4839-AEBF-D673D7D8F561}" name="Sex" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{FC12805A-9175-4F9C-B866-F064B10339E2}" name="Wet" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{2289CCEC-D351-4A92-A936-7048CB20CD09}" name="Crushed" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{A45B5DA9-43E5-419F-8B2A-CB70E7CED04C}" name="Wax (0/1)" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{2E15B9E5-8E0F-49C6-AF12-B10EFFBC131F}" name="Eyes waxed" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{DFCB7E13-20AA-4C5A-B211-8C30FAB56379}" name="Long proboscus wax" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{9A9A46EE-3954-46B7-9E57-DE7037078214}" name="Antenna waxed" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{763A207B-827B-4719-8851-7F7335BCA91B}" name="Head burnt" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{0B98EE9E-BC82-45D0-A31B-546535415D7B}" name="Body burnt" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{A63CE04A-9E90-4D87-A839-286990A22BA4}" name="Neck pulled" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{A52B07FC-F14F-4C28-9D89-B601754DB691}" name="Eyes below" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{EB332093-8FF6-415F-BFAC-38C3495880E1}" name="Head flat" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{77B954B8-6CC2-4653-A5B3-5DF6293FFD37}" name="UV glue liquid" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{6151277A-272D-4DBE-B80F-07EF1447FA13}" name="UV glue on eyes" dataDxfId="31"/>
+    <tableColumn id="20" xr3:uid="{19B64ADE-81CE-4DBE-80D6-C2DF8738F9DE}" name="UV glue on neck" dataDxfId="30"/>
+    <tableColumn id="21" xr3:uid="{21B139A1-0D62-42C0-8126-75539C9454DC}" name="Center front axis (-5=head left/+5=head right)" dataDxfId="29"/>
+    <tableColumn id="22" xr3:uid="{C5A4A706-7555-4648-8588-57CD0A244AD8}" name="Horizontal position (-5=head down/+5=head up)" dataDxfId="9"/>
+    <tableColumn id="41" xr3:uid="{2838C73B-5BC1-4059-A864-E4B37D6F3FEF}" name="Ball relative height (-5:crushed; 0:one body up;5:touches the ball)" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{290759F5-3D9A-44D0-8D25-F137B6F9CDD9}" name="Vaseline" dataDxfId="28"/>
+    <tableColumn id="24" xr3:uid="{50C037F3-9761-401E-8A07-5F90988AB74A}" name="Opened hemisphere (L/R/LR)" dataDxfId="27"/>
+    <tableColumn id="25" xr3:uid="{17745546-B0DC-4142-8BC6-7B2F80BAA754}" name="ROI size" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{32035E8D-EEF3-48FF-B027-71BB5B85A8AF}" name="Needle in brain" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{CA5D181A-970C-4EE9-AD9A-72346F701CFB}" name="Tissue pulled" dataDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{1EAEE1CC-53A6-45B8-A01B-DCD90F492E34}" name="Fatty cells out" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{47D110BE-B0BB-4981-98A9-8A48C59AFAA1}" name="Saline leakage" dataDxfId="22"/>
+    <tableColumn id="30" xr3:uid="{4736DEFB-C8C5-4835-B349-9E08B4319831}" name="Oxygenation (0/1)" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{5889B99C-CB8F-4973-B96F-5C389C0EA341}" name="Saline renewing (0/1)" dataDxfId="20"/>
+    <tableColumn id="45" xr3:uid="{AF039847-CA81-4769-84CB-B7D8535026F8}" name="Angle" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{2860E0C0-4658-4183-A68C-9175C61026D7}" name="Speed" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{5B80E564-F15C-4887-B182-44A519DD1931}" name="Thickness" dataDxfId="4"/>
+    <tableColumn id="47" xr3:uid="{F79AC15F-3D6F-42F3-94FF-DA010EABD1EF}" name="Type" dataDxfId="3"/>
+    <tableColumn id="49" xr3:uid="{F349582F-B213-4F03-A814-FBEC32D81EF5}" name="Active fly" dataDxfId="1"/>
+    <tableColumn id="50" xr3:uid="{857ACD0E-C16A-4740-83A2-4C5DCFE8CC5A}" name="Ball shaking (0,1,2,3)" dataDxfId="0"/>
+    <tableColumn id="34" xr3:uid="{6515C373-DBFA-4BED-81D2-F24A38EE0E30}" name="Behavioural responses" dataDxfId="19"/>
+    <tableColumn id="35" xr3:uid="{7B38C5B6-8F39-415A-BF2D-B71FDA456B96}" name="Neurons quality" dataDxfId="18"/>
+    <tableColumn id="36" xr3:uid="{B4517F09-911B-4FE0-9E97-49FCBED80AEC}" name="Gain" dataDxfId="17"/>
+    <tableColumn id="37" xr3:uid="{28AC2BE0-9538-41D0-8EB4-9A373FE94120}" name="Power" dataDxfId="16"/>
+    <tableColumn id="42" xr3:uid="{5A3CB7EE-E2CD-478B-8198-9C1295BDA074}" name="Neurons response" dataDxfId="8"/>
+    <tableColumn id="43" xr3:uid="{E2C8D575-2B3B-4D87-90BB-16791A0B48AA}" name="Neurons motion" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{558261E4-1E16-4FFB-BF49-277254093C8C}" name="ROI hemisphere (L/R)" dataDxfId="15"/>
+    <tableColumn id="39" xr3:uid="{7782EFBD-5613-4CB8-9827-B87761249818}" name="Colonne2" dataDxfId="14"/>
+    <tableColumn id="40" xr3:uid="{458F3B4E-3770-4A3A-90CD-E00E7E49BBC6}" name="Colonne3" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2247,15 +2314,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
-  <dimension ref="A1:AS1048576"/>
+  <dimension ref="A1:AU1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="AN128" sqref="AN128"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="AM141" sqref="AM141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="22" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="18" customWidth="1"/>
@@ -2274,7 +2341,7 @@
     <col min="17" max="18" width="9.140625" style="16" customWidth="1"/>
     <col min="19" max="19" width="14.42578125" style="16" customWidth="1"/>
     <col min="20" max="20" width="8.85546875" style="16" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="20" customWidth="1"/>
     <col min="22" max="22" width="7.140625" style="16" customWidth="1"/>
     <col min="23" max="23" width="9" style="51" customWidth="1"/>
     <col min="24" max="24" width="6.28515625" style="6" customWidth="1"/>
@@ -2291,16 +2358,17 @@
     <col min="35" max="35" width="5.140625" style="62" customWidth="1"/>
     <col min="36" max="36" width="9.28515625" style="62" customWidth="1"/>
     <col min="37" max="37" width="7.42578125" style="60" customWidth="1"/>
-    <col min="38" max="38" width="7" style="3" customWidth="1"/>
-    <col min="39" max="39" width="13.42578125" style="3" customWidth="1"/>
-    <col min="40" max="40" width="5.140625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="6.7109375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="13.5703125" style="3" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="28" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" style="60" customWidth="1"/>
+    <col min="39" max="39" width="7" style="3" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" style="3" customWidth="1"/>
+    <col min="41" max="41" width="5.140625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="6.7109375" style="3" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" style="3" customWidth="1"/>
+    <col min="44" max="44" width="13.5703125" style="3" customWidth="1"/>
+    <col min="45" max="45" width="5.7109375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2436,7 @@
         <v>34</v>
       </c>
       <c r="W1" s="49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" s="43" t="s">
         <v>16</v>
@@ -2407,37 +2475,43 @@
         <v>41</v>
       </c>
       <c r="AJ1" s="46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="46" t="s">
+      <c r="AL1" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="46" t="s">
+      <c r="AN1" s="46" t="s">
         <v>24</v>
-      </c>
-      <c r="AN1" s="46" t="s">
-        <v>56</v>
       </c>
       <c r="AO1" s="46" t="s">
         <v>57</v>
       </c>
       <c r="AP1" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="46" t="s">
+      <c r="AR1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" s="48" t="s">
+      <c r="AS1" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="54" t="s">
+      <c r="AT1" s="54" t="s">
         <v>52</v>
       </c>
+      <c r="AU1" s="54" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>190722110152</v>
       </c>
@@ -2544,34 +2618,37 @@
         <v>35</v>
       </c>
       <c r="AJ2" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK2" s="59">
         <v>4</v>
       </c>
-      <c r="AL2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM2" s="12">
-        <v>0</v>
+      <c r="AL2" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="AN2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="12">
         <v>91</v>
       </c>
-      <c r="AO2" s="12">
+      <c r="AP2" s="12">
         <v>1400</v>
       </c>
-      <c r="AP2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AR2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS2" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>190722143627</v>
       </c>
@@ -2678,34 +2755,37 @@
         <v>35</v>
       </c>
       <c r="AJ3" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" s="60">
         <v>3</v>
       </c>
-      <c r="AL3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>2</v>
+      <c r="AL3" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="3">
         <v>91</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AP3" s="12">
         <v>1400</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR3" s="28" t="s">
+      <c r="AR3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS3" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>190723103200</v>
       </c>
@@ -2812,34 +2892,37 @@
         <v>35</v>
       </c>
       <c r="AJ4" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" s="60">
         <v>6</v>
       </c>
-      <c r="AL4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>1</v>
+      <c r="AL4" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3">
         <v>91</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AP4" s="12">
         <v>1400</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR4" s="28" t="s">
+      <c r="AR4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS4" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>190723112600</v>
       </c>
@@ -2946,34 +3029,37 @@
         <v>35</v>
       </c>
       <c r="AJ5" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" s="60">
         <v>4</v>
       </c>
-      <c r="AL5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>2</v>
+      <c r="AL5" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="3">
         <v>91</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AP5" s="12">
         <v>1400</v>
       </c>
-      <c r="AP5" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR5" s="28" t="s">
+      <c r="AR5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS5" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>190723140408</v>
       </c>
@@ -3080,34 +3166,37 @@
         <v>10</v>
       </c>
       <c r="AJ6" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" s="60">
         <v>2</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AL6" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO6" s="3">
         <v>91</v>
       </c>
-      <c r="AO6" s="12">
+      <c r="AP6" s="12">
         <v>1400</v>
       </c>
-      <c r="AP6" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR6" s="28" t="s">
+      <c r="AR6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS6" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>190723140500</v>
       </c>
@@ -3214,34 +3303,37 @@
         <v>10</v>
       </c>
       <c r="AJ7" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK7" s="60">
         <v>0</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AL7" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO7" s="3">
         <v>91</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AP7" s="12">
         <v>1400</v>
       </c>
-      <c r="AP7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR7" s="28" t="s">
+      <c r="AR7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS7" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>190724095226</v>
       </c>
@@ -3348,34 +3440,37 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK8" s="60">
         <v>8</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AL8" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO8" s="3">
         <v>91</v>
       </c>
-      <c r="AO8" s="12">
+      <c r="AP8" s="12">
         <v>1400</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR8" s="28" t="s">
+      <c r="AR8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS8" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>190724095658</v>
       </c>
@@ -3482,34 +3577,37 @@
         <v>10</v>
       </c>
       <c r="AJ9" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK9" s="60">
         <v>7</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AL9" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO9" s="3">
         <v>91</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AP9" s="12">
         <v>1400</v>
       </c>
-      <c r="AP9" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR9" s="28" t="s">
+      <c r="AR9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS9" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>190724101220</v>
       </c>
@@ -3616,34 +3714,37 @@
         <v>10</v>
       </c>
       <c r="AJ10" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" s="60">
         <v>9</v>
       </c>
-      <c r="AL10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>2</v>
+      <c r="AL10" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="3">
         <v>91</v>
       </c>
-      <c r="AO10" s="12">
+      <c r="AP10" s="12">
         <v>1400</v>
       </c>
-      <c r="AP10" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ10" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>190724101316</v>
       </c>
@@ -3750,34 +3851,37 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" s="60">
         <v>9</v>
       </c>
-      <c r="AL11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>2</v>
+      <c r="AL11" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="3">
         <v>91</v>
       </c>
-      <c r="AO11" s="12">
+      <c r="AP11" s="12">
         <v>1400</v>
       </c>
-      <c r="AP11" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ11" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>190724101415</v>
       </c>
@@ -3884,34 +3988,37 @@
         <v>10</v>
       </c>
       <c r="AJ12" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" s="60">
         <v>9</v>
       </c>
-      <c r="AL12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>2</v>
+      <c r="AL12" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="3">
         <v>91</v>
       </c>
-      <c r="AO12" s="12">
+      <c r="AP12" s="12">
         <v>1400</v>
       </c>
-      <c r="AP12" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ12" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>190724104000</v>
       </c>
@@ -4018,34 +4125,37 @@
         <v>35</v>
       </c>
       <c r="AJ13" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" s="60">
         <v>8</v>
       </c>
-      <c r="AL13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>2</v>
+      <c r="AL13" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="3">
         <v>91</v>
       </c>
-      <c r="AO13" s="12">
+      <c r="AP13" s="12">
         <v>1400</v>
       </c>
-      <c r="AP13" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR13" s="28" t="s">
+      <c r="AR13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS13" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>190724110920</v>
       </c>
@@ -4152,12 +4262,12 @@
         <v>10</v>
       </c>
       <c r="AJ14" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" s="60">
         <v>7</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AL14" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM14" s="3" t="s">
@@ -4166,20 +4276,23 @@
       <c r="AN14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP14" s="3" t="s">
+      <c r="AO14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR14" s="28" t="s">
+      <c r="AR14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS14" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>190724111258</v>
       </c>
@@ -4286,12 +4399,12 @@
         <v>10</v>
       </c>
       <c r="AJ15" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" s="60">
         <v>8</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AL15" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM15" s="3" t="s">
@@ -4300,20 +4413,23 @@
       <c r="AN15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP15" s="3" t="s">
+      <c r="AO15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR15" s="28" t="s">
+      <c r="AR15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS15" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>190724112900</v>
       </c>
@@ -4420,34 +4536,37 @@
         <v>35</v>
       </c>
       <c r="AJ16" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" s="60">
         <v>10</v>
       </c>
-      <c r="AL16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>1</v>
+      <c r="AL16" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="3">
         <v>91</v>
       </c>
-      <c r="AO16" s="12">
+      <c r="AP16" s="12">
         <v>1400</v>
       </c>
-      <c r="AP16" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR16" s="28" t="s">
+      <c r="AR16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS16" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>190724113048</v>
       </c>
@@ -4554,34 +4673,37 @@
         <v>10</v>
       </c>
       <c r="AJ17" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" s="60">
         <v>9</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL17" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM17" s="3">
         <v>6</v>
       </c>
-      <c r="AM17" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AN17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP17" s="3" t="s">
+      <c r="AO17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="28" t="s">
+      <c r="AR17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS17" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>190724113229</v>
       </c>
@@ -4688,12 +4810,12 @@
         <v>10</v>
       </c>
       <c r="AJ18" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" s="60">
         <v>10</v>
       </c>
-      <c r="AL18" s="3" t="s">
+      <c r="AL18" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM18" s="3" t="s">
@@ -4702,20 +4824,23 @@
       <c r="AN18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP18" s="3" t="s">
+      <c r="AO18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR18" s="28" t="s">
+      <c r="AR18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS18" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>190724113717</v>
       </c>
@@ -4822,34 +4947,37 @@
         <v>10</v>
       </c>
       <c r="AJ19" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" s="60">
         <v>9</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL19" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM19" s="3">
         <v>8</v>
       </c>
-      <c r="AM19" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AN19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP19" s="3" t="s">
+      <c r="AO19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR19" s="28" t="s">
+      <c r="AR19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS19" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>190724113809</v>
       </c>
@@ -4956,12 +5084,12 @@
         <v>10</v>
       </c>
       <c r="AJ20" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" s="60">
         <v>9</v>
       </c>
-      <c r="AL20" s="3" t="s">
+      <c r="AL20" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM20" s="3" t="s">
@@ -4970,20 +5098,23 @@
       <c r="AN20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP20" s="3" t="s">
+      <c r="AO20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP20" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR20" s="28" t="s">
+      <c r="AR20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>190724113909</v>
       </c>
@@ -5090,34 +5221,37 @@
         <v>10</v>
       </c>
       <c r="AJ21" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" s="60">
         <v>9</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AL21" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM21" s="3">
         <v>10</v>
       </c>
-      <c r="AM21" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AN21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP21" s="3" t="s">
+      <c r="AO21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP21" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR21" s="28" t="s">
+      <c r="AR21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS21" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>190724114002</v>
       </c>
@@ -5224,12 +5358,12 @@
         <v>10</v>
       </c>
       <c r="AJ22" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" s="60">
         <v>9</v>
       </c>
-      <c r="AL22" s="3" t="s">
+      <c r="AL22" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM22" s="3" t="s">
@@ -5238,20 +5372,23 @@
       <c r="AN22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP22" s="3" t="s">
+      <c r="AO22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP22" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR22" s="28" t="s">
+      <c r="AR22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS22" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>190724114307</v>
       </c>
@@ -5358,12 +5495,12 @@
         <v>2</v>
       </c>
       <c r="AJ23" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" s="60">
         <v>10</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AL23" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM23" s="3" t="s">
@@ -5372,20 +5509,23 @@
       <c r="AN23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP23" s="3" t="s">
+      <c r="AO23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP23" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR23" s="28" t="s">
+      <c r="AR23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS23" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>190724114400</v>
       </c>
@@ -5492,12 +5632,12 @@
         <v>2</v>
       </c>
       <c r="AJ24" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" s="60">
         <v>10</v>
       </c>
-      <c r="AL24" s="3" t="s">
+      <c r="AL24" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM24" s="3" t="s">
@@ -5506,20 +5646,23 @@
       <c r="AN24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP24" s="3" t="s">
+      <c r="AO24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP24" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR24" s="28" t="s">
+      <c r="AR24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS24" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>190724114522</v>
       </c>
@@ -5626,12 +5769,12 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" s="60">
         <v>10</v>
       </c>
-      <c r="AL25" s="3" t="s">
+      <c r="AL25" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM25" s="3" t="s">
@@ -5640,20 +5783,23 @@
       <c r="AN25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP25" s="3" t="s">
+      <c r="AO25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP25" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR25" s="28" t="s">
+      <c r="AR25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS25" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>190724114614</v>
       </c>
@@ -5760,12 +5906,12 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" s="60">
         <v>10</v>
       </c>
-      <c r="AL26" s="3" t="s">
+      <c r="AL26" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM26" s="3" t="s">
@@ -5774,20 +5920,23 @@
       <c r="AN26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP26" s="3" t="s">
+      <c r="AO26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP26" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR26" s="28" t="s">
+      <c r="AR26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS26" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>190725153404</v>
       </c>
@@ -5894,12 +6043,12 @@
         <v>10</v>
       </c>
       <c r="AJ27" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" s="60">
         <v>6</v>
       </c>
-      <c r="AL27" s="3" t="s">
+      <c r="AL27" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM27" s="3" t="s">
@@ -5908,20 +6057,23 @@
       <c r="AN27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP27" s="3" t="s">
+      <c r="AO27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR27" s="28" t="s">
+      <c r="AR27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS27" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>190725153917</v>
       </c>
@@ -6028,12 +6180,12 @@
         <v>10</v>
       </c>
       <c r="AJ28" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" s="60">
         <v>5</v>
       </c>
-      <c r="AL28" s="3" t="s">
+      <c r="AL28" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM28" s="3" t="s">
@@ -6042,20 +6194,23 @@
       <c r="AN28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP28" s="3" t="s">
+      <c r="AO28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP28" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR28" s="28" t="s">
+      <c r="AR28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS28" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>190725154044</v>
       </c>
@@ -6162,12 +6317,12 @@
         <v>10</v>
       </c>
       <c r="AJ29" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" s="60">
         <v>5</v>
       </c>
-      <c r="AL29" s="3" t="s">
+      <c r="AL29" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM29" s="3" t="s">
@@ -6176,20 +6331,23 @@
       <c r="AN29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO29" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP29" s="3" t="s">
+      <c r="AO29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR29" s="28" t="s">
+      <c r="AR29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS29" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>190725160916</v>
       </c>
@@ -6296,34 +6454,37 @@
         <v>10</v>
       </c>
       <c r="AJ30" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" s="60">
         <v>7</v>
       </c>
-      <c r="AL30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>2</v>
+      <c r="AL30" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO30" s="3">
         <v>91</v>
       </c>
-      <c r="AO30" s="12">
+      <c r="AP30" s="12">
         <v>1400</v>
       </c>
-      <c r="AP30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR30" s="28" t="s">
+      <c r="AQ30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS30" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>190725161038</v>
       </c>
@@ -6430,34 +6591,37 @@
         <v>10</v>
       </c>
       <c r="AJ31" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" s="60">
         <v>7</v>
       </c>
-      <c r="AL31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM31" s="3">
-        <v>2</v>
+      <c r="AL31" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO31" s="3">
         <v>91</v>
       </c>
-      <c r="AO31" s="12">
+      <c r="AP31" s="12">
         <v>1400</v>
       </c>
-      <c r="AP31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR31" s="28" t="s">
+      <c r="AQ31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>190726103100</v>
       </c>
@@ -6471,7 +6635,7 @@
         <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>30</v>
@@ -6564,12 +6728,12 @@
         <v>10</v>
       </c>
       <c r="AJ32" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" s="60">
         <v>1</v>
       </c>
-      <c r="AL32" s="3" t="s">
+      <c r="AL32" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM32" s="3" t="s">
@@ -6578,20 +6742,23 @@
       <c r="AN32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP32" s="3" t="s">
+      <c r="AO32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP32" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR32" s="28" t="s">
+      <c r="AR32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS32" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>190726103633</v>
       </c>
@@ -6605,7 +6772,7 @@
         <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>30</v>
@@ -6698,12 +6865,12 @@
         <v>10</v>
       </c>
       <c r="AJ33" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" s="60">
         <v>0</v>
       </c>
-      <c r="AL33" s="3" t="s">
+      <c r="AL33" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM33" s="3" t="s">
@@ -6712,20 +6879,23 @@
       <c r="AN33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO33" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP33" s="3" t="s">
+      <c r="AO33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP33" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR33" s="28" t="s">
+      <c r="AR33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS33" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>190726105200</v>
       </c>
@@ -6739,7 +6909,7 @@
         <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>30</v>
@@ -6832,34 +7002,37 @@
         <v>10</v>
       </c>
       <c r="AJ34" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" s="60">
         <v>0</v>
       </c>
-      <c r="AL34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM34" s="3">
-        <v>5</v>
+      <c r="AL34" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN34" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO34" s="3">
         <v>91</v>
       </c>
-      <c r="AO34" s="12">
+      <c r="AP34" s="12">
         <v>1400</v>
       </c>
-      <c r="AP34" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AQ34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR34" s="28" t="s">
+      <c r="AR34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS34" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>190726113145</v>
       </c>
@@ -6873,7 +7046,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>30</v>
@@ -6966,34 +7139,37 @@
         <v>10</v>
       </c>
       <c r="AJ35" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" s="60">
         <v>7</v>
       </c>
-      <c r="AL35" s="3">
+      <c r="AL35" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM35" s="3">
         <v>10</v>
       </c>
-      <c r="AM35" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AN35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP35" s="3" t="s">
+      <c r="AO35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP35" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR35" s="28" t="s">
+      <c r="AR35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS35" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>190726113453</v>
       </c>
@@ -7007,7 +7183,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>30</v>
@@ -7100,12 +7276,12 @@
         <v>10</v>
       </c>
       <c r="AJ36" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" s="60">
         <v>7</v>
       </c>
-      <c r="AL36" s="3" t="s">
+      <c r="AL36" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM36" s="3" t="s">
@@ -7114,20 +7290,23 @@
       <c r="AN36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP36" s="3" t="s">
+      <c r="AO36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP36" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR36" s="28" t="s">
+      <c r="AR36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS36" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>190726113553</v>
       </c>
@@ -7141,7 +7320,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>30</v>
@@ -7234,12 +7413,12 @@
         <v>10</v>
       </c>
       <c r="AJ37" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" s="60">
         <v>7</v>
       </c>
-      <c r="AL37" s="3" t="s">
+      <c r="AL37" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM37" s="3" t="s">
@@ -7248,20 +7427,23 @@
       <c r="AN37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO37" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP37" s="3" t="s">
+      <c r="AO37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR37" s="28" t="s">
+      <c r="AR37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS37" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>190726113656</v>
       </c>
@@ -7275,7 +7457,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>30</v>
@@ -7368,12 +7550,12 @@
         <v>2</v>
       </c>
       <c r="AJ38" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" s="60">
         <v>7</v>
       </c>
-      <c r="AL38" s="3" t="s">
+      <c r="AL38" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM38" s="3" t="s">
@@ -7382,20 +7564,23 @@
       <c r="AN38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO38" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP38" s="3" t="s">
+      <c r="AO38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP38" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR38" s="28" t="s">
+      <c r="AR38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS38" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>190726113808</v>
       </c>
@@ -7409,7 +7594,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>30</v>
@@ -7502,12 +7687,12 @@
         <v>2</v>
       </c>
       <c r="AJ39" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" s="60">
         <v>7</v>
       </c>
-      <c r="AL39" s="3" t="s">
+      <c r="AL39" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM39" s="3" t="s">
@@ -7516,20 +7701,23 @@
       <c r="AN39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO39" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP39" s="3" t="s">
+      <c r="AO39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP39" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR39" s="28" t="s">
+      <c r="AR39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS39" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>190726113904</v>
       </c>
@@ -7543,7 +7731,7 @@
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>30</v>
@@ -7636,12 +7824,12 @@
         <v>2</v>
       </c>
       <c r="AJ40" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" s="60">
         <v>7</v>
       </c>
-      <c r="AL40" s="3" t="s">
+      <c r="AL40" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM40" s="3" t="s">
@@ -7650,20 +7838,23 @@
       <c r="AN40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP40" s="3" t="s">
+      <c r="AO40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP40" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR40" s="28" t="s">
+      <c r="AR40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS40" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>190726113958</v>
       </c>
@@ -7677,7 +7868,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>30</v>
@@ -7770,12 +7961,12 @@
         <v>1</v>
       </c>
       <c r="AJ41" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" s="60">
         <v>7</v>
       </c>
-      <c r="AL41" s="3" t="s">
+      <c r="AL41" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM41" s="3" t="s">
@@ -7784,20 +7975,23 @@
       <c r="AN41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO41" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP41" s="3" t="s">
+      <c r="AO41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP41" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR41" s="28" t="s">
+      <c r="AR41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS41" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>190726114055</v>
       </c>
@@ -7811,7 +8005,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>30</v>
@@ -7904,12 +8098,12 @@
         <v>1</v>
       </c>
       <c r="AJ42" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" s="60">
         <v>7</v>
       </c>
-      <c r="AL42" s="3" t="s">
+      <c r="AL42" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM42" s="3" t="s">
@@ -7918,20 +8112,23 @@
       <c r="AN42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO42" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP42" s="3" t="s">
+      <c r="AO42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP42" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR42" s="28" t="s">
+      <c r="AR42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS42" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>190726114148</v>
       </c>
@@ -7945,7 +8142,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
@@ -8038,12 +8235,12 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" s="60">
         <v>7</v>
       </c>
-      <c r="AL43" s="3" t="s">
+      <c r="AL43" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM43" s="3" t="s">
@@ -8052,20 +8249,23 @@
       <c r="AN43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO43" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP43" s="3" t="s">
+      <c r="AO43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP43" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR43" s="28" t="s">
+      <c r="AR43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS43" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>190726144400</v>
       </c>
@@ -8076,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>29</v>
@@ -8172,12 +8372,12 @@
         <v>10</v>
       </c>
       <c r="AJ44" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" s="60">
         <v>6</v>
       </c>
-      <c r="AL44" s="3" t="s">
+      <c r="AL44" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM44" s="3" t="s">
@@ -8186,20 +8386,23 @@
       <c r="AN44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO44" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP44" s="3" t="s">
+      <c r="AO44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP44" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR44" s="28" t="s">
+      <c r="AR44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS44" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>190726144947</v>
       </c>
@@ -8210,7 +8413,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>29</v>
@@ -8306,12 +8509,12 @@
         <v>10</v>
       </c>
       <c r="AJ45" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" s="60">
         <v>7</v>
       </c>
-      <c r="AL45" s="3" t="s">
+      <c r="AL45" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM45" s="3" t="s">
@@ -8320,20 +8523,23 @@
       <c r="AN45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO45" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP45" s="3" t="s">
+      <c r="AO45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP45" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR45" s="28" t="s">
+      <c r="AR45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS45" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>190726145210</v>
       </c>
@@ -8344,7 +8550,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>29</v>
@@ -8440,12 +8646,12 @@
         <v>10</v>
       </c>
       <c r="AJ46" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" s="60">
         <v>7</v>
       </c>
-      <c r="AL46" s="3" t="s">
+      <c r="AL46" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM46" s="3" t="s">
@@ -8454,20 +8660,23 @@
       <c r="AN46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO46" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP46" s="3" t="s">
+      <c r="AO46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP46" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR46" s="28" t="s">
+      <c r="AR46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS46" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>190726145531</v>
       </c>
@@ -8478,7 +8687,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>29</v>
@@ -8574,12 +8783,12 @@
         <v>10</v>
       </c>
       <c r="AJ47" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" s="60">
         <v>7</v>
       </c>
-      <c r="AL47" s="3" t="s">
+      <c r="AL47" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM47" s="3" t="s">
@@ -8588,20 +8797,23 @@
       <c r="AN47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP47" s="3" t="s">
+      <c r="AO47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP47" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR47" s="28" t="s">
+      <c r="AR47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS47" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>190726150658</v>
       </c>
@@ -8612,7 +8824,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>29</v>
@@ -8708,12 +8920,12 @@
         <v>10</v>
       </c>
       <c r="AJ48" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" s="60">
         <v>7</v>
       </c>
-      <c r="AL48" s="3" t="s">
+      <c r="AL48" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM48" s="3" t="s">
@@ -8722,20 +8934,23 @@
       <c r="AN48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO48" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP48" s="3" t="s">
+      <c r="AO48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP48" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR48" s="28" t="s">
+      <c r="AR48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS48" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>190726152056</v>
       </c>
@@ -8746,7 +8961,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>29</v>
@@ -8842,34 +9057,37 @@
         <v>10</v>
       </c>
       <c r="AJ49" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" s="60">
         <v>5</v>
       </c>
-      <c r="AL49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM49" s="3">
-        <v>4</v>
+      <c r="AL49" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM49" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN49" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO49" s="3">
         <v>91</v>
       </c>
-      <c r="AO49" s="12">
+      <c r="AP49" s="12">
         <v>1400</v>
       </c>
-      <c r="AP49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ49" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR49" s="28" t="s">
+      <c r="AQ49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR49" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS49" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>190726152152</v>
       </c>
@@ -8880,7 +9098,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>29</v>
@@ -8976,34 +9194,37 @@
         <v>10</v>
       </c>
       <c r="AJ50" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" s="60">
         <v>5</v>
       </c>
-      <c r="AL50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM50" s="3">
-        <v>4</v>
+      <c r="AL50" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM50" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN50" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO50" s="3">
         <v>91</v>
       </c>
-      <c r="AO50" s="12">
+      <c r="AP50" s="12">
         <v>1400</v>
       </c>
-      <c r="AP50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ50" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR50" s="28" t="s">
+      <c r="AQ50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR50" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS50" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>190726152241</v>
       </c>
@@ -9014,7 +9235,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>29</v>
@@ -9110,34 +9331,37 @@
         <v>10</v>
       </c>
       <c r="AJ51" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" s="60">
         <v>5</v>
       </c>
-      <c r="AL51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM51" s="3">
-        <v>4</v>
+      <c r="AL51" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM51" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN51" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO51" s="3">
         <v>91</v>
       </c>
-      <c r="AO51" s="12">
+      <c r="AP51" s="12">
         <v>1400</v>
       </c>
-      <c r="AP51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ51" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR51" s="28" t="s">
+      <c r="AQ51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS51" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>190726152338</v>
       </c>
@@ -9148,7 +9372,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>29</v>
@@ -9244,34 +9468,37 @@
         <v>10</v>
       </c>
       <c r="AJ52" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" s="60">
         <v>5</v>
       </c>
-      <c r="AL52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM52" s="3">
-        <v>4</v>
+      <c r="AL52" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM52" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN52" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO52" s="3">
         <v>91</v>
       </c>
-      <c r="AO52" s="12">
+      <c r="AP52" s="12">
         <v>1400</v>
       </c>
-      <c r="AP52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ52" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR52" s="28" t="s">
+      <c r="AQ52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR52" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS52" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>190729103216</v>
       </c>
@@ -9378,12 +9605,12 @@
         <v>10</v>
       </c>
       <c r="AJ53" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" s="60">
         <v>5</v>
       </c>
-      <c r="AL53" s="3" t="s">
+      <c r="AL53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM53" s="3" t="s">
@@ -9392,20 +9619,23 @@
       <c r="AN53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO53" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP53" s="3" t="s">
+      <c r="AO53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP53" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR53" s="28" t="s">
+      <c r="AR53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS53" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>190729103407</v>
       </c>
@@ -9512,12 +9742,12 @@
         <v>10</v>
       </c>
       <c r="AJ54" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" s="60">
         <v>5</v>
       </c>
-      <c r="AL54" s="3" t="s">
+      <c r="AL54" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM54" s="3" t="s">
@@ -9526,20 +9756,23 @@
       <c r="AN54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO54" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP54" s="3" t="s">
+      <c r="AO54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP54" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR54" s="28" t="s">
+      <c r="AR54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS54" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>190729105047</v>
       </c>
@@ -9646,34 +9879,37 @@
         <v>10</v>
       </c>
       <c r="AJ55" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" s="60">
         <v>6</v>
       </c>
-      <c r="AL55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM55" s="3">
-        <v>2</v>
+      <c r="AL55" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM55" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN55" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="3">
         <v>91</v>
       </c>
-      <c r="AO55" s="12">
+      <c r="AP55" s="12">
         <v>1400</v>
       </c>
-      <c r="AP55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ55" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR55" s="28" t="s">
+      <c r="AQ55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS55" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>190729105148</v>
       </c>
@@ -9780,34 +10016,37 @@
         <v>10</v>
       </c>
       <c r="AJ56" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" s="60">
         <v>8</v>
       </c>
-      <c r="AL56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM56" s="3">
-        <v>2</v>
+      <c r="AL56" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM56" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN56" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO56" s="3">
         <v>91</v>
       </c>
-      <c r="AO56" s="12">
+      <c r="AP56" s="12">
         <v>1400</v>
       </c>
-      <c r="AP56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ56" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR56" s="28" t="s">
+      <c r="AQ56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>190729105241</v>
       </c>
@@ -9914,34 +10153,37 @@
         <v>10</v>
       </c>
       <c r="AJ57" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" s="60">
         <v>8</v>
       </c>
-      <c r="AL57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM57" s="3">
-        <v>2</v>
+      <c r="AL57" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM57" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN57" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO57" s="3">
         <v>91</v>
       </c>
-      <c r="AO57" s="12">
+      <c r="AP57" s="12">
         <v>1400</v>
       </c>
-      <c r="AP57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ57" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR57" s="28" t="s">
+      <c r="AQ57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS57" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>190729110205</v>
       </c>
@@ -10048,34 +10290,37 @@
         <v>10</v>
       </c>
       <c r="AJ58" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" s="60">
         <v>6</v>
       </c>
-      <c r="AL58" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM58" s="3">
-        <v>4</v>
+      <c r="AL58" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM58" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN58" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO58" s="3">
         <v>93</v>
       </c>
-      <c r="AO58" s="3">
+      <c r="AP58" s="3">
         <v>2175</v>
       </c>
-      <c r="AP58" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ58" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR58" s="28" t="s">
+      <c r="AQ58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS58" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>190729110323</v>
       </c>
@@ -10182,34 +10427,37 @@
         <v>10</v>
       </c>
       <c r="AJ59" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" s="60">
         <v>5</v>
       </c>
-      <c r="AL59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM59" s="3">
-        <v>4</v>
+      <c r="AL59" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM59" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN59" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO59" s="3">
         <v>93</v>
       </c>
-      <c r="AO59" s="3">
+      <c r="AP59" s="3">
         <v>2175</v>
       </c>
-      <c r="AP59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ59" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR59" s="28" t="s">
+      <c r="AQ59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS59" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>190729110423</v>
       </c>
@@ -10316,34 +10564,37 @@
         <v>10</v>
       </c>
       <c r="AJ60" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" s="60">
         <v>5</v>
       </c>
-      <c r="AL60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM60" s="3">
-        <v>4</v>
+      <c r="AL60" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM60" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN60" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO60" s="3">
         <v>93</v>
       </c>
-      <c r="AO60" s="3">
+      <c r="AP60" s="3">
         <v>2175</v>
       </c>
-      <c r="AP60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ60" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR60" s="28" t="s">
+      <c r="AQ60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS60" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>190729111721</v>
       </c>
@@ -10450,34 +10701,37 @@
         <v>10</v>
       </c>
       <c r="AJ61" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" s="60">
         <v>1</v>
       </c>
-      <c r="AL61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM61" s="3">
-        <v>4</v>
+      <c r="AL61" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM61" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN61" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO61" s="3">
         <v>93</v>
       </c>
-      <c r="AO61" s="3">
+      <c r="AP61" s="3">
         <v>2175</v>
       </c>
-      <c r="AP61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ61" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR61" s="28" t="s">
+      <c r="AQ61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS61" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>190729111827</v>
       </c>
@@ -10584,34 +10838,37 @@
         <v>10</v>
       </c>
       <c r="AJ62" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" s="60">
         <v>1</v>
       </c>
-      <c r="AL62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM62" s="3">
-        <v>4</v>
+      <c r="AL62" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM62" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN62" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO62" s="3">
         <v>93</v>
       </c>
-      <c r="AO62" s="3">
+      <c r="AP62" s="3">
         <v>2175</v>
       </c>
-      <c r="AP62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ62" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR62" s="28" t="s">
+      <c r="AQ62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS62" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>190729111930</v>
       </c>
@@ -10718,34 +10975,37 @@
         <v>10</v>
       </c>
       <c r="AJ63" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" s="60">
         <v>1</v>
       </c>
-      <c r="AL63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM63" s="3">
-        <v>4</v>
+      <c r="AL63" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM63" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AN63" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO63" s="3">
         <v>93</v>
       </c>
-      <c r="AO63" s="3">
+      <c r="AP63" s="3">
         <v>2175</v>
       </c>
-      <c r="AP63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ63" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR63" s="28" t="s">
+      <c r="AQ63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS63" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>190729150645</v>
       </c>
@@ -10759,10 +11019,10 @@
         <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G64" s="15">
         <v>2</v>
@@ -10852,12 +11112,12 @@
         <v>10</v>
       </c>
       <c r="AJ64" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" s="60">
         <v>0</v>
       </c>
-      <c r="AL64" s="3" t="s">
+      <c r="AL64" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM64" s="3" t="s">
@@ -10866,20 +11126,23 @@
       <c r="AN64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO64" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP64" s="3" t="s">
+      <c r="AO64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP64" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR64" s="28" t="s">
+      <c r="AR64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS64" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>190729150855</v>
       </c>
@@ -10893,10 +11156,10 @@
         <v>48</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G65" s="15">
         <v>2</v>
@@ -10986,12 +11249,12 @@
         <v>10</v>
       </c>
       <c r="AJ65" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" s="60">
         <v>0</v>
       </c>
-      <c r="AL65" s="3" t="s">
+      <c r="AL65" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM65" s="3" t="s">
@@ -11000,20 +11263,23 @@
       <c r="AN65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO65" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP65" s="3" t="s">
+      <c r="AO65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP65" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR65" s="28" t="s">
+      <c r="AR65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS65" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>190729152341</v>
       </c>
@@ -11027,10 +11293,10 @@
         <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G66" s="15">
         <v>2</v>
@@ -11120,34 +11386,37 @@
         <v>10</v>
       </c>
       <c r="AJ66" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="AL66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM66" s="3">
+      <c r="AL66" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN66" s="3">
         <v>8</v>
       </c>
-      <c r="AN66" s="3">
+      <c r="AO66" s="3">
         <v>89</v>
       </c>
-      <c r="AO66" s="12">
+      <c r="AP66" s="12">
         <v>1400</v>
       </c>
-      <c r="AP66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ66" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR66" s="28" t="s">
+      <c r="AQ66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR66" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS66" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>190729152454</v>
       </c>
@@ -11161,10 +11430,10 @@
         <v>48</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G67" s="15">
         <v>2</v>
@@ -11254,34 +11523,37 @@
         <v>10</v>
       </c>
       <c r="AJ67" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="AL67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM67" s="3">
+      <c r="AL67" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN67" s="3">
         <v>8</v>
       </c>
-      <c r="AN67" s="3">
+      <c r="AO67" s="3">
         <v>89</v>
       </c>
-      <c r="AO67" s="12">
+      <c r="AP67" s="12">
         <v>1400</v>
       </c>
-      <c r="AP67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ67" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR67" s="28" t="s">
+      <c r="AQ67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR67" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS67" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>190729153210</v>
       </c>
@@ -11295,10 +11567,10 @@
         <v>48</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G68" s="15">
         <v>2</v>
@@ -11388,34 +11660,37 @@
         <v>10</v>
       </c>
       <c r="AJ68" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" s="60">
         <v>9</v>
       </c>
-      <c r="AL68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM68" s="3">
+      <c r="AL68" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN68" s="3">
         <v>8</v>
       </c>
-      <c r="AN68" s="3">
+      <c r="AO68" s="3">
         <v>91</v>
       </c>
-      <c r="AO68" s="12">
+      <c r="AP68" s="12">
         <v>1400</v>
       </c>
-      <c r="AP68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ68" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR68" s="28" t="s">
+      <c r="AQ68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR68" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS68" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>190729153307</v>
       </c>
@@ -11429,10 +11704,10 @@
         <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G69" s="15">
         <v>2</v>
@@ -11522,34 +11797,37 @@
         <v>10</v>
       </c>
       <c r="AJ69" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" s="60">
         <v>9</v>
       </c>
-      <c r="AL69" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM69" s="3">
+      <c r="AL69" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN69" s="3">
         <v>8</v>
       </c>
-      <c r="AN69" s="3">
+      <c r="AO69" s="3">
         <v>91</v>
       </c>
-      <c r="AO69" s="12">
+      <c r="AP69" s="12">
         <v>1400</v>
       </c>
-      <c r="AP69" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ69" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR69" s="28" t="s">
+      <c r="AQ69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR69" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS69" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>190729153435</v>
       </c>
@@ -11563,10 +11841,10 @@
         <v>48</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G70" s="15">
         <v>2</v>
@@ -11656,34 +11934,37 @@
         <v>10</v>
       </c>
       <c r="AJ70" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" s="60">
         <v>9</v>
       </c>
-      <c r="AL70" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM70" s="3">
+      <c r="AL70" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN70" s="3">
         <v>8</v>
       </c>
-      <c r="AN70" s="3">
+      <c r="AO70" s="3">
         <v>91</v>
       </c>
-      <c r="AO70" s="12">
+      <c r="AP70" s="12">
         <v>1400</v>
       </c>
-      <c r="AP70" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ70" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR70" s="28" t="s">
+      <c r="AQ70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR70" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS70" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>190729154828</v>
       </c>
@@ -11697,10 +11978,10 @@
         <v>48</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G71" s="15">
         <v>2</v>
@@ -11790,34 +12071,37 @@
         <v>10</v>
       </c>
       <c r="AJ71" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" s="60">
         <v>10</v>
       </c>
-      <c r="AL71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM71" s="3">
+      <c r="AL71" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN71" s="3">
         <v>9</v>
       </c>
-      <c r="AN71" s="3">
+      <c r="AO71" s="3">
         <v>91</v>
       </c>
-      <c r="AO71" s="12">
+      <c r="AP71" s="12">
         <v>1400</v>
       </c>
-      <c r="AP71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ71" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR71" s="28" t="s">
+      <c r="AQ71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR71" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS71" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>190729154930</v>
       </c>
@@ -11831,10 +12115,10 @@
         <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G72" s="15">
         <v>2</v>
@@ -11924,34 +12208,37 @@
         <v>10</v>
       </c>
       <c r="AJ72" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK72" s="60">
         <v>10</v>
       </c>
-      <c r="AL72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM72" s="3">
+      <c r="AL72" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN72" s="3">
         <v>9</v>
       </c>
-      <c r="AN72" s="3">
+      <c r="AO72" s="3">
         <v>91</v>
       </c>
-      <c r="AO72" s="12">
+      <c r="AP72" s="12">
         <v>1400</v>
       </c>
-      <c r="AP72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ72" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR72" s="28" t="s">
+      <c r="AQ72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR72" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS72" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>190729155022</v>
       </c>
@@ -11965,10 +12252,10 @@
         <v>48</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G73" s="15">
         <v>2</v>
@@ -12058,34 +12345,37 @@
         <v>10</v>
       </c>
       <c r="AJ73" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" s="60">
         <v>10</v>
       </c>
-      <c r="AL73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM73" s="3">
+      <c r="AL73" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN73" s="3">
         <v>9</v>
       </c>
-      <c r="AN73" s="3">
+      <c r="AO73" s="3">
         <v>91</v>
       </c>
-      <c r="AO73" s="12">
+      <c r="AP73" s="12">
         <v>1400</v>
       </c>
-      <c r="AP73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ73" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR73" s="28" t="s">
+      <c r="AQ73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR73" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS73" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>190729155529</v>
       </c>
@@ -12099,10 +12389,10 @@
         <v>48</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G74" s="15">
         <v>2</v>
@@ -12192,34 +12482,37 @@
         <v>10</v>
       </c>
       <c r="AJ74" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK74" s="60">
         <v>8</v>
       </c>
-      <c r="AL74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM74" s="3">
+      <c r="AL74" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN74" s="3">
         <v>9</v>
       </c>
-      <c r="AN74" s="3">
+      <c r="AO74" s="3">
         <v>91</v>
       </c>
-      <c r="AO74" s="12">
+      <c r="AP74" s="12">
         <v>1400</v>
       </c>
-      <c r="AP74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ74" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR74" s="28" t="s">
+      <c r="AQ74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR74" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS74" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>190729155629</v>
       </c>
@@ -12233,10 +12526,10 @@
         <v>48</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G75" s="15">
         <v>2</v>
@@ -12326,34 +12619,37 @@
         <v>10</v>
       </c>
       <c r="AJ75" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" s="60">
         <v>10</v>
       </c>
-      <c r="AL75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM75" s="3">
+      <c r="AL75" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN75" s="3">
         <v>9</v>
       </c>
-      <c r="AN75" s="3">
+      <c r="AO75" s="3">
         <v>91</v>
       </c>
-      <c r="AO75" s="12">
+      <c r="AP75" s="12">
         <v>1400</v>
       </c>
-      <c r="AP75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ75" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR75" s="28" t="s">
+      <c r="AQ75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR75" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS75" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>190729160322</v>
       </c>
@@ -12367,10 +12663,10 @@
         <v>48</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G76" s="15">
         <v>2</v>
@@ -12460,34 +12756,37 @@
         <v>2</v>
       </c>
       <c r="AJ76" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK76" s="60">
         <v>5</v>
       </c>
-      <c r="AL76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM76" s="3">
+      <c r="AL76" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN76" s="3">
         <v>7</v>
       </c>
-      <c r="AN76" s="3">
+      <c r="AO76" s="3">
         <v>91</v>
       </c>
-      <c r="AO76" s="12">
+      <c r="AP76" s="12">
         <v>1400</v>
       </c>
-      <c r="AP76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ76" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR76" s="28" t="s">
+      <c r="AQ76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR76" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS76" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>190729160412</v>
       </c>
@@ -12501,10 +12800,10 @@
         <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G77" s="15">
         <v>2</v>
@@ -12594,34 +12893,37 @@
         <v>2</v>
       </c>
       <c r="AJ77" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK77" s="60">
         <v>5</v>
       </c>
-      <c r="AL77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM77" s="3">
+      <c r="AL77" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN77" s="3">
         <v>7</v>
       </c>
-      <c r="AN77" s="3">
+      <c r="AO77" s="3">
         <v>91</v>
       </c>
-      <c r="AO77" s="12">
+      <c r="AP77" s="12">
         <v>1400</v>
       </c>
-      <c r="AP77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ77" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR77" s="28" t="s">
+      <c r="AQ77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR77" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS77" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>190729160521</v>
       </c>
@@ -12635,10 +12937,10 @@
         <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G78" s="15">
         <v>2</v>
@@ -12728,34 +13030,37 @@
         <v>2</v>
       </c>
       <c r="AJ78" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK78" s="60">
         <v>5</v>
       </c>
-      <c r="AL78" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM78" s="3">
+      <c r="AL78" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN78" s="3">
         <v>7</v>
       </c>
-      <c r="AN78" s="3">
+      <c r="AO78" s="3">
         <v>91</v>
       </c>
-      <c r="AO78" s="12">
+      <c r="AP78" s="12">
         <v>1400</v>
       </c>
-      <c r="AP78" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ78" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR78" s="28" t="s">
+      <c r="AQ78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR78" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS78" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>190729160613</v>
       </c>
@@ -12769,10 +13074,10 @@
         <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G79" s="15">
         <v>2</v>
@@ -12862,34 +13167,37 @@
         <v>2</v>
       </c>
       <c r="AJ79" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK79" s="60">
         <v>5</v>
       </c>
-      <c r="AL79" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM79" s="3">
+      <c r="AL79" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN79" s="3">
         <v>7</v>
       </c>
-      <c r="AN79" s="3">
+      <c r="AO79" s="3">
         <v>91</v>
       </c>
-      <c r="AO79" s="12">
+      <c r="AP79" s="12">
         <v>1400</v>
       </c>
-      <c r="AP79" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ79" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR79" s="28" t="s">
+      <c r="AQ79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR79" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS79" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>190730172609</v>
       </c>
@@ -12900,13 +13208,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G80" s="15">
         <v>4</v>
@@ -12996,12 +13304,12 @@
         <v>10</v>
       </c>
       <c r="AJ80" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK80" s="60">
         <v>1</v>
       </c>
-      <c r="AL80" s="3" t="s">
+      <c r="AL80" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM80" s="3" t="s">
@@ -13010,20 +13318,23 @@
       <c r="AN80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO80" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP80" s="3" t="s">
+      <c r="AO80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP80" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR80" s="28" t="s">
+      <c r="AR80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS80" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>190730173255</v>
       </c>
@@ -13034,13 +13345,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G81" s="15">
         <v>4</v>
@@ -13130,12 +13441,12 @@
         <v>10</v>
       </c>
       <c r="AJ81" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK81" s="60">
         <v>1</v>
       </c>
-      <c r="AL81" s="3" t="s">
+      <c r="AL81" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM81" s="3" t="s">
@@ -13144,20 +13455,23 @@
       <c r="AN81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO81" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP81" s="3" t="s">
+      <c r="AO81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP81" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AQ81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR81" s="28" t="s">
+      <c r="AR81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS81" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>190730175314</v>
       </c>
@@ -13168,13 +13482,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G82" s="15">
         <v>4</v>
@@ -13264,34 +13578,37 @@
         <v>10</v>
       </c>
       <c r="AJ82" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK82" s="60">
         <v>1</v>
       </c>
-      <c r="AL82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM82" s="3">
+      <c r="AL82" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN82" s="3">
         <v>7</v>
       </c>
-      <c r="AN82" s="3">
+      <c r="AO82" s="3">
         <v>93</v>
       </c>
-      <c r="AO82" s="12">
+      <c r="AP82" s="12">
         <v>1400</v>
       </c>
-      <c r="AP82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ82" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR82" s="28" t="s">
+      <c r="AQ82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR82" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS82" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>190730175431</v>
       </c>
@@ -13302,13 +13619,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G83" s="15">
         <v>4</v>
@@ -13398,34 +13715,37 @@
         <v>2</v>
       </c>
       <c r="AJ83" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK83" s="60">
         <v>1</v>
       </c>
-      <c r="AL83" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM83" s="3">
+      <c r="AL83" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN83" s="3">
         <v>7</v>
       </c>
-      <c r="AN83" s="3">
+      <c r="AO83" s="3">
         <v>93</v>
       </c>
-      <c r="AO83" s="12">
+      <c r="AP83" s="12">
         <v>1400</v>
       </c>
-      <c r="AP83" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ83" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR83" s="28" t="s">
+      <c r="AQ83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR83" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS83" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>190731113856</v>
       </c>
@@ -13436,10 +13756,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>30</v>
@@ -13532,12 +13852,12 @@
         <v>10</v>
       </c>
       <c r="AJ84" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK84" s="60">
         <v>2</v>
       </c>
-      <c r="AL84" s="3" t="s">
+      <c r="AL84" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM84" s="3" t="s">
@@ -13555,11 +13875,14 @@
       <c r="AQ84" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR84" s="28" t="s">
+      <c r="AR84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS84" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>190731114036</v>
       </c>
@@ -13570,10 +13893,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>30</v>
@@ -13666,12 +13989,12 @@
         <v>10</v>
       </c>
       <c r="AJ85" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK85" s="60">
         <v>3</v>
       </c>
-      <c r="AL85" s="3" t="s">
+      <c r="AL85" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM85" s="3" t="s">
@@ -13689,11 +14012,14 @@
       <c r="AQ85" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR85" s="28" t="s">
+      <c r="AR85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS85" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>190731114631</v>
       </c>
@@ -13704,10 +14030,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>30</v>
@@ -13800,12 +14126,12 @@
         <v>10</v>
       </c>
       <c r="AJ86" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK86" s="60">
         <v>1</v>
       </c>
-      <c r="AL86" s="3" t="s">
+      <c r="AL86" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM86" s="3" t="s">
@@ -13823,11 +14149,14 @@
       <c r="AQ86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR86" s="28" t="s">
+      <c r="AR86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS86" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
         <v>190731114932</v>
       </c>
@@ -13838,10 +14167,10 @@
         <v>4</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>30</v>
@@ -13934,12 +14263,12 @@
         <v>10</v>
       </c>
       <c r="AJ87" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK87" s="60">
         <v>3</v>
       </c>
-      <c r="AL87" s="3" t="s">
+      <c r="AL87" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM87" s="3" t="s">
@@ -13957,11 +14286,14 @@
       <c r="AQ87" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR87" s="28" t="s">
+      <c r="AR87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS87" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
         <v>190731120454</v>
       </c>
@@ -13972,10 +14304,10 @@
         <v>5</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>30</v>
@@ -14068,34 +14400,37 @@
         <v>10</v>
       </c>
       <c r="AJ88" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK88" s="60">
         <v>4</v>
       </c>
-      <c r="AL88" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM88" s="3">
+      <c r="AL88" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM88" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN88" s="3">
         <v>9</v>
       </c>
-      <c r="AN88" s="3">
+      <c r="AO88" s="3">
         <v>92</v>
       </c>
-      <c r="AO88" s="3">
+      <c r="AP88" s="3">
         <v>1400</v>
       </c>
-      <c r="AP88" s="3">
-        <v>2</v>
-      </c>
       <c r="AQ88" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR88" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR88" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS88" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
         <v>190731120554</v>
       </c>
@@ -14106,10 +14441,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>30</v>
@@ -14202,34 +14537,37 @@
         <v>10</v>
       </c>
       <c r="AJ89" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK89" s="60">
         <v>5</v>
       </c>
-      <c r="AL89" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM89" s="3">
+      <c r="AL89" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN89" s="3">
         <v>9</v>
       </c>
-      <c r="AN89" s="3">
+      <c r="AO89" s="3">
         <v>92</v>
       </c>
-      <c r="AO89" s="3">
+      <c r="AP89" s="3">
         <v>1400</v>
       </c>
-      <c r="AP89" s="3">
-        <v>2</v>
-      </c>
       <c r="AQ89" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR89" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR89" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS89" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
         <v>190731120643</v>
       </c>
@@ -14240,10 +14578,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>30</v>
@@ -14336,34 +14674,37 @@
         <v>10</v>
       </c>
       <c r="AJ90" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK90" s="60">
         <v>6</v>
       </c>
-      <c r="AL90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM90" s="3">
+      <c r="AL90" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN90" s="3">
         <v>9</v>
       </c>
-      <c r="AN90" s="3">
+      <c r="AO90" s="3">
         <v>92</v>
       </c>
-      <c r="AO90" s="3">
+      <c r="AP90" s="3">
         <v>1400</v>
       </c>
-      <c r="AP90" s="3">
-        <v>2</v>
-      </c>
       <c r="AQ90" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR90" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR90" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS90" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="26">
         <v>190731121115</v>
       </c>
@@ -14374,10 +14715,10 @@
         <v>8</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>30</v>
@@ -14470,34 +14811,37 @@
         <v>10</v>
       </c>
       <c r="AJ91" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK91" s="60">
         <v>10</v>
       </c>
-      <c r="AL91" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM91" s="3">
+      <c r="AL91" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN91" s="3">
         <v>8</v>
       </c>
-      <c r="AN91" s="3">
+      <c r="AO91" s="3">
         <v>92</v>
       </c>
-      <c r="AO91" s="3">
+      <c r="AP91" s="3">
         <v>1400</v>
       </c>
-      <c r="AP91" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ91" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR91" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS91" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" s="26">
         <v>190731121214</v>
       </c>
@@ -14508,10 +14852,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>30</v>
@@ -14604,34 +14948,37 @@
         <v>10</v>
       </c>
       <c r="AJ92" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK92" s="60">
         <v>7</v>
       </c>
-      <c r="AL92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM92" s="3">
+      <c r="AL92" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN92" s="3">
         <v>8</v>
       </c>
-      <c r="AN92" s="3">
+      <c r="AO92" s="3">
         <v>92</v>
       </c>
-      <c r="AO92" s="3">
+      <c r="AP92" s="3">
         <v>1400</v>
       </c>
-      <c r="AP92" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ92" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR92" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS92" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>190731121316</v>
       </c>
@@ -14642,10 +14989,10 @@
         <v>10</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>30</v>
@@ -14738,34 +15085,37 @@
         <v>10</v>
       </c>
       <c r="AJ93" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK93" s="60">
         <v>10</v>
       </c>
-      <c r="AL93" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM93" s="3">
+      <c r="AL93" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN93" s="3">
         <v>8</v>
       </c>
-      <c r="AN93" s="3">
+      <c r="AO93" s="3">
         <v>92</v>
       </c>
-      <c r="AO93" s="3">
+      <c r="AP93" s="3">
         <v>1400</v>
       </c>
-      <c r="AP93" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ93" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR93" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS93" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <v>190731121738</v>
       </c>
@@ -14776,10 +15126,10 @@
         <v>11</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>30</v>
@@ -14872,34 +15222,37 @@
         <v>2</v>
       </c>
       <c r="AJ94" s="63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK94" s="60">
         <v>8</v>
       </c>
-      <c r="AL94" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM94" s="3">
+      <c r="AL94" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN94" s="3">
         <v>8</v>
       </c>
-      <c r="AN94" s="3">
+      <c r="AO94" s="3">
         <v>92</v>
       </c>
-      <c r="AO94" s="3">
+      <c r="AP94" s="3">
         <v>1400</v>
       </c>
-      <c r="AP94" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ94" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR94" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS94" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <v>190731121833</v>
       </c>
@@ -14910,10 +15263,10 @@
         <v>12</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>30</v>
@@ -15006,34 +15359,37 @@
         <v>2</v>
       </c>
       <c r="AJ95" s="63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK95" s="60">
         <v>9</v>
       </c>
-      <c r="AL95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM95" s="3">
+      <c r="AL95" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN95" s="3">
         <v>8</v>
       </c>
-      <c r="AN95" s="3">
+      <c r="AO95" s="3">
         <v>92</v>
       </c>
-      <c r="AO95" s="3">
+      <c r="AP95" s="3">
         <v>1400</v>
       </c>
-      <c r="AP95" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ95" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR95" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR95" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS95" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <v>190731121931</v>
       </c>
@@ -15044,10 +15400,10 @@
         <v>13</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>30</v>
@@ -15140,34 +15496,37 @@
         <v>2</v>
       </c>
       <c r="AJ96" s="63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK96" s="60">
         <v>7</v>
       </c>
-      <c r="AL96" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM96" s="3">
+      <c r="AL96" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN96" s="3">
         <v>8</v>
       </c>
-      <c r="AN96" s="3">
+      <c r="AO96" s="3">
         <v>92</v>
       </c>
-      <c r="AO96" s="3">
+      <c r="AP96" s="3">
         <v>1400</v>
       </c>
-      <c r="AP96" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ96" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR96" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR96" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS96" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" s="26">
         <v>190731122231</v>
       </c>
@@ -15178,10 +15537,10 @@
         <v>14</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>30</v>
@@ -15274,12 +15633,12 @@
         <v>10</v>
       </c>
       <c r="AJ97" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK97" s="60">
         <v>6</v>
       </c>
-      <c r="AL97" s="3" t="s">
+      <c r="AL97" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM97" s="3" t="s">
@@ -15297,11 +15656,14 @@
       <c r="AQ97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR97" s="28" t="s">
+      <c r="AR97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS97" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>190731122520</v>
       </c>
@@ -15312,10 +15674,10 @@
         <v>15</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>30</v>
@@ -15408,34 +15770,37 @@
         <v>10</v>
       </c>
       <c r="AJ98" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK98" s="60">
         <v>6</v>
       </c>
-      <c r="AL98" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM98" s="3">
+      <c r="AL98" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN98" s="3">
         <v>8</v>
       </c>
-      <c r="AN98" s="3">
+      <c r="AO98" s="3">
         <v>92</v>
       </c>
-      <c r="AO98" s="3">
+      <c r="AP98" s="3">
         <v>1400</v>
       </c>
-      <c r="AP98" s="3">
-        <v>5</v>
-      </c>
       <c r="AQ98" s="3">
         <v>5</v>
       </c>
-      <c r="AR98" s="28" t="s">
+      <c r="AR98" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS98" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" s="26">
         <v>190731122614</v>
       </c>
@@ -15446,10 +15811,10 @@
         <v>16</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>30</v>
@@ -15542,34 +15907,37 @@
         <v>10</v>
       </c>
       <c r="AJ99" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK99" s="60">
         <v>6</v>
       </c>
-      <c r="AL99" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM99" s="3">
+      <c r="AL99" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN99" s="3">
         <v>8</v>
       </c>
-      <c r="AN99" s="3">
+      <c r="AO99" s="3">
         <v>92</v>
       </c>
-      <c r="AO99" s="3">
+      <c r="AP99" s="3">
         <v>1400</v>
       </c>
-      <c r="AP99" s="3">
-        <v>5</v>
-      </c>
       <c r="AQ99" s="3">
         <v>5</v>
       </c>
-      <c r="AR99" s="28" t="s">
+      <c r="AR99" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS99" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" s="26">
         <v>190731122703</v>
       </c>
@@ -15580,10 +15948,10 @@
         <v>17</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>30</v>
@@ -15676,34 +16044,37 @@
         <v>10</v>
       </c>
       <c r="AJ100" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK100" s="60">
         <v>10</v>
       </c>
-      <c r="AL100" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM100" s="3">
+      <c r="AL100" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN100" s="3">
         <v>8</v>
       </c>
-      <c r="AN100" s="3">
+      <c r="AO100" s="3">
         <v>92</v>
       </c>
-      <c r="AO100" s="3">
+      <c r="AP100" s="3">
         <v>1400</v>
       </c>
-      <c r="AP100" s="3">
+      <c r="AQ100" s="3">
         <v>7</v>
       </c>
-      <c r="AQ100" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR100" s="28" t="s">
+      <c r="AR100" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS100" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" s="26">
         <v>190731123148</v>
       </c>
@@ -15714,10 +16085,10 @@
         <v>18</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>30</v>
@@ -15810,34 +16181,37 @@
         <v>10</v>
       </c>
       <c r="AJ101" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK101" s="60">
         <v>4</v>
       </c>
-      <c r="AL101" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM101" s="3">
+      <c r="AL101" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN101" s="3">
         <v>7</v>
       </c>
-      <c r="AN101" s="3">
+      <c r="AO101" s="3">
         <v>92</v>
       </c>
-      <c r="AO101" s="3">
+      <c r="AP101" s="3">
         <v>1400</v>
       </c>
-      <c r="AP101" s="3">
-        <v>2</v>
-      </c>
       <c r="AQ101" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR101" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR101" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS101" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" s="26">
         <v>190731123243</v>
       </c>
@@ -15848,10 +16222,10 @@
         <v>19</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>30</v>
@@ -15944,34 +16318,37 @@
         <v>10</v>
       </c>
       <c r="AJ102" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK102" s="60">
         <v>10</v>
       </c>
-      <c r="AL102" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM102" s="3">
+      <c r="AL102" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN102" s="3">
         <v>7</v>
       </c>
-      <c r="AN102" s="3">
+      <c r="AO102" s="3">
         <v>92</v>
       </c>
-      <c r="AO102" s="3">
+      <c r="AP102" s="3">
         <v>1400</v>
       </c>
-      <c r="AP102" s="3">
-        <v>3</v>
-      </c>
       <c r="AQ102" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR102" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR102" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS102" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
         <v>190731123339</v>
       </c>
@@ -15982,10 +16359,10 @@
         <v>20</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>30</v>
@@ -16078,34 +16455,37 @@
         <v>10</v>
       </c>
       <c r="AJ103" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK103" s="60">
         <v>7</v>
       </c>
-      <c r="AL103" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM103" s="3">
+      <c r="AL103" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM103" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN103" s="3">
         <v>7</v>
       </c>
-      <c r="AN103" s="3">
+      <c r="AO103" s="3">
         <v>92</v>
       </c>
-      <c r="AO103" s="3">
+      <c r="AP103" s="3">
         <v>1400</v>
       </c>
-      <c r="AP103" s="3">
-        <v>2</v>
-      </c>
       <c r="AQ103" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR103" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR103" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS103" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
         <v>190731123431</v>
       </c>
@@ -16116,10 +16496,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>30</v>
@@ -16212,34 +16592,37 @@
         <v>10</v>
       </c>
       <c r="AJ104" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK104" s="60">
         <v>8</v>
       </c>
-      <c r="AL104" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM104" s="3">
+      <c r="AL104" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN104" s="3">
         <v>7</v>
       </c>
-      <c r="AN104" s="3">
+      <c r="AO104" s="3">
         <v>92</v>
       </c>
-      <c r="AO104" s="3">
+      <c r="AP104" s="3">
         <v>1400</v>
       </c>
-      <c r="AP104" s="3">
-        <v>2</v>
-      </c>
       <c r="AQ104" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR104" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR104" s="3">
+        <v>5</v>
+      </c>
+      <c r="AS104" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
         <v>190731123809</v>
       </c>
@@ -16250,10 +16633,10 @@
         <v>22</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>30</v>
@@ -16346,12 +16729,12 @@
         <v>2</v>
       </c>
       <c r="AJ105" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK105" s="60">
         <v>5</v>
       </c>
-      <c r="AL105" s="3" t="s">
+      <c r="AL105" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM105" s="3" t="s">
@@ -16369,11 +16752,14 @@
       <c r="AQ105" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR105" s="28" t="s">
+      <c r="AR105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS105" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
         <v>190731123902</v>
       </c>
@@ -16384,10 +16770,10 @@
         <v>23</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>30</v>
@@ -16480,12 +16866,12 @@
         <v>2</v>
       </c>
       <c r="AJ106" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK106" s="60">
         <v>9</v>
       </c>
-      <c r="AL106" s="3" t="s">
+      <c r="AL106" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM106" s="3" t="s">
@@ -16503,11 +16889,14 @@
       <c r="AQ106" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR106" s="28" t="s">
+      <c r="AR106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS106" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
         <v>190731124004</v>
       </c>
@@ -16518,10 +16907,10 @@
         <v>24</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>30</v>
@@ -16614,12 +17003,12 @@
         <v>2</v>
       </c>
       <c r="AJ107" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK107" s="60">
         <v>7</v>
       </c>
-      <c r="AL107" s="3" t="s">
+      <c r="AL107" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM107" s="3" t="s">
@@ -16637,11 +17026,14 @@
       <c r="AQ107" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR107" s="28" t="s">
+      <c r="AR107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS107" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" s="26">
         <v>190731124128</v>
       </c>
@@ -16652,10 +17044,10 @@
         <v>25</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>30</v>
@@ -16748,12 +17140,12 @@
         <v>1</v>
       </c>
       <c r="AJ108" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK108" s="60">
         <v>8</v>
       </c>
-      <c r="AL108" s="3" t="s">
+      <c r="AL108" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM108" s="3" t="s">
@@ -16771,11 +17163,14 @@
       <c r="AQ108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR108" s="28" t="s">
+      <c r="AR108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS108" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" s="26">
         <v>190731124219</v>
       </c>
@@ -16786,10 +17181,10 @@
         <v>26</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>30</v>
@@ -16882,12 +17277,12 @@
         <v>1</v>
       </c>
       <c r="AJ109" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK109" s="60">
         <v>8</v>
       </c>
-      <c r="AL109" s="3" t="s">
+      <c r="AL109" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM109" s="3" t="s">
@@ -16905,11 +17300,14 @@
       <c r="AQ109" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR109" s="28" t="s">
+      <c r="AR109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS109" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" s="26">
         <v>190731124321</v>
       </c>
@@ -16920,10 +17318,10 @@
         <v>27</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>30</v>
@@ -17016,12 +17414,12 @@
         <v>1</v>
       </c>
       <c r="AJ110" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK110" s="60">
         <v>3</v>
       </c>
-      <c r="AL110" s="3" t="s">
+      <c r="AL110" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM110" s="3" t="s">
@@ -17039,11 +17437,14 @@
       <c r="AQ110" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR110" s="28" t="s">
+      <c r="AR110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS110" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111" s="26">
         <v>190801163458</v>
       </c>
@@ -17057,7 +17458,7 @@
         <v>31</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>30</v>
@@ -17150,34 +17551,37 @@
         <v>2</v>
       </c>
       <c r="AJ111" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK111" s="60">
         <v>10</v>
       </c>
-      <c r="AL111" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM111" s="3">
+      <c r="AL111" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN111" s="3">
         <v>10</v>
       </c>
-      <c r="AN111" s="3">
+      <c r="AO111" s="3">
         <v>92</v>
       </c>
-      <c r="AO111" s="3">
+      <c r="AP111" s="3">
         <v>1400</v>
       </c>
-      <c r="AP111" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ111" s="3">
+      <c r="AQ111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR111" s="3">
         <v>8</v>
       </c>
-      <c r="AR111" s="28" t="s">
+      <c r="AS111" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" s="26">
         <v>190801163634</v>
       </c>
@@ -17191,7 +17595,7 @@
         <v>31</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>30</v>
@@ -17284,34 +17688,37 @@
         <v>2</v>
       </c>
       <c r="AJ112" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK112" s="60">
         <v>10</v>
       </c>
-      <c r="AL112" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM112" s="3">
+      <c r="AL112" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM112" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN112" s="3">
         <v>10</v>
       </c>
-      <c r="AN112" s="3">
+      <c r="AO112" s="3">
         <v>92</v>
       </c>
-      <c r="AO112" s="3">
+      <c r="AP112" s="3">
         <v>1400</v>
       </c>
-      <c r="AP112" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ112" s="3">
+      <c r="AQ112" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR112" s="3">
         <v>8</v>
       </c>
-      <c r="AR112" s="28" t="s">
+      <c r="AS112" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" s="26">
         <v>190801163748</v>
       </c>
@@ -17325,7 +17732,7 @@
         <v>31</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>30</v>
@@ -17418,34 +17825,37 @@
         <v>2</v>
       </c>
       <c r="AJ113" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK113" s="60">
         <v>10</v>
       </c>
-      <c r="AL113" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM113" s="3">
+      <c r="AL113" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN113" s="3">
         <v>10</v>
       </c>
-      <c r="AN113" s="3">
+      <c r="AO113" s="3">
         <v>92</v>
       </c>
-      <c r="AO113" s="3">
+      <c r="AP113" s="3">
         <v>1400</v>
       </c>
-      <c r="AP113" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ113" s="3">
+      <c r="AQ113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR113" s="3">
         <v>8</v>
       </c>
-      <c r="AR113" s="28" t="s">
+      <c r="AS113" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" s="26">
         <v>190802143534</v>
       </c>
@@ -17456,10 +17866,10 @@
         <v>1</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>30</v>
@@ -17552,12 +17962,12 @@
         <v>10</v>
       </c>
       <c r="AJ114" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK114" s="60">
         <v>1</v>
       </c>
-      <c r="AL114" s="3" t="s">
+      <c r="AL114" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM114" s="3" t="s">
@@ -17575,11 +17985,14 @@
       <c r="AQ114" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR114" s="28" t="s">
+      <c r="AR114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS114" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" s="26">
         <v>190802143700</v>
       </c>
@@ -17590,10 +18003,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>30</v>
@@ -17686,12 +18099,12 @@
         <v>10</v>
       </c>
       <c r="AJ115" s="63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK115" s="60">
         <v>2</v>
       </c>
-      <c r="AL115" s="3" t="s">
+      <c r="AL115" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM115" s="3" t="s">
@@ -17709,11 +18122,14 @@
       <c r="AQ115" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR115" s="28" t="s">
+      <c r="AR115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS115" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" s="26">
         <v>190802145224</v>
       </c>
@@ -17724,10 +18140,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>30</v>
@@ -17820,34 +18236,37 @@
         <v>10</v>
       </c>
       <c r="AJ116" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK116" s="60">
         <v>2</v>
       </c>
-      <c r="AL116" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM116" s="3">
+      <c r="AL116" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN116" s="3">
         <v>6</v>
       </c>
-      <c r="AN116" s="3">
+      <c r="AO116" s="3">
         <v>92</v>
       </c>
-      <c r="AO116" s="3">
+      <c r="AP116" s="3">
         <v>1400</v>
       </c>
-      <c r="AP116" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ116" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR116" s="28" t="s">
+      <c r="AQ116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR116" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS116" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" s="26">
         <v>190802145349</v>
       </c>
@@ -17858,10 +18277,10 @@
         <v>4</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>30</v>
@@ -17954,34 +18373,37 @@
         <v>10</v>
       </c>
       <c r="AJ117" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK117" s="60">
         <v>2</v>
       </c>
-      <c r="AL117" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM117" s="3">
+      <c r="AL117" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN117" s="3">
         <v>6</v>
       </c>
-      <c r="AN117" s="3">
+      <c r="AO117" s="3">
         <v>92</v>
       </c>
-      <c r="AO117" s="3">
+      <c r="AP117" s="3">
         <v>1400</v>
       </c>
-      <c r="AP117" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ117" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR117" s="28" t="s">
+      <c r="AQ117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR117" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS117" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" s="26">
         <v>190802145515</v>
       </c>
@@ -17992,10 +18414,10 @@
         <v>5</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>30</v>
@@ -18088,34 +18510,37 @@
         <v>10</v>
       </c>
       <c r="AJ118" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK118" s="60">
         <v>4</v>
       </c>
-      <c r="AL118" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM118" s="3">
+      <c r="AL118" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN118" s="3">
         <v>6</v>
       </c>
-      <c r="AN118" s="3">
+      <c r="AO118" s="3">
         <v>92</v>
       </c>
-      <c r="AO118" s="3">
+      <c r="AP118" s="3">
         <v>1400</v>
       </c>
-      <c r="AP118" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ118" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR118" s="28" t="s">
+      <c r="AQ118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR118" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS118" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" s="26">
         <v>190802145635</v>
       </c>
@@ -18126,10 +18551,10 @@
         <v>6</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>30</v>
@@ -18222,34 +18647,37 @@
         <v>10</v>
       </c>
       <c r="AJ119" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK119" s="60">
         <v>5</v>
       </c>
-      <c r="AL119" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM119" s="3">
+      <c r="AL119" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN119" s="3">
         <v>6</v>
       </c>
-      <c r="AN119" s="3">
+      <c r="AO119" s="3">
         <v>92</v>
       </c>
-      <c r="AO119" s="3">
+      <c r="AP119" s="3">
         <v>1400</v>
       </c>
-      <c r="AP119" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ119" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR119" s="28" t="s">
+      <c r="AQ119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR119" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS119" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" s="26">
         <v>190802151023</v>
       </c>
@@ -18260,10 +18688,10 @@
         <v>7</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>30</v>
@@ -18356,34 +18784,37 @@
         <v>10</v>
       </c>
       <c r="AJ120" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK120" s="60">
         <v>7</v>
       </c>
-      <c r="AL120" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM120" s="3">
+      <c r="AL120" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM120" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN120" s="3">
         <v>7</v>
       </c>
-      <c r="AN120" s="3">
+      <c r="AO120" s="3">
         <v>92</v>
       </c>
-      <c r="AO120" s="3">
+      <c r="AP120" s="3">
         <v>1400</v>
       </c>
-      <c r="AP120" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ120" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR120" s="28" t="s">
+      <c r="AQ120" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR120" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS120" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" s="26">
         <v>190802151327</v>
       </c>
@@ -18394,10 +18825,10 @@
         <v>8</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>30</v>
@@ -18490,34 +18921,37 @@
         <v>10</v>
       </c>
       <c r="AJ121" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK121" s="60">
         <v>8</v>
       </c>
-      <c r="AL121" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM121" s="3">
+      <c r="AL121" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN121" s="3">
         <v>7</v>
       </c>
-      <c r="AN121" s="3">
+      <c r="AO121" s="3">
         <v>92</v>
       </c>
-      <c r="AO121" s="3">
+      <c r="AP121" s="3">
         <v>1400</v>
       </c>
-      <c r="AP121" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ121" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR121" s="28" t="s">
+      <c r="AQ121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR121" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS121" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" s="26">
         <v>190802151454</v>
       </c>
@@ -18528,10 +18962,10 @@
         <v>9</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>30</v>
@@ -18624,34 +19058,37 @@
         <v>10</v>
       </c>
       <c r="AJ122" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK122" s="60">
         <v>8</v>
       </c>
-      <c r="AL122" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM122" s="3">
+      <c r="AL122" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM122" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN122" s="3">
         <v>7</v>
       </c>
-      <c r="AN122" s="3">
+      <c r="AO122" s="3">
         <v>92</v>
       </c>
-      <c r="AO122" s="3">
+      <c r="AP122" s="3">
         <v>1400</v>
       </c>
-      <c r="AP122" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ122" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR122" s="28" t="s">
+      <c r="AQ122" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR122" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS122" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" s="26">
         <v>190802151613</v>
       </c>
@@ -18662,10 +19099,10 @@
         <v>10</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>30</v>
@@ -18758,34 +19195,37 @@
         <v>10</v>
       </c>
       <c r="AJ123" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK123" s="60">
         <v>9</v>
       </c>
-      <c r="AL123" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM123" s="3">
+      <c r="AL123" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN123" s="3">
         <v>7</v>
       </c>
-      <c r="AN123" s="3">
+      <c r="AO123" s="3">
         <v>92</v>
       </c>
-      <c r="AO123" s="3">
+      <c r="AP123" s="3">
         <v>1400</v>
       </c>
-      <c r="AP123" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ123" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR123" s="28" t="s">
+      <c r="AQ123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR123" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS123" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" s="26">
         <v>190802151725</v>
       </c>
@@ -18796,10 +19236,10 @@
         <v>11</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>30</v>
@@ -18892,34 +19332,37 @@
         <v>10</v>
       </c>
       <c r="AJ124" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK124" s="60">
         <v>9</v>
       </c>
-      <c r="AL124" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM124" s="3">
+      <c r="AL124" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN124" s="3">
         <v>7</v>
       </c>
-      <c r="AN124" s="3">
+      <c r="AO124" s="3">
         <v>92</v>
       </c>
-      <c r="AO124" s="3">
+      <c r="AP124" s="3">
         <v>1400</v>
       </c>
-      <c r="AP124" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ124" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR124" s="28" t="s">
+      <c r="AQ124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR124" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS124" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" s="26">
         <v>190802153219</v>
       </c>
@@ -18930,10 +19373,10 @@
         <v>12</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>30</v>
@@ -19026,34 +19469,37 @@
         <v>2</v>
       </c>
       <c r="AJ125" s="63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK125" s="60">
         <v>8</v>
       </c>
-      <c r="AL125" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM125" s="3">
+      <c r="AL125" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN125" s="3">
         <v>7</v>
       </c>
-      <c r="AN125" s="3">
+      <c r="AO125" s="3">
         <v>92</v>
       </c>
-      <c r="AO125" s="3">
+      <c r="AP125" s="3">
         <v>1400</v>
       </c>
-      <c r="AP125" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ125" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR125" s="28" t="s">
+      <c r="AQ125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR125" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS125" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" s="26">
         <v>190802153423</v>
       </c>
@@ -19064,10 +19510,10 @@
         <v>13</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>30</v>
@@ -19160,34 +19606,37 @@
         <v>2</v>
       </c>
       <c r="AJ126" s="63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK126" s="60">
         <v>8</v>
       </c>
-      <c r="AL126" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM126" s="3">
+      <c r="AL126" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM126" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN126" s="3">
         <v>7</v>
       </c>
-      <c r="AN126" s="3">
+      <c r="AO126" s="3">
         <v>92</v>
       </c>
-      <c r="AO126" s="3">
+      <c r="AP126" s="3">
         <v>1400</v>
       </c>
-      <c r="AP126" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ126" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR126" s="28" t="s">
+      <c r="AQ126" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR126" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS126" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A127" s="26">
         <v>190802153549</v>
       </c>
@@ -19198,10 +19647,10 @@
         <v>14</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>30</v>
@@ -19294,34 +19743,37 @@
         <v>2</v>
       </c>
       <c r="AJ127" s="63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK127" s="60">
         <v>9</v>
       </c>
-      <c r="AL127" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM127" s="3">
+      <c r="AL127" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN127" s="3">
         <v>7</v>
       </c>
-      <c r="AN127" s="3">
+      <c r="AO127" s="3">
         <v>92</v>
       </c>
-      <c r="AO127" s="3">
+      <c r="AP127" s="3">
         <v>1400</v>
       </c>
-      <c r="AP127" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ127" s="3">
-        <v>3</v>
-      </c>
-      <c r="AR127" s="28" t="s">
+      <c r="AQ127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR127" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS127" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" s="26">
         <v>190802154458</v>
       </c>
@@ -19332,10 +19784,10 @@
         <v>15</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>30</v>
@@ -19428,12 +19880,12 @@
         <v>2</v>
       </c>
       <c r="AJ128" s="63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK128" s="60">
         <v>8</v>
       </c>
-      <c r="AL128" s="3" t="s">
+      <c r="AL128" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AM128" s="3" t="s">
@@ -19451,11 +19903,2206 @@
       <c r="AQ128" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR128" s="28" t="s">
+      <c r="AR128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS128" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1048576" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A129" s="26">
+        <v>190804131532</v>
+      </c>
+      <c r="B129" s="4">
+        <v>18</v>
+      </c>
+      <c r="C129" s="22">
+        <v>1</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="15">
+        <v>2</v>
+      </c>
+      <c r="H129" s="16">
+        <v>6</v>
+      </c>
+      <c r="I129" s="16">
+        <v>0</v>
+      </c>
+      <c r="J129" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K129" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L129" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M129" s="16">
+        <v>1</v>
+      </c>
+      <c r="N129" s="16">
+        <v>4</v>
+      </c>
+      <c r="O129" s="16">
+        <v>5</v>
+      </c>
+      <c r="P129" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q129" s="16">
+        <v>8</v>
+      </c>
+      <c r="R129" s="16">
+        <v>4</v>
+      </c>
+      <c r="S129" s="16">
+        <v>2</v>
+      </c>
+      <c r="T129" s="16">
+        <v>2</v>
+      </c>
+      <c r="U129" s="20">
+        <v>0</v>
+      </c>
+      <c r="V129" s="16">
+        <v>0</v>
+      </c>
+      <c r="W129" s="51">
+        <v>0</v>
+      </c>
+      <c r="X129" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y129" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z129" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF129" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG129" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI129" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ129" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK129" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL129" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS129" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A130" s="26">
+        <v>190804131633</v>
+      </c>
+      <c r="B130" s="4">
+        <v>18</v>
+      </c>
+      <c r="C130" s="22">
+        <v>2</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" s="15">
+        <v>2</v>
+      </c>
+      <c r="H130" s="16">
+        <v>6</v>
+      </c>
+      <c r="I130" s="16">
+        <v>0</v>
+      </c>
+      <c r="J130" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K130" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L130" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M130" s="16">
+        <v>1</v>
+      </c>
+      <c r="N130" s="16">
+        <v>4</v>
+      </c>
+      <c r="O130" s="16">
+        <v>5</v>
+      </c>
+      <c r="P130" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q130" s="16">
+        <v>8</v>
+      </c>
+      <c r="R130" s="16">
+        <v>4</v>
+      </c>
+      <c r="S130" s="16">
+        <v>2</v>
+      </c>
+      <c r="T130" s="16">
+        <v>2</v>
+      </c>
+      <c r="U130" s="20">
+        <v>0</v>
+      </c>
+      <c r="V130" s="16">
+        <v>0</v>
+      </c>
+      <c r="W130" s="51">
+        <v>0</v>
+      </c>
+      <c r="X130" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y130" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z130" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF130" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG130" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI130" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ130" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK130" s="60">
+        <v>2</v>
+      </c>
+      <c r="AL130" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS130" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A131" s="26">
+        <v>190804133143</v>
+      </c>
+      <c r="B131" s="4">
+        <v>18</v>
+      </c>
+      <c r="C131" s="22">
+        <v>3</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="15">
+        <v>2</v>
+      </c>
+      <c r="H131" s="16">
+        <v>6</v>
+      </c>
+      <c r="I131" s="16">
+        <v>0</v>
+      </c>
+      <c r="J131" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K131" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L131" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M131" s="16">
+        <v>1</v>
+      </c>
+      <c r="N131" s="16">
+        <v>4</v>
+      </c>
+      <c r="O131" s="16">
+        <v>5</v>
+      </c>
+      <c r="P131" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q131" s="16">
+        <v>8</v>
+      </c>
+      <c r="R131" s="16">
+        <v>4</v>
+      </c>
+      <c r="S131" s="16">
+        <v>2</v>
+      </c>
+      <c r="T131" s="16">
+        <v>2</v>
+      </c>
+      <c r="U131" s="20">
+        <v>0</v>
+      </c>
+      <c r="V131" s="16">
+        <v>0</v>
+      </c>
+      <c r="W131" s="51">
+        <v>0</v>
+      </c>
+      <c r="X131" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z131" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA131" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB131" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC131" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD131" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE131" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF131" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG131" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI131" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ131" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK131" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL131" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM131" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN131" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO131" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP131" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AQ131" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR131" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS131" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A132" s="26">
+        <v>190804133747</v>
+      </c>
+      <c r="B132" s="4">
+        <v>18</v>
+      </c>
+      <c r="C132" s="22">
+        <v>4</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="15">
+        <v>2</v>
+      </c>
+      <c r="H132" s="16">
+        <v>6</v>
+      </c>
+      <c r="I132" s="16">
+        <v>0</v>
+      </c>
+      <c r="J132" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K132" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L132" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M132" s="16">
+        <v>1</v>
+      </c>
+      <c r="N132" s="16">
+        <v>4</v>
+      </c>
+      <c r="O132" s="16">
+        <v>5</v>
+      </c>
+      <c r="P132" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q132" s="16">
+        <v>8</v>
+      </c>
+      <c r="R132" s="16">
+        <v>4</v>
+      </c>
+      <c r="S132" s="16">
+        <v>2</v>
+      </c>
+      <c r="T132" s="16">
+        <v>2</v>
+      </c>
+      <c r="U132" s="20">
+        <v>0</v>
+      </c>
+      <c r="V132" s="16">
+        <v>0</v>
+      </c>
+      <c r="W132" s="51">
+        <v>0</v>
+      </c>
+      <c r="X132" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z132" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA132" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB132" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC132" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD132" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE132" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG132" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH132" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI132" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ132" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK132" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM132" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN132" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO132" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP132" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AQ132" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR132" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS132" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A133" s="26">
+        <v>190804133900</v>
+      </c>
+      <c r="B133" s="4">
+        <v>18</v>
+      </c>
+      <c r="C133" s="22">
+        <v>5</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="15">
+        <v>2</v>
+      </c>
+      <c r="H133" s="16">
+        <v>6</v>
+      </c>
+      <c r="I133" s="16">
+        <v>0</v>
+      </c>
+      <c r="J133" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K133" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L133" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M133" s="16">
+        <v>1</v>
+      </c>
+      <c r="N133" s="16">
+        <v>4</v>
+      </c>
+      <c r="O133" s="16">
+        <v>5</v>
+      </c>
+      <c r="P133" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q133" s="16">
+        <v>8</v>
+      </c>
+      <c r="R133" s="16">
+        <v>4</v>
+      </c>
+      <c r="S133" s="16">
+        <v>2</v>
+      </c>
+      <c r="T133" s="16">
+        <v>2</v>
+      </c>
+      <c r="U133" s="20">
+        <v>0</v>
+      </c>
+      <c r="V133" s="16">
+        <v>0</v>
+      </c>
+      <c r="W133" s="51">
+        <v>0</v>
+      </c>
+      <c r="X133" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z133" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA133" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB133" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC133" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD133" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF133" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="62">
+        <v>90</v>
+      </c>
+      <c r="AH133" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI133" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ133" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK133" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL133" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM133" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN133" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO133" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP133" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AQ133" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR133" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS133" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A134" s="26">
+        <v>190804134116</v>
+      </c>
+      <c r="B134" s="4">
+        <v>18</v>
+      </c>
+      <c r="C134" s="22">
+        <v>6</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="15">
+        <v>2</v>
+      </c>
+      <c r="H134" s="16">
+        <v>6</v>
+      </c>
+      <c r="I134" s="16">
+        <v>0</v>
+      </c>
+      <c r="J134" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K134" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L134" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M134" s="16">
+        <v>1</v>
+      </c>
+      <c r="N134" s="16">
+        <v>4</v>
+      </c>
+      <c r="O134" s="16">
+        <v>5</v>
+      </c>
+      <c r="P134" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q134" s="16">
+        <v>8</v>
+      </c>
+      <c r="R134" s="16">
+        <v>4</v>
+      </c>
+      <c r="S134" s="16">
+        <v>2</v>
+      </c>
+      <c r="T134" s="16">
+        <v>2</v>
+      </c>
+      <c r="U134" s="20">
+        <v>0</v>
+      </c>
+      <c r="V134" s="16">
+        <v>0</v>
+      </c>
+      <c r="W134" s="51">
+        <v>0</v>
+      </c>
+      <c r="X134" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z134" s="23">
+        <v>3</v>
+      </c>
+      <c r="AA134" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB134" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC134" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD134" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF134" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG134" s="62">
+        <v>90</v>
+      </c>
+      <c r="AH134" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI134" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ134" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK134" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM134" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN134" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO134" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP134" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AQ134" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR134" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS134" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A135" s="26">
+        <v>190804135800</v>
+      </c>
+      <c r="B135" s="4">
+        <v>18</v>
+      </c>
+      <c r="C135" s="22">
+        <v>7</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" s="15">
+        <v>2</v>
+      </c>
+      <c r="H135" s="16">
+        <v>6</v>
+      </c>
+      <c r="I135" s="16">
+        <v>0</v>
+      </c>
+      <c r="J135" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K135" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L135" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M135" s="16">
+        <v>1</v>
+      </c>
+      <c r="N135" s="16">
+        <v>4</v>
+      </c>
+      <c r="O135" s="16">
+        <v>5</v>
+      </c>
+      <c r="P135" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q135" s="16">
+        <v>8</v>
+      </c>
+      <c r="R135" s="16">
+        <v>4</v>
+      </c>
+      <c r="S135" s="16">
+        <v>2</v>
+      </c>
+      <c r="T135" s="16">
+        <v>2</v>
+      </c>
+      <c r="U135" s="20">
+        <v>0</v>
+      </c>
+      <c r="V135" s="16">
+        <v>0</v>
+      </c>
+      <c r="W135" s="51">
+        <v>0</v>
+      </c>
+      <c r="X135" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z135" s="23">
+        <v>4</v>
+      </c>
+      <c r="AA135" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB135" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC135" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD135" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE135" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF135" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI135" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ135" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK135" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL135" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM135" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN135" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO135" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP135" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AQ135" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS135" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A136" s="26">
+        <v>190804143250</v>
+      </c>
+      <c r="B136" s="4">
+        <v>19</v>
+      </c>
+      <c r="C136" s="22">
+        <v>1</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="15">
+        <v>3</v>
+      </c>
+      <c r="H136" s="16">
+        <v>7</v>
+      </c>
+      <c r="I136" s="16">
+        <v>1</v>
+      </c>
+      <c r="J136" s="16">
+        <v>0</v>
+      </c>
+      <c r="K136" s="16">
+        <v>1</v>
+      </c>
+      <c r="L136" s="16">
+        <v>1</v>
+      </c>
+      <c r="M136" s="16">
+        <v>5</v>
+      </c>
+      <c r="N136" s="16">
+        <v>2</v>
+      </c>
+      <c r="O136" s="16">
+        <v>5</v>
+      </c>
+      <c r="P136" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q136" s="16">
+        <v>3</v>
+      </c>
+      <c r="R136" s="16">
+        <v>6</v>
+      </c>
+      <c r="S136" s="16">
+        <v>5</v>
+      </c>
+      <c r="T136" s="16">
+        <v>1</v>
+      </c>
+      <c r="U136" s="20">
+        <v>0</v>
+      </c>
+      <c r="V136" s="16">
+        <v>0</v>
+      </c>
+      <c r="W136" s="51">
+        <v>0</v>
+      </c>
+      <c r="X136" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y136" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z136" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA136" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB136" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC136" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD136" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE136" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF136" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG136" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH136" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI136" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ136" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK136" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM136" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN136" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO136" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP136" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ136" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR136" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS136" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A137" s="26">
+        <v>190804143356</v>
+      </c>
+      <c r="B137" s="4">
+        <v>19</v>
+      </c>
+      <c r="C137" s="22">
+        <v>2</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="15">
+        <v>3</v>
+      </c>
+      <c r="H137" s="16">
+        <v>7</v>
+      </c>
+      <c r="I137" s="16">
+        <v>1</v>
+      </c>
+      <c r="J137" s="16">
+        <v>0</v>
+      </c>
+      <c r="K137" s="16">
+        <v>1</v>
+      </c>
+      <c r="L137" s="16">
+        <v>1</v>
+      </c>
+      <c r="M137" s="16">
+        <v>5</v>
+      </c>
+      <c r="N137" s="16">
+        <v>2</v>
+      </c>
+      <c r="O137" s="16">
+        <v>5</v>
+      </c>
+      <c r="P137" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q137" s="16">
+        <v>3</v>
+      </c>
+      <c r="R137" s="16">
+        <v>6</v>
+      </c>
+      <c r="S137" s="16">
+        <v>5</v>
+      </c>
+      <c r="T137" s="16">
+        <v>1</v>
+      </c>
+      <c r="U137" s="20">
+        <v>0</v>
+      </c>
+      <c r="V137" s="16">
+        <v>0</v>
+      </c>
+      <c r="W137" s="51">
+        <v>0</v>
+      </c>
+      <c r="X137" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y137" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z137" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF137" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG137" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH137" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI137" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ137" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK137" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS137" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A138" s="26">
+        <v>190805144010</v>
+      </c>
+      <c r="B138" s="4">
+        <v>20</v>
+      </c>
+      <c r="C138" s="22">
+        <v>1</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" s="15">
+        <v>2</v>
+      </c>
+      <c r="H138" s="16">
+        <v>4</v>
+      </c>
+      <c r="I138" s="16">
+        <v>1</v>
+      </c>
+      <c r="J138" s="16">
+        <v>1</v>
+      </c>
+      <c r="K138" s="16">
+        <v>7</v>
+      </c>
+      <c r="L138" s="16">
+        <v>5</v>
+      </c>
+      <c r="M138" s="16">
+        <v>6</v>
+      </c>
+      <c r="N138" s="16">
+        <v>1</v>
+      </c>
+      <c r="O138" s="16">
+        <v>6</v>
+      </c>
+      <c r="P138" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q138" s="16">
+        <v>8</v>
+      </c>
+      <c r="R138" s="16">
+        <v>6</v>
+      </c>
+      <c r="S138" s="16">
+        <v>3</v>
+      </c>
+      <c r="T138" s="16">
+        <v>1</v>
+      </c>
+      <c r="U138" s="20">
+        <v>0</v>
+      </c>
+      <c r="V138" s="16">
+        <v>1</v>
+      </c>
+      <c r="W138" s="51">
+        <v>0</v>
+      </c>
+      <c r="X138" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y138" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z138" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF138" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG138" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH138" s="62">
+        <v>3</v>
+      </c>
+      <c r="AI138" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ138" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK138" s="60">
+        <v>6</v>
+      </c>
+      <c r="AL138" s="59">
+        <v>2</v>
+      </c>
+      <c r="AM138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS138" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A139" s="26">
+        <v>190805144104</v>
+      </c>
+      <c r="B139" s="4">
+        <v>20</v>
+      </c>
+      <c r="C139" s="22">
+        <v>2</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="15">
+        <v>2</v>
+      </c>
+      <c r="H139" s="16">
+        <v>4</v>
+      </c>
+      <c r="I139" s="16">
+        <v>1</v>
+      </c>
+      <c r="J139" s="16">
+        <v>1</v>
+      </c>
+      <c r="K139" s="16">
+        <v>7</v>
+      </c>
+      <c r="L139" s="16">
+        <v>5</v>
+      </c>
+      <c r="M139" s="16">
+        <v>6</v>
+      </c>
+      <c r="N139" s="16">
+        <v>1</v>
+      </c>
+      <c r="O139" s="16">
+        <v>6</v>
+      </c>
+      <c r="P139" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q139" s="16">
+        <v>8</v>
+      </c>
+      <c r="R139" s="16">
+        <v>6</v>
+      </c>
+      <c r="S139" s="16">
+        <v>3</v>
+      </c>
+      <c r="T139" s="16">
+        <v>1</v>
+      </c>
+      <c r="U139" s="20">
+        <v>0</v>
+      </c>
+      <c r="V139" s="16">
+        <v>1</v>
+      </c>
+      <c r="W139" s="51">
+        <v>0</v>
+      </c>
+      <c r="X139" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y139" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z139" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF139" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG139" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH139" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI139" s="62">
+        <v>10</v>
+      </c>
+      <c r="AJ139" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK139" s="60">
+        <v>6</v>
+      </c>
+      <c r="AL139" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM139" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN139" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO139" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP139" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ139" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR139" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS139" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A140" s="26">
+        <v>190805150117</v>
+      </c>
+      <c r="B140" s="4">
+        <v>20</v>
+      </c>
+      <c r="C140" s="22">
+        <v>3</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" s="15">
+        <v>2</v>
+      </c>
+      <c r="H140" s="16">
+        <v>4</v>
+      </c>
+      <c r="I140" s="16">
+        <v>1</v>
+      </c>
+      <c r="J140" s="16">
+        <v>1</v>
+      </c>
+      <c r="K140" s="16">
+        <v>7</v>
+      </c>
+      <c r="L140" s="16">
+        <v>5</v>
+      </c>
+      <c r="M140" s="16">
+        <v>6</v>
+      </c>
+      <c r="N140" s="16">
+        <v>1</v>
+      </c>
+      <c r="O140" s="16">
+        <v>6</v>
+      </c>
+      <c r="P140" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q140" s="16">
+        <v>8</v>
+      </c>
+      <c r="R140" s="16">
+        <v>6</v>
+      </c>
+      <c r="S140" s="16">
+        <v>3</v>
+      </c>
+      <c r="T140" s="16">
+        <v>1</v>
+      </c>
+      <c r="U140" s="20">
+        <v>0</v>
+      </c>
+      <c r="V140" s="16">
+        <v>1</v>
+      </c>
+      <c r="W140" s="51">
+        <v>0</v>
+      </c>
+      <c r="X140" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z140" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA140" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB140" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC140" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF140" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG140" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH140" s="62">
+        <v>100</v>
+      </c>
+      <c r="AI140" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ140" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK140" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL140" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM140" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN140" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO140" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP140" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AQ140" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR140" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS140" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A141" s="26">
+        <v>190805150200</v>
+      </c>
+      <c r="B141" s="4">
+        <v>20</v>
+      </c>
+      <c r="C141" s="22">
+        <v>4</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="15">
+        <v>2</v>
+      </c>
+      <c r="H141" s="16">
+        <v>4</v>
+      </c>
+      <c r="I141" s="16">
+        <v>1</v>
+      </c>
+      <c r="J141" s="16">
+        <v>1</v>
+      </c>
+      <c r="K141" s="16">
+        <v>7</v>
+      </c>
+      <c r="L141" s="16">
+        <v>5</v>
+      </c>
+      <c r="M141" s="16">
+        <v>6</v>
+      </c>
+      <c r="N141" s="16">
+        <v>1</v>
+      </c>
+      <c r="O141" s="16">
+        <v>6</v>
+      </c>
+      <c r="P141" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q141" s="16">
+        <v>8</v>
+      </c>
+      <c r="R141" s="16">
+        <v>6</v>
+      </c>
+      <c r="S141" s="16">
+        <v>3</v>
+      </c>
+      <c r="T141" s="16">
+        <v>1</v>
+      </c>
+      <c r="U141" s="20">
+        <v>0</v>
+      </c>
+      <c r="V141" s="16">
+        <v>1</v>
+      </c>
+      <c r="W141" s="51">
+        <v>0</v>
+      </c>
+      <c r="X141" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z141" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA141" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB141" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC141" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE141" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF141" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG141" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH141" s="62">
+        <v>100</v>
+      </c>
+      <c r="AI141" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ141" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK141" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL141" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM141" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN141" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO141" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP141" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AQ141" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR141" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS141" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A142" s="26">
+        <v>190805150423</v>
+      </c>
+      <c r="B142" s="4">
+        <v>20</v>
+      </c>
+      <c r="C142" s="22">
+        <v>5</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="15">
+        <v>2</v>
+      </c>
+      <c r="H142" s="16">
+        <v>4</v>
+      </c>
+      <c r="I142" s="16">
+        <v>1</v>
+      </c>
+      <c r="J142" s="16">
+        <v>1</v>
+      </c>
+      <c r="K142" s="16">
+        <v>7</v>
+      </c>
+      <c r="L142" s="16">
+        <v>5</v>
+      </c>
+      <c r="M142" s="16">
+        <v>6</v>
+      </c>
+      <c r="N142" s="16">
+        <v>1</v>
+      </c>
+      <c r="O142" s="16">
+        <v>6</v>
+      </c>
+      <c r="P142" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q142" s="16">
+        <v>8</v>
+      </c>
+      <c r="R142" s="16">
+        <v>6</v>
+      </c>
+      <c r="S142" s="16">
+        <v>3</v>
+      </c>
+      <c r="T142" s="16">
+        <v>1</v>
+      </c>
+      <c r="U142" s="20">
+        <v>0</v>
+      </c>
+      <c r="V142" s="16">
+        <v>1</v>
+      </c>
+      <c r="W142" s="51">
+        <v>0</v>
+      </c>
+      <c r="X142" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z142" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA142" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB142" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC142" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF142" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG142" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH142" s="62">
+        <v>1200</v>
+      </c>
+      <c r="AI142" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ142" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK142" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL142" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM142" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN142" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO142" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP142" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AQ142" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR142" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS142" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A143" s="26">
+        <v>190805150612</v>
+      </c>
+      <c r="B143" s="4">
+        <v>20</v>
+      </c>
+      <c r="C143" s="22">
+        <v>6</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="15">
+        <v>2</v>
+      </c>
+      <c r="H143" s="16">
+        <v>4</v>
+      </c>
+      <c r="I143" s="16">
+        <v>1</v>
+      </c>
+      <c r="J143" s="16">
+        <v>1</v>
+      </c>
+      <c r="K143" s="16">
+        <v>7</v>
+      </c>
+      <c r="L143" s="16">
+        <v>5</v>
+      </c>
+      <c r="M143" s="16">
+        <v>6</v>
+      </c>
+      <c r="N143" s="16">
+        <v>1</v>
+      </c>
+      <c r="O143" s="16">
+        <v>6</v>
+      </c>
+      <c r="P143" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q143" s="16">
+        <v>8</v>
+      </c>
+      <c r="R143" s="16">
+        <v>6</v>
+      </c>
+      <c r="S143" s="16">
+        <v>3</v>
+      </c>
+      <c r="T143" s="16">
+        <v>1</v>
+      </c>
+      <c r="U143" s="20">
+        <v>0</v>
+      </c>
+      <c r="V143" s="16">
+        <v>1</v>
+      </c>
+      <c r="W143" s="51">
+        <v>0</v>
+      </c>
+      <c r="X143" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z143" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA143" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB143" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC143" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE143" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF143" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG143" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH143" s="62">
+        <v>1200</v>
+      </c>
+      <c r="AI143" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ143" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK143" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL143" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM143" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN143" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO143" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP143" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AQ143" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR143" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS143" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A144" s="26">
+        <v>190805150734</v>
+      </c>
+      <c r="B144" s="4">
+        <v>20</v>
+      </c>
+      <c r="C144" s="22">
+        <v>7</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" s="15">
+        <v>2</v>
+      </c>
+      <c r="H144" s="16">
+        <v>4</v>
+      </c>
+      <c r="I144" s="16">
+        <v>1</v>
+      </c>
+      <c r="J144" s="16">
+        <v>1</v>
+      </c>
+      <c r="K144" s="16">
+        <v>7</v>
+      </c>
+      <c r="L144" s="16">
+        <v>5</v>
+      </c>
+      <c r="M144" s="16">
+        <v>6</v>
+      </c>
+      <c r="N144" s="16">
+        <v>1</v>
+      </c>
+      <c r="O144" s="16">
+        <v>6</v>
+      </c>
+      <c r="P144" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q144" s="16">
+        <v>8</v>
+      </c>
+      <c r="R144" s="16">
+        <v>6</v>
+      </c>
+      <c r="S144" s="16">
+        <v>3</v>
+      </c>
+      <c r="T144" s="16">
+        <v>1</v>
+      </c>
+      <c r="U144" s="20">
+        <v>0</v>
+      </c>
+      <c r="V144" s="16">
+        <v>1</v>
+      </c>
+      <c r="W144" s="51">
+        <v>0</v>
+      </c>
+      <c r="X144" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z144" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA144" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB144" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC144" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF144" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH144" s="62">
+        <v>10</v>
+      </c>
+      <c r="AI144" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ144" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK144" s="60">
+        <v>8</v>
+      </c>
+      <c r="AL144" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN144" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO144" s="3">
+        <v>89</v>
+      </c>
+      <c r="AP144" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AQ144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR144" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS144" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1048576" s="29"/>
       <c r="B1048576" s="30"/>
       <c r="C1048576" s="31"/>
@@ -19488,13 +22135,14 @@
       <c r="AE1048576" s="40"/>
       <c r="AF1048576" s="58"/>
       <c r="AK1048576" s="61"/>
-      <c r="AL1048576" s="41"/>
+      <c r="AL1048576" s="61"/>
       <c r="AM1048576" s="41"/>
       <c r="AN1048576" s="41"/>
       <c r="AO1048576" s="41"/>
       <c r="AP1048576" s="41"/>
       <c r="AQ1048576" s="41"/>
-      <c r="AR1048576" s="42"/>
+      <c r="AR1048576" s="41"/>
+      <c r="AS1048576" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71512A13-D347-4B00-888D-DC5D9C225806}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16905D-A72A-4C3B-BE02-8AC8F0FAB7AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="87">
   <si>
     <t>Time</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>croud1</t>
+  </si>
+  <si>
+    <t>blinkx2</t>
+  </si>
+  <si>
+    <t>bars10x1.5</t>
   </si>
 </sst>
 </file>
@@ -2394,13 +2400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
   <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="AN193" sqref="AN193"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="AN222" sqref="AN222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.140625" style="22" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="18" customWidth="1"/>
@@ -29769,7 +29775,7 @@
     </row>
     <row r="192" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A192" s="26">
-        <v>190819</v>
+        <v>190821171730</v>
       </c>
       <c r="B192" s="4">
         <v>27</v>
@@ -29910,38 +29916,4867 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG193" s="56"/>
+    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A193" s="26">
+        <v>190822144137</v>
+      </c>
+      <c r="B193" s="4">
+        <v>28</v>
+      </c>
+      <c r="C193" s="22">
+        <v>1</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" s="15">
+        <v>2</v>
+      </c>
+      <c r="H193" s="16">
+        <v>2</v>
+      </c>
+      <c r="I193" s="16">
+        <v>1</v>
+      </c>
+      <c r="J193" s="16">
+        <v>1</v>
+      </c>
+      <c r="K193" s="16">
+        <v>5</v>
+      </c>
+      <c r="L193" s="16">
+        <v>1</v>
+      </c>
+      <c r="M193" s="16">
+        <v>4</v>
+      </c>
+      <c r="N193" s="16">
+        <v>2</v>
+      </c>
+      <c r="O193" s="16">
+        <v>4</v>
+      </c>
+      <c r="P193" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q193" s="16">
+        <v>5</v>
+      </c>
+      <c r="R193" s="16">
+        <v>8</v>
+      </c>
+      <c r="S193" s="16">
+        <v>4</v>
+      </c>
+      <c r="T193" s="16">
+        <v>3</v>
+      </c>
+      <c r="U193" s="20">
+        <v>0</v>
+      </c>
+      <c r="V193" s="16">
+        <v>0</v>
+      </c>
+      <c r="W193" s="51">
+        <v>0</v>
+      </c>
+      <c r="X193" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z193" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA193" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB193" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC193" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD193" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE193" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF193" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG193" s="56">
+        <v>23</v>
+      </c>
+      <c r="AH193" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI193" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ193" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK193" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL193" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM193" s="60">
+        <v>1</v>
+      </c>
+      <c r="AN193" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO193" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP193" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ193" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR193" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS193" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU193" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="194" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG194" s="56"/>
+    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A194" s="26">
+        <v>190822144305</v>
+      </c>
+      <c r="B194" s="4">
+        <v>28</v>
+      </c>
+      <c r="C194" s="22">
+        <v>2</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G194" s="15">
+        <v>2</v>
+      </c>
+      <c r="H194" s="16">
+        <v>2</v>
+      </c>
+      <c r="I194" s="16">
+        <v>1</v>
+      </c>
+      <c r="J194" s="16">
+        <v>1</v>
+      </c>
+      <c r="K194" s="16">
+        <v>5</v>
+      </c>
+      <c r="L194" s="16">
+        <v>1</v>
+      </c>
+      <c r="M194" s="16">
+        <v>4</v>
+      </c>
+      <c r="N194" s="16">
+        <v>2</v>
+      </c>
+      <c r="O194" s="16">
+        <v>4</v>
+      </c>
+      <c r="P194" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q194" s="16">
+        <v>5</v>
+      </c>
+      <c r="R194" s="16">
+        <v>8</v>
+      </c>
+      <c r="S194" s="16">
+        <v>4</v>
+      </c>
+      <c r="T194" s="16">
+        <v>3</v>
+      </c>
+      <c r="U194" s="20">
+        <v>0</v>
+      </c>
+      <c r="V194" s="16">
+        <v>0</v>
+      </c>
+      <c r="W194" s="51">
+        <v>0</v>
+      </c>
+      <c r="X194" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z194" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA194" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB194" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC194" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD194" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE194" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF194" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG194" s="56">
+        <v>23</v>
+      </c>
+      <c r="AH194" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI194" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ194" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK194" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL194" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM194" s="60">
+        <v>1</v>
+      </c>
+      <c r="AN194" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP194" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ194" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR194" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS194" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT194" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU194" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="195" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG195" s="56"/>
+    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A195" s="26">
+        <v>190823132214</v>
+      </c>
+      <c r="B195" s="4">
+        <v>29</v>
+      </c>
+      <c r="C195" s="22">
+        <v>1</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" s="15">
+        <v>6</v>
+      </c>
+      <c r="H195" s="16">
+        <v>5</v>
+      </c>
+      <c r="I195" s="16">
+        <v>1</v>
+      </c>
+      <c r="J195" s="16">
+        <v>4</v>
+      </c>
+      <c r="K195" s="16">
+        <v>4</v>
+      </c>
+      <c r="L195" s="16">
+        <v>9</v>
+      </c>
+      <c r="M195" s="16">
+        <v>5</v>
+      </c>
+      <c r="N195" s="16">
+        <v>3</v>
+      </c>
+      <c r="O195" s="16">
+        <v>9</v>
+      </c>
+      <c r="P195" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q195" s="16">
+        <v>7</v>
+      </c>
+      <c r="R195" s="16">
+        <v>6</v>
+      </c>
+      <c r="S195" s="16">
+        <v>3</v>
+      </c>
+      <c r="T195" s="16">
+        <v>2</v>
+      </c>
+      <c r="U195" s="20">
+        <v>0</v>
+      </c>
+      <c r="V195" s="16">
+        <v>0</v>
+      </c>
+      <c r="W195" s="51">
+        <v>0</v>
+      </c>
+      <c r="X195" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z195" s="24">
+        <v>6</v>
+      </c>
+      <c r="AA195" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB195" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC195" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD195" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE195" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF195" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG195" s="56">
+        <v>23</v>
+      </c>
+      <c r="AH195" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI195" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ195" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK195" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL195" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM195" s="60">
+        <v>9</v>
+      </c>
+      <c r="AN195" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP195" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ195" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR195" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT195" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU195" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="196" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG196" s="56"/>
+    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A196" s="26">
+        <v>190823132400</v>
+      </c>
+      <c r="B196" s="4">
+        <v>29</v>
+      </c>
+      <c r="C196" s="22">
+        <v>2</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" s="15">
+        <v>6</v>
+      </c>
+      <c r="H196" s="16">
+        <v>5</v>
+      </c>
+      <c r="I196" s="16">
+        <v>1</v>
+      </c>
+      <c r="J196" s="16">
+        <v>4</v>
+      </c>
+      <c r="K196" s="16">
+        <v>4</v>
+      </c>
+      <c r="L196" s="16">
+        <v>9</v>
+      </c>
+      <c r="M196" s="16">
+        <v>5</v>
+      </c>
+      <c r="N196" s="16">
+        <v>3</v>
+      </c>
+      <c r="O196" s="16">
+        <v>9</v>
+      </c>
+      <c r="P196" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q196" s="16">
+        <v>7</v>
+      </c>
+      <c r="R196" s="16">
+        <v>6</v>
+      </c>
+      <c r="S196" s="16">
+        <v>3</v>
+      </c>
+      <c r="T196" s="16">
+        <v>2</v>
+      </c>
+      <c r="U196" s="20">
+        <v>0</v>
+      </c>
+      <c r="V196" s="16">
+        <v>0</v>
+      </c>
+      <c r="W196" s="51">
+        <v>0</v>
+      </c>
+      <c r="X196" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z196" s="24">
+        <v>6</v>
+      </c>
+      <c r="AA196" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB196" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC196" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD196" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE196" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF196" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG196" s="56">
+        <v>23</v>
+      </c>
+      <c r="AH196" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI196" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ196" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK196" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL196" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM196" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN196" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP196" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ196" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR196" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT196" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU196" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="197" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG197" s="56"/>
+    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A197" s="26">
+        <v>190823132549</v>
+      </c>
+      <c r="B197" s="4">
+        <v>29</v>
+      </c>
+      <c r="C197" s="22">
+        <v>3</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G197" s="15">
+        <v>6</v>
+      </c>
+      <c r="H197" s="16">
+        <v>5</v>
+      </c>
+      <c r="I197" s="16">
+        <v>1</v>
+      </c>
+      <c r="J197" s="16">
+        <v>4</v>
+      </c>
+      <c r="K197" s="16">
+        <v>4</v>
+      </c>
+      <c r="L197" s="16">
+        <v>9</v>
+      </c>
+      <c r="M197" s="16">
+        <v>5</v>
+      </c>
+      <c r="N197" s="16">
+        <v>3</v>
+      </c>
+      <c r="O197" s="16">
+        <v>9</v>
+      </c>
+      <c r="P197" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q197" s="16">
+        <v>7</v>
+      </c>
+      <c r="R197" s="16">
+        <v>6</v>
+      </c>
+      <c r="S197" s="16">
+        <v>3</v>
+      </c>
+      <c r="T197" s="16">
+        <v>2</v>
+      </c>
+      <c r="U197" s="20">
+        <v>0</v>
+      </c>
+      <c r="V197" s="16">
+        <v>0</v>
+      </c>
+      <c r="W197" s="51">
+        <v>0</v>
+      </c>
+      <c r="X197" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y197" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z197" s="24">
+        <v>6</v>
+      </c>
+      <c r="AA197" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB197" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC197" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD197" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE197" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF197" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG197" s="56">
+        <v>23</v>
+      </c>
+      <c r="AH197" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI197" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ197" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK197" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL197" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM197" s="60">
+        <v>5</v>
+      </c>
+      <c r="AN197" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO197" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP197" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ197" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR197" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS197" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT197" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU197" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="198" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG198" s="56"/>
+    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A198" s="26">
+        <v>190823132706</v>
+      </c>
+      <c r="B198" s="4">
+        <v>29</v>
+      </c>
+      <c r="C198" s="22">
+        <v>4</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198" s="15">
+        <v>6</v>
+      </c>
+      <c r="H198" s="16">
+        <v>5</v>
+      </c>
+      <c r="I198" s="16">
+        <v>1</v>
+      </c>
+      <c r="J198" s="16">
+        <v>4</v>
+      </c>
+      <c r="K198" s="16">
+        <v>4</v>
+      </c>
+      <c r="L198" s="16">
+        <v>9</v>
+      </c>
+      <c r="M198" s="16">
+        <v>5</v>
+      </c>
+      <c r="N198" s="16">
+        <v>3</v>
+      </c>
+      <c r="O198" s="16">
+        <v>9</v>
+      </c>
+      <c r="P198" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q198" s="16">
+        <v>7</v>
+      </c>
+      <c r="R198" s="16">
+        <v>6</v>
+      </c>
+      <c r="S198" s="16">
+        <v>3</v>
+      </c>
+      <c r="T198" s="16">
+        <v>2</v>
+      </c>
+      <c r="U198" s="20">
+        <v>0</v>
+      </c>
+      <c r="V198" s="16">
+        <v>0</v>
+      </c>
+      <c r="W198" s="51">
+        <v>0</v>
+      </c>
+      <c r="X198" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z198" s="24">
+        <v>6</v>
+      </c>
+      <c r="AA198" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB198" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC198" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD198" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE198" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF198" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG198" s="56">
+        <v>23</v>
+      </c>
+      <c r="AH198" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI198" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ198" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK198" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL198" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM198" s="60">
+        <v>7</v>
+      </c>
+      <c r="AN198" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP198" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ198" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR198" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT198" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU198" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="199" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG199" s="56"/>
+    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A199" s="26">
+        <v>190827153322</v>
+      </c>
+      <c r="B199" s="4">
+        <v>30</v>
+      </c>
+      <c r="C199" s="22">
+        <v>1</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G199" s="15">
+        <v>2</v>
+      </c>
+      <c r="H199" s="16">
+        <v>4</v>
+      </c>
+      <c r="I199" s="16">
+        <v>0</v>
+      </c>
+      <c r="J199" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K199" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L199" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M199" s="16">
+        <v>3</v>
+      </c>
+      <c r="N199" s="16">
+        <v>8</v>
+      </c>
+      <c r="O199" s="16">
+        <v>5</v>
+      </c>
+      <c r="P199" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q199" s="16">
+        <v>4</v>
+      </c>
+      <c r="R199" s="16">
+        <v>3</v>
+      </c>
+      <c r="S199" s="16">
+        <v>8</v>
+      </c>
+      <c r="T199" s="16">
+        <v>1</v>
+      </c>
+      <c r="U199" s="20">
+        <v>0</v>
+      </c>
+      <c r="V199" s="16">
+        <v>0</v>
+      </c>
+      <c r="W199" s="51">
+        <v>0</v>
+      </c>
+      <c r="X199" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y199" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z199" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA199" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB199" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD199" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF199" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG199" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH199" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI199" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ199" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK199" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL199" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM199" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN199" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP199" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ199" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR199" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS199" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT199" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU199" s="28" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="200" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG200" s="56"/>
+    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A200" s="26">
+        <v>190827153628</v>
+      </c>
+      <c r="B200" s="4">
+        <v>30</v>
+      </c>
+      <c r="C200" s="22">
+        <v>2</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" s="15">
+        <v>2</v>
+      </c>
+      <c r="H200" s="16">
+        <v>4</v>
+      </c>
+      <c r="I200" s="16">
+        <v>0</v>
+      </c>
+      <c r="J200" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K200" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L200" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M200" s="16">
+        <v>3</v>
+      </c>
+      <c r="N200" s="16">
+        <v>8</v>
+      </c>
+      <c r="O200" s="16">
+        <v>5</v>
+      </c>
+      <c r="P200" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q200" s="16">
+        <v>4</v>
+      </c>
+      <c r="R200" s="16">
+        <v>3</v>
+      </c>
+      <c r="S200" s="16">
+        <v>8</v>
+      </c>
+      <c r="T200" s="16">
+        <v>1</v>
+      </c>
+      <c r="U200" s="20">
+        <v>0</v>
+      </c>
+      <c r="V200" s="16">
+        <v>0</v>
+      </c>
+      <c r="W200" s="51">
+        <v>0</v>
+      </c>
+      <c r="X200" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z200" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA200" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB200" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD200" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF200" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG200" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH200" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI200" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ200" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK200" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL200" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM200" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN200" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO200" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP200" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ200" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR200" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS200" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT200" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU200" s="28" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="201" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG201" s="56"/>
+    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A201" s="26">
+        <v>190827154014</v>
+      </c>
+      <c r="B201" s="4">
+        <v>30</v>
+      </c>
+      <c r="C201" s="22">
+        <v>3</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" s="15">
+        <v>2</v>
+      </c>
+      <c r="H201" s="16">
+        <v>4</v>
+      </c>
+      <c r="I201" s="16">
+        <v>0</v>
+      </c>
+      <c r="J201" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K201" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L201" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M201" s="16">
+        <v>3</v>
+      </c>
+      <c r="N201" s="16">
+        <v>8</v>
+      </c>
+      <c r="O201" s="16">
+        <v>5</v>
+      </c>
+      <c r="P201" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q201" s="16">
+        <v>4</v>
+      </c>
+      <c r="R201" s="16">
+        <v>3</v>
+      </c>
+      <c r="S201" s="16">
+        <v>8</v>
+      </c>
+      <c r="T201" s="16">
+        <v>1</v>
+      </c>
+      <c r="U201" s="20">
+        <v>0</v>
+      </c>
+      <c r="V201" s="16">
+        <v>0</v>
+      </c>
+      <c r="W201" s="51">
+        <v>0</v>
+      </c>
+      <c r="X201" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y201" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z201" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA201" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB201" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD201" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF201" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG201" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH201" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI201" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ201" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK201" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL201" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM201" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN201" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO201" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP201" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ201" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR201" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS201" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT201" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU201" s="28" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="202" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG202" s="56"/>
+    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A202" s="26">
+        <v>190827155029</v>
+      </c>
+      <c r="B202" s="4">
+        <v>30</v>
+      </c>
+      <c r="C202" s="22">
+        <v>4</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" s="15">
+        <v>2</v>
+      </c>
+      <c r="H202" s="16">
+        <v>4</v>
+      </c>
+      <c r="I202" s="16">
+        <v>0</v>
+      </c>
+      <c r="J202" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K202" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L202" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M202" s="16">
+        <v>3</v>
+      </c>
+      <c r="N202" s="16">
+        <v>8</v>
+      </c>
+      <c r="O202" s="16">
+        <v>5</v>
+      </c>
+      <c r="P202" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q202" s="16">
+        <v>4</v>
+      </c>
+      <c r="R202" s="16">
+        <v>3</v>
+      </c>
+      <c r="S202" s="16">
+        <v>8</v>
+      </c>
+      <c r="T202" s="16">
+        <v>1</v>
+      </c>
+      <c r="U202" s="20">
+        <v>0</v>
+      </c>
+      <c r="V202" s="16">
+        <v>0</v>
+      </c>
+      <c r="W202" s="51">
+        <v>0</v>
+      </c>
+      <c r="X202" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z202" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA202" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB202" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD202" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF202" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG202" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH202" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI202" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ202" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK202" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL202" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM202" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN202" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP202" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ202" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR202" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS202" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT202" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU202" s="28" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="203" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG203" s="56"/>
+    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A203" s="26">
+        <v>190827155203</v>
+      </c>
+      <c r="B203" s="4">
+        <v>30</v>
+      </c>
+      <c r="C203" s="22">
+        <v>5</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" s="15">
+        <v>2</v>
+      </c>
+      <c r="H203" s="16">
+        <v>4</v>
+      </c>
+      <c r="I203" s="16">
+        <v>0</v>
+      </c>
+      <c r="J203" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K203" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L203" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M203" s="16">
+        <v>3</v>
+      </c>
+      <c r="N203" s="16">
+        <v>8</v>
+      </c>
+      <c r="O203" s="16">
+        <v>5</v>
+      </c>
+      <c r="P203" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q203" s="16">
+        <v>4</v>
+      </c>
+      <c r="R203" s="16">
+        <v>3</v>
+      </c>
+      <c r="S203" s="16">
+        <v>8</v>
+      </c>
+      <c r="T203" s="16">
+        <v>1</v>
+      </c>
+      <c r="U203" s="20">
+        <v>0</v>
+      </c>
+      <c r="V203" s="16">
+        <v>0</v>
+      </c>
+      <c r="W203" s="51">
+        <v>0</v>
+      </c>
+      <c r="X203" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z203" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA203" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB203" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG203" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH203" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI203" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ203" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK203" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL203" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM203" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN203" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO203" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP203" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ203" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR203" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS203" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT203" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU203" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A204" s="26">
+        <v>190827155445</v>
+      </c>
+      <c r="B204" s="4">
+        <v>30</v>
+      </c>
+      <c r="C204" s="22">
+        <v>6</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G204" s="15">
+        <v>2</v>
+      </c>
+      <c r="H204" s="16">
+        <v>4</v>
+      </c>
+      <c r="I204" s="16">
+        <v>0</v>
+      </c>
+      <c r="J204" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K204" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L204" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M204" s="16">
+        <v>3</v>
+      </c>
+      <c r="N204" s="16">
+        <v>8</v>
+      </c>
+      <c r="O204" s="16">
+        <v>5</v>
+      </c>
+      <c r="P204" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q204" s="16">
+        <v>4</v>
+      </c>
+      <c r="R204" s="16">
+        <v>3</v>
+      </c>
+      <c r="S204" s="16">
+        <v>8</v>
+      </c>
+      <c r="T204" s="16">
+        <v>1</v>
+      </c>
+      <c r="U204" s="20">
+        <v>0</v>
+      </c>
+      <c r="V204" s="16">
+        <v>0</v>
+      </c>
+      <c r="W204" s="51">
+        <v>0</v>
+      </c>
+      <c r="X204" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z204" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA204" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB204" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD204" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF204" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG204" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH204" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI204" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ204" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK204" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL204" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM204" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN204" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP204" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ204" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR204" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS204" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT204" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU204" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A205" s="26">
+        <v>190827155612</v>
+      </c>
+      <c r="B205" s="4">
+        <v>30</v>
+      </c>
+      <c r="C205" s="22">
+        <v>7</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G205" s="15">
+        <v>2</v>
+      </c>
+      <c r="H205" s="16">
+        <v>4</v>
+      </c>
+      <c r="I205" s="16">
+        <v>0</v>
+      </c>
+      <c r="J205" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K205" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L205" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M205" s="16">
+        <v>3</v>
+      </c>
+      <c r="N205" s="16">
+        <v>8</v>
+      </c>
+      <c r="O205" s="16">
+        <v>5</v>
+      </c>
+      <c r="P205" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q205" s="16">
+        <v>4</v>
+      </c>
+      <c r="R205" s="16">
+        <v>3</v>
+      </c>
+      <c r="S205" s="16">
+        <v>8</v>
+      </c>
+      <c r="T205" s="16">
+        <v>1</v>
+      </c>
+      <c r="U205" s="20">
+        <v>0</v>
+      </c>
+      <c r="V205" s="16">
+        <v>0</v>
+      </c>
+      <c r="W205" s="51">
+        <v>0</v>
+      </c>
+      <c r="X205" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z205" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA205" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB205" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD205" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG205" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH205" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI205" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ205" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK205" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL205" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM205" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN205" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP205" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ205" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR205" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS205" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT205" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU205" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A206" s="26">
+        <v>190827155738</v>
+      </c>
+      <c r="B206" s="4">
+        <v>30</v>
+      </c>
+      <c r="C206" s="22">
+        <v>8</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G206" s="15">
+        <v>2</v>
+      </c>
+      <c r="H206" s="16">
+        <v>4</v>
+      </c>
+      <c r="I206" s="16">
+        <v>0</v>
+      </c>
+      <c r="J206" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K206" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L206" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M206" s="16">
+        <v>3</v>
+      </c>
+      <c r="N206" s="16">
+        <v>8</v>
+      </c>
+      <c r="O206" s="16">
+        <v>5</v>
+      </c>
+      <c r="P206" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q206" s="16">
+        <v>4</v>
+      </c>
+      <c r="R206" s="16">
+        <v>3</v>
+      </c>
+      <c r="S206" s="16">
+        <v>8</v>
+      </c>
+      <c r="T206" s="16">
+        <v>1</v>
+      </c>
+      <c r="U206" s="20">
+        <v>0</v>
+      </c>
+      <c r="V206" s="16">
+        <v>0</v>
+      </c>
+      <c r="W206" s="51">
+        <v>0</v>
+      </c>
+      <c r="X206" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y206" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z206" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA206" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB206" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD206" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG206" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH206" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI206" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ206" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK206" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL206" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM206" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN206" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP206" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ206" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR206" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS206" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT206" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU206" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A207" s="26">
+        <v>190827155906</v>
+      </c>
+      <c r="B207" s="4">
+        <v>30</v>
+      </c>
+      <c r="C207" s="22">
+        <v>9</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G207" s="15">
+        <v>2</v>
+      </c>
+      <c r="H207" s="16">
+        <v>4</v>
+      </c>
+      <c r="I207" s="16">
+        <v>0</v>
+      </c>
+      <c r="J207" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K207" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L207" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M207" s="16">
+        <v>3</v>
+      </c>
+      <c r="N207" s="16">
+        <v>8</v>
+      </c>
+      <c r="O207" s="16">
+        <v>5</v>
+      </c>
+      <c r="P207" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q207" s="16">
+        <v>4</v>
+      </c>
+      <c r="R207" s="16">
+        <v>3</v>
+      </c>
+      <c r="S207" s="16">
+        <v>8</v>
+      </c>
+      <c r="T207" s="16">
+        <v>1</v>
+      </c>
+      <c r="U207" s="20">
+        <v>0</v>
+      </c>
+      <c r="V207" s="16">
+        <v>0</v>
+      </c>
+      <c r="W207" s="51">
+        <v>0</v>
+      </c>
+      <c r="X207" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y207" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z207" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA207" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB207" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG207" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH207" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI207" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ207" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK207" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL207" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM207" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN207" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO207" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP207" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ207" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR207" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS207" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT207" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU207" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A208" s="26">
+        <v>190827160040</v>
+      </c>
+      <c r="B208" s="4">
+        <v>30</v>
+      </c>
+      <c r="C208" s="22">
+        <v>10</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G208" s="15">
+        <v>2</v>
+      </c>
+      <c r="H208" s="16">
+        <v>4</v>
+      </c>
+      <c r="I208" s="16">
+        <v>0</v>
+      </c>
+      <c r="J208" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K208" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L208" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M208" s="16">
+        <v>3</v>
+      </c>
+      <c r="N208" s="16">
+        <v>8</v>
+      </c>
+      <c r="O208" s="16">
+        <v>5</v>
+      </c>
+      <c r="P208" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q208" s="16">
+        <v>4</v>
+      </c>
+      <c r="R208" s="16">
+        <v>3</v>
+      </c>
+      <c r="S208" s="16">
+        <v>8</v>
+      </c>
+      <c r="T208" s="16">
+        <v>1</v>
+      </c>
+      <c r="U208" s="20">
+        <v>0</v>
+      </c>
+      <c r="V208" s="16">
+        <v>0</v>
+      </c>
+      <c r="W208" s="51">
+        <v>0</v>
+      </c>
+      <c r="X208" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z208" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA208" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB208" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG208" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH208" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI208" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ208" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK208" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL208" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM208" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP208" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ208" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR208" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS208" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT208" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU208" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A209" s="26">
+        <v>190827160230</v>
+      </c>
+      <c r="B209" s="4">
+        <v>30</v>
+      </c>
+      <c r="C209" s="22">
+        <v>11</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G209" s="15">
+        <v>2</v>
+      </c>
+      <c r="H209" s="16">
+        <v>4</v>
+      </c>
+      <c r="I209" s="16">
+        <v>0</v>
+      </c>
+      <c r="J209" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K209" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L209" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M209" s="16">
+        <v>3</v>
+      </c>
+      <c r="N209" s="16">
+        <v>8</v>
+      </c>
+      <c r="O209" s="16">
+        <v>5</v>
+      </c>
+      <c r="P209" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q209" s="16">
+        <v>4</v>
+      </c>
+      <c r="R209" s="16">
+        <v>3</v>
+      </c>
+      <c r="S209" s="16">
+        <v>8</v>
+      </c>
+      <c r="T209" s="16">
+        <v>1</v>
+      </c>
+      <c r="U209" s="20">
+        <v>0</v>
+      </c>
+      <c r="V209" s="16">
+        <v>0</v>
+      </c>
+      <c r="W209" s="51">
+        <v>0</v>
+      </c>
+      <c r="X209" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z209" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA209" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB209" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG209" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH209" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI209" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ209" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK209" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL209" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM209" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN209" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP209" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ209" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR209" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS209" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT209" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU209" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A210" s="26">
+        <v>190827160343</v>
+      </c>
+      <c r="B210" s="4">
+        <v>30</v>
+      </c>
+      <c r="C210" s="22">
+        <v>12</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G210" s="15">
+        <v>2</v>
+      </c>
+      <c r="H210" s="16">
+        <v>4</v>
+      </c>
+      <c r="I210" s="16">
+        <v>0</v>
+      </c>
+      <c r="J210" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K210" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L210" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M210" s="16">
+        <v>3</v>
+      </c>
+      <c r="N210" s="16">
+        <v>8</v>
+      </c>
+      <c r="O210" s="16">
+        <v>5</v>
+      </c>
+      <c r="P210" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q210" s="16">
+        <v>4</v>
+      </c>
+      <c r="R210" s="16">
+        <v>3</v>
+      </c>
+      <c r="S210" s="16">
+        <v>8</v>
+      </c>
+      <c r="T210" s="16">
+        <v>1</v>
+      </c>
+      <c r="U210" s="20">
+        <v>0</v>
+      </c>
+      <c r="V210" s="16">
+        <v>0</v>
+      </c>
+      <c r="W210" s="51">
+        <v>0</v>
+      </c>
+      <c r="X210" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z210" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA210" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG210" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH210" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI210" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ210" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK210" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL210" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM210" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN210" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO210" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP210" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ210" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR210" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS210" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT210" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU210" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A211" s="26">
+        <v>190827160507</v>
+      </c>
+      <c r="B211" s="4">
+        <v>30</v>
+      </c>
+      <c r="C211" s="22">
+        <v>13</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G211" s="15">
+        <v>2</v>
+      </c>
+      <c r="H211" s="16">
+        <v>4</v>
+      </c>
+      <c r="I211" s="16">
+        <v>0</v>
+      </c>
+      <c r="J211" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K211" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L211" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M211" s="16">
+        <v>3</v>
+      </c>
+      <c r="N211" s="16">
+        <v>8</v>
+      </c>
+      <c r="O211" s="16">
+        <v>5</v>
+      </c>
+      <c r="P211" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q211" s="16">
+        <v>4</v>
+      </c>
+      <c r="R211" s="16">
+        <v>3</v>
+      </c>
+      <c r="S211" s="16">
+        <v>8</v>
+      </c>
+      <c r="T211" s="16">
+        <v>1</v>
+      </c>
+      <c r="U211" s="20">
+        <v>0</v>
+      </c>
+      <c r="V211" s="16">
+        <v>0</v>
+      </c>
+      <c r="W211" s="51">
+        <v>0</v>
+      </c>
+      <c r="X211" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z211" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA211" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB211" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF211" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG211" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH211" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI211" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ211" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK211" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL211" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM211" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN211" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO211" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP211" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ211" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR211" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS211" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT211" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU211" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A212" s="26">
+        <v>190827161455</v>
+      </c>
+      <c r="B212" s="4">
+        <v>30</v>
+      </c>
+      <c r="C212" s="22">
+        <v>14</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G212" s="15">
+        <v>2</v>
+      </c>
+      <c r="H212" s="16">
+        <v>4</v>
+      </c>
+      <c r="I212" s="16">
+        <v>1</v>
+      </c>
+      <c r="J212" s="16">
+        <v>5</v>
+      </c>
+      <c r="K212" s="16">
+        <v>0</v>
+      </c>
+      <c r="L212" s="16">
+        <v>5</v>
+      </c>
+      <c r="M212" s="16">
+        <v>3</v>
+      </c>
+      <c r="N212" s="16">
+        <v>8</v>
+      </c>
+      <c r="O212" s="16">
+        <v>5</v>
+      </c>
+      <c r="P212" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q212" s="16">
+        <v>4</v>
+      </c>
+      <c r="R212" s="16">
+        <v>3</v>
+      </c>
+      <c r="S212" s="16">
+        <v>8</v>
+      </c>
+      <c r="T212" s="16">
+        <v>1</v>
+      </c>
+      <c r="U212" s="20">
+        <v>0</v>
+      </c>
+      <c r="V212" s="16">
+        <v>0</v>
+      </c>
+      <c r="W212" s="51">
+        <v>0</v>
+      </c>
+      <c r="X212" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z212" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA212" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB212" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD212" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF212" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG212" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH212" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI212" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ212" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK212" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL212" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM212" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN212" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO212" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP212" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ212" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR212" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS212" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT212" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU212" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="213" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A213" s="26">
+        <v>190827161653</v>
+      </c>
+      <c r="B213" s="4">
+        <v>30</v>
+      </c>
+      <c r="C213" s="22">
+        <v>15</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" s="15">
+        <v>2</v>
+      </c>
+      <c r="H213" s="16">
+        <v>4</v>
+      </c>
+      <c r="I213" s="16">
+        <v>1</v>
+      </c>
+      <c r="J213" s="16">
+        <v>5</v>
+      </c>
+      <c r="K213" s="16">
+        <v>0</v>
+      </c>
+      <c r="L213" s="16">
+        <v>5</v>
+      </c>
+      <c r="M213" s="16">
+        <v>3</v>
+      </c>
+      <c r="N213" s="16">
+        <v>8</v>
+      </c>
+      <c r="O213" s="16">
+        <v>5</v>
+      </c>
+      <c r="P213" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q213" s="16">
+        <v>4</v>
+      </c>
+      <c r="R213" s="16">
+        <v>3</v>
+      </c>
+      <c r="S213" s="16">
+        <v>8</v>
+      </c>
+      <c r="T213" s="16">
+        <v>1</v>
+      </c>
+      <c r="U213" s="20">
+        <v>0</v>
+      </c>
+      <c r="V213" s="16">
+        <v>0</v>
+      </c>
+      <c r="W213" s="51">
+        <v>0</v>
+      </c>
+      <c r="X213" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z213" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA213" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB213" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD213" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF213" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG213" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH213" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI213" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ213" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK213" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL213" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM213" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN213" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO213" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP213" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ213" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR213" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS213" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT213" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU213" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="214" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A214" s="26">
+        <v>190827161841</v>
+      </c>
+      <c r="B214" s="4">
+        <v>30</v>
+      </c>
+      <c r="C214" s="22">
+        <v>16</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G214" s="15">
+        <v>2</v>
+      </c>
+      <c r="H214" s="16">
+        <v>4</v>
+      </c>
+      <c r="I214" s="16">
+        <v>1</v>
+      </c>
+      <c r="J214" s="16">
+        <v>5</v>
+      </c>
+      <c r="K214" s="16">
+        <v>0</v>
+      </c>
+      <c r="L214" s="16">
+        <v>5</v>
+      </c>
+      <c r="M214" s="16">
+        <v>3</v>
+      </c>
+      <c r="N214" s="16">
+        <v>8</v>
+      </c>
+      <c r="O214" s="16">
+        <v>5</v>
+      </c>
+      <c r="P214" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q214" s="16">
+        <v>4</v>
+      </c>
+      <c r="R214" s="16">
+        <v>3</v>
+      </c>
+      <c r="S214" s="16">
+        <v>8</v>
+      </c>
+      <c r="T214" s="16">
+        <v>1</v>
+      </c>
+      <c r="U214" s="20">
+        <v>0</v>
+      </c>
+      <c r="V214" s="16">
+        <v>0</v>
+      </c>
+      <c r="W214" s="51">
+        <v>0</v>
+      </c>
+      <c r="X214" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z214" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA214" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB214" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF214" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG214" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH214" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI214" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ214" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK214" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL214" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM214" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN214" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP214" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ214" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR214" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT214" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU214" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A215" s="26">
+        <v>190827163736</v>
+      </c>
+      <c r="B215" s="4">
+        <v>30</v>
+      </c>
+      <c r="C215" s="22">
+        <v>17</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G215" s="15">
+        <v>2</v>
+      </c>
+      <c r="H215" s="16">
+        <v>4</v>
+      </c>
+      <c r="I215" s="16">
+        <v>1</v>
+      </c>
+      <c r="J215" s="16">
+        <v>5</v>
+      </c>
+      <c r="K215" s="16">
+        <v>0</v>
+      </c>
+      <c r="L215" s="16">
+        <v>5</v>
+      </c>
+      <c r="M215" s="16">
+        <v>3</v>
+      </c>
+      <c r="N215" s="16">
+        <v>8</v>
+      </c>
+      <c r="O215" s="16">
+        <v>5</v>
+      </c>
+      <c r="P215" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q215" s="16">
+        <v>4</v>
+      </c>
+      <c r="R215" s="16">
+        <v>3</v>
+      </c>
+      <c r="S215" s="16">
+        <v>8</v>
+      </c>
+      <c r="T215" s="16">
+        <v>1</v>
+      </c>
+      <c r="U215" s="20">
+        <v>0</v>
+      </c>
+      <c r="V215" s="16">
+        <v>0</v>
+      </c>
+      <c r="W215" s="51">
+        <v>0</v>
+      </c>
+      <c r="X215" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z215" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA215" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB215" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG215" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH215" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI215" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ215" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK215" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL215" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM215" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN215" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO215" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP215" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ215" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR215" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS215" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT215" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU215" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A216" s="26">
+        <v>190827163900</v>
+      </c>
+      <c r="B216" s="4">
+        <v>30</v>
+      </c>
+      <c r="C216" s="22">
+        <v>18</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G216" s="15">
+        <v>2</v>
+      </c>
+      <c r="H216" s="16">
+        <v>4</v>
+      </c>
+      <c r="I216" s="16">
+        <v>1</v>
+      </c>
+      <c r="J216" s="16">
+        <v>5</v>
+      </c>
+      <c r="K216" s="16">
+        <v>0</v>
+      </c>
+      <c r="L216" s="16">
+        <v>5</v>
+      </c>
+      <c r="M216" s="16">
+        <v>3</v>
+      </c>
+      <c r="N216" s="16">
+        <v>8</v>
+      </c>
+      <c r="O216" s="16">
+        <v>5</v>
+      </c>
+      <c r="P216" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q216" s="16">
+        <v>4</v>
+      </c>
+      <c r="R216" s="16">
+        <v>3</v>
+      </c>
+      <c r="S216" s="16">
+        <v>8</v>
+      </c>
+      <c r="T216" s="16">
+        <v>1</v>
+      </c>
+      <c r="U216" s="20">
+        <v>0</v>
+      </c>
+      <c r="V216" s="16">
+        <v>0</v>
+      </c>
+      <c r="W216" s="51">
+        <v>0</v>
+      </c>
+      <c r="X216" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y216" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z216" s="24">
+        <v>7</v>
+      </c>
+      <c r="AA216" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB216" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD216" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF216" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG216" s="56">
+        <v>25</v>
+      </c>
+      <c r="AH216" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI216" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ216" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK216" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL216" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP216" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ216" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR216" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT216" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU216" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A217" s="26">
+        <v>190828141533</v>
+      </c>
+      <c r="B217" s="4">
+        <v>31</v>
+      </c>
+      <c r="C217" s="22">
+        <v>1</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G217" s="15">
+        <v>4</v>
+      </c>
+      <c r="H217" s="16">
+        <v>4</v>
+      </c>
+      <c r="I217" s="16">
+        <v>0</v>
+      </c>
+      <c r="J217" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K217" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L217" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M217" s="16">
+        <v>5</v>
+      </c>
+      <c r="N217" s="16">
+        <v>3</v>
+      </c>
+      <c r="O217" s="16">
+        <v>5</v>
+      </c>
+      <c r="P217" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q217" s="16">
+        <v>9</v>
+      </c>
+      <c r="R217" s="16">
+        <v>6</v>
+      </c>
+      <c r="S217" s="16">
+        <v>2</v>
+      </c>
+      <c r="T217" s="16">
+        <v>1</v>
+      </c>
+      <c r="U217" s="20">
+        <v>0</v>
+      </c>
+      <c r="V217" s="16">
+        <v>0</v>
+      </c>
+      <c r="W217" s="51">
+        <v>0</v>
+      </c>
+      <c r="X217" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y217" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z217" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA217" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB217" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD217" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG217" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH217" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI217" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ217" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK217" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL217" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM217" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN217" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO217" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP217" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ217" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR217" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS217" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT217" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU217" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A218" s="26">
+        <v>190828141657</v>
+      </c>
+      <c r="B218" s="4">
+        <v>31</v>
+      </c>
+      <c r="C218" s="22">
+        <v>2</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G218" s="15">
+        <v>4</v>
+      </c>
+      <c r="H218" s="16">
+        <v>4</v>
+      </c>
+      <c r="I218" s="16">
+        <v>0</v>
+      </c>
+      <c r="J218" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K218" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L218" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M218" s="16">
+        <v>5</v>
+      </c>
+      <c r="N218" s="16">
+        <v>3</v>
+      </c>
+      <c r="O218" s="16">
+        <v>5</v>
+      </c>
+      <c r="P218" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q218" s="16">
+        <v>9</v>
+      </c>
+      <c r="R218" s="16">
+        <v>6</v>
+      </c>
+      <c r="S218" s="16">
+        <v>2</v>
+      </c>
+      <c r="T218" s="16">
+        <v>1</v>
+      </c>
+      <c r="U218" s="20">
+        <v>0</v>
+      </c>
+      <c r="V218" s="16">
+        <v>0</v>
+      </c>
+      <c r="W218" s="51">
+        <v>0</v>
+      </c>
+      <c r="X218" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y218" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z218" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA218" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB218" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD218" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG218" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH218" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI218" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ218" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK218" s="62">
+        <v>2</v>
+      </c>
+      <c r="AL218" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM218" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN218" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO218" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP218" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ218" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR218" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS218" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT218" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU218" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A219" s="26">
+        <v>190828141833</v>
+      </c>
+      <c r="B219" s="4">
+        <v>31</v>
+      </c>
+      <c r="C219" s="22">
+        <v>3</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G219" s="15">
+        <v>4</v>
+      </c>
+      <c r="H219" s="16">
+        <v>4</v>
+      </c>
+      <c r="I219" s="16">
+        <v>0</v>
+      </c>
+      <c r="J219" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K219" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L219" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M219" s="16">
+        <v>5</v>
+      </c>
+      <c r="N219" s="16">
+        <v>3</v>
+      </c>
+      <c r="O219" s="16">
+        <v>5</v>
+      </c>
+      <c r="P219" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q219" s="16">
+        <v>9</v>
+      </c>
+      <c r="R219" s="16">
+        <v>6</v>
+      </c>
+      <c r="S219" s="16">
+        <v>2</v>
+      </c>
+      <c r="T219" s="16">
+        <v>1</v>
+      </c>
+      <c r="U219" s="20">
+        <v>0</v>
+      </c>
+      <c r="V219" s="16">
+        <v>0</v>
+      </c>
+      <c r="W219" s="51">
+        <v>0</v>
+      </c>
+      <c r="X219" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y219" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z219" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA219" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB219" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD219" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG219" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH219" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI219" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ219" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK219" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL219" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM219" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN219" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP219" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ219" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR219" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS219" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT219" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU219" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A220" s="26">
+        <v>190828142438</v>
+      </c>
+      <c r="B220" s="4">
+        <v>31</v>
+      </c>
+      <c r="C220" s="22">
+        <v>4</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G220" s="15">
+        <v>4</v>
+      </c>
+      <c r="H220" s="16">
+        <v>4</v>
+      </c>
+      <c r="I220" s="16">
+        <v>0</v>
+      </c>
+      <c r="J220" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K220" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L220" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M220" s="16">
+        <v>5</v>
+      </c>
+      <c r="N220" s="16">
+        <v>3</v>
+      </c>
+      <c r="O220" s="16">
+        <v>5</v>
+      </c>
+      <c r="P220" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q220" s="16">
+        <v>9</v>
+      </c>
+      <c r="R220" s="16">
+        <v>6</v>
+      </c>
+      <c r="S220" s="16">
+        <v>2</v>
+      </c>
+      <c r="T220" s="16">
+        <v>1</v>
+      </c>
+      <c r="U220" s="20">
+        <v>0</v>
+      </c>
+      <c r="V220" s="16">
+        <v>0</v>
+      </c>
+      <c r="W220" s="51">
+        <v>0</v>
+      </c>
+      <c r="X220" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y220" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z220" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA220" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB220" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF220" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG220" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH220" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI220" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ220" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK220" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL220" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM220" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN220" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP220" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ220" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR220" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS220" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT220" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU220" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A221" s="26">
+        <v>190828142556</v>
+      </c>
+      <c r="B221" s="4">
+        <v>31</v>
+      </c>
+      <c r="C221" s="22">
+        <v>5</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G221" s="15">
+        <v>4</v>
+      </c>
+      <c r="H221" s="16">
+        <v>4</v>
+      </c>
+      <c r="I221" s="16">
+        <v>0</v>
+      </c>
+      <c r="J221" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K221" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L221" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M221" s="16">
+        <v>5</v>
+      </c>
+      <c r="N221" s="16">
+        <v>3</v>
+      </c>
+      <c r="O221" s="16">
+        <v>5</v>
+      </c>
+      <c r="P221" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q221" s="16">
+        <v>9</v>
+      </c>
+      <c r="R221" s="16">
+        <v>6</v>
+      </c>
+      <c r="S221" s="16">
+        <v>2</v>
+      </c>
+      <c r="T221" s="16">
+        <v>1</v>
+      </c>
+      <c r="U221" s="20">
+        <v>0</v>
+      </c>
+      <c r="V221" s="16">
+        <v>0</v>
+      </c>
+      <c r="W221" s="51">
+        <v>0</v>
+      </c>
+      <c r="X221" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z221" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA221" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB221" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD221" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF221" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG221" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH221" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI221" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ221" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK221" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL221" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM221" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN221" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO221" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP221" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ221" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR221" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS221" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT221" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU221" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A222" s="26">
+        <v>190828142723</v>
+      </c>
+      <c r="B222" s="4">
+        <v>31</v>
+      </c>
+      <c r="C222" s="22">
+        <v>6</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G222" s="15">
+        <v>4</v>
+      </c>
+      <c r="H222" s="16">
+        <v>4</v>
+      </c>
+      <c r="I222" s="16">
+        <v>0</v>
+      </c>
+      <c r="J222" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K222" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L222" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M222" s="16">
+        <v>5</v>
+      </c>
+      <c r="N222" s="16">
+        <v>3</v>
+      </c>
+      <c r="O222" s="16">
+        <v>5</v>
+      </c>
+      <c r="P222" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q222" s="16">
+        <v>9</v>
+      </c>
+      <c r="R222" s="16">
+        <v>6</v>
+      </c>
+      <c r="S222" s="16">
+        <v>2</v>
+      </c>
+      <c r="T222" s="16">
+        <v>1</v>
+      </c>
+      <c r="U222" s="20">
+        <v>0</v>
+      </c>
+      <c r="V222" s="16">
+        <v>0</v>
+      </c>
+      <c r="W222" s="51">
+        <v>0</v>
+      </c>
+      <c r="X222" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z222" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA222" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB222" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD222" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG222" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH222" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI222" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ222" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK222" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL222" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM222" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN222" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP222" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ222" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR222" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS222" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT222" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU222" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A223" s="26">
+        <v>190828142833</v>
+      </c>
+      <c r="B223" s="4">
+        <v>31</v>
+      </c>
+      <c r="C223" s="22">
+        <v>7</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" s="15">
+        <v>4</v>
+      </c>
+      <c r="H223" s="16">
+        <v>4</v>
+      </c>
+      <c r="I223" s="16">
+        <v>0</v>
+      </c>
+      <c r="J223" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K223" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L223" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M223" s="16">
+        <v>5</v>
+      </c>
+      <c r="N223" s="16">
+        <v>3</v>
+      </c>
+      <c r="O223" s="16">
+        <v>5</v>
+      </c>
+      <c r="P223" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q223" s="16">
+        <v>9</v>
+      </c>
+      <c r="R223" s="16">
+        <v>6</v>
+      </c>
+      <c r="S223" s="16">
+        <v>2</v>
+      </c>
+      <c r="T223" s="16">
+        <v>1</v>
+      </c>
+      <c r="U223" s="20">
+        <v>0</v>
+      </c>
+      <c r="V223" s="16">
+        <v>0</v>
+      </c>
+      <c r="W223" s="51">
+        <v>0</v>
+      </c>
+      <c r="X223" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y223" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z223" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA223" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB223" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD223" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG223" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH223" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI223" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ223" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK223" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL223" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM223" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN223" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO223" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP223" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ223" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR223" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS223" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT223" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU223" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A224" s="26">
+        <v>190828143000</v>
+      </c>
+      <c r="B224" s="4">
+        <v>31</v>
+      </c>
+      <c r="C224" s="22">
+        <v>8</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G224" s="15">
+        <v>4</v>
+      </c>
+      <c r="H224" s="16">
+        <v>4</v>
+      </c>
+      <c r="I224" s="16">
+        <v>0</v>
+      </c>
+      <c r="J224" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K224" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L224" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M224" s="16">
+        <v>5</v>
+      </c>
+      <c r="N224" s="16">
+        <v>3</v>
+      </c>
+      <c r="O224" s="16">
+        <v>5</v>
+      </c>
+      <c r="P224" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q224" s="16">
+        <v>9</v>
+      </c>
+      <c r="R224" s="16">
+        <v>6</v>
+      </c>
+      <c r="S224" s="16">
+        <v>2</v>
+      </c>
+      <c r="T224" s="16">
+        <v>1</v>
+      </c>
+      <c r="U224" s="20">
+        <v>0</v>
+      </c>
+      <c r="V224" s="16">
+        <v>0</v>
+      </c>
+      <c r="W224" s="51">
+        <v>0</v>
+      </c>
+      <c r="X224" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z224" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB224" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD224" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF224" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG224" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH224" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI224" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ224" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK224" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL224" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP224" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ224" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR224" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS224" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT224" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU224" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A225" s="26">
+        <v>190828143400</v>
+      </c>
+      <c r="B225" s="4">
+        <v>31</v>
+      </c>
+      <c r="C225" s="22">
+        <v>9</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G225" s="15">
+        <v>4</v>
+      </c>
+      <c r="H225" s="16">
+        <v>4</v>
+      </c>
+      <c r="I225" s="16">
+        <v>0</v>
+      </c>
+      <c r="J225" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K225" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L225" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M225" s="16">
+        <v>5</v>
+      </c>
+      <c r="N225" s="16">
+        <v>3</v>
+      </c>
+      <c r="O225" s="16">
+        <v>5</v>
+      </c>
+      <c r="P225" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q225" s="16">
+        <v>9</v>
+      </c>
+      <c r="R225" s="16">
+        <v>6</v>
+      </c>
+      <c r="S225" s="16">
+        <v>2</v>
+      </c>
+      <c r="T225" s="16">
+        <v>1</v>
+      </c>
+      <c r="U225" s="20">
+        <v>0</v>
+      </c>
+      <c r="V225" s="16">
+        <v>0</v>
+      </c>
+      <c r="W225" s="51">
+        <v>0</v>
+      </c>
+      <c r="X225" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z225" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA225" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB225" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG225" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH225" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI225" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ225" s="62">
+        <v>50</v>
+      </c>
+      <c r="AK225" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL225" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM225" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN225" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP225" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ225" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR225" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS225" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT225" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU225" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A226" s="26">
+        <v>190828143700</v>
+      </c>
+      <c r="B226" s="4">
+        <v>31</v>
+      </c>
+      <c r="C226" s="22">
+        <v>10</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G226" s="15">
+        <v>4</v>
+      </c>
+      <c r="H226" s="16">
+        <v>4</v>
+      </c>
+      <c r="I226" s="16">
+        <v>0</v>
+      </c>
+      <c r="J226" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K226" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L226" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M226" s="16">
+        <v>5</v>
+      </c>
+      <c r="N226" s="16">
+        <v>3</v>
+      </c>
+      <c r="O226" s="16">
+        <v>5</v>
+      </c>
+      <c r="P226" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q226" s="16">
+        <v>9</v>
+      </c>
+      <c r="R226" s="16">
+        <v>6</v>
+      </c>
+      <c r="S226" s="16">
+        <v>2</v>
+      </c>
+      <c r="T226" s="16">
+        <v>1</v>
+      </c>
+      <c r="U226" s="20">
+        <v>0</v>
+      </c>
+      <c r="V226" s="16">
+        <v>0</v>
+      </c>
+      <c r="W226" s="51">
+        <v>0</v>
+      </c>
+      <c r="X226" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z226" s="24">
+        <v>5</v>
+      </c>
+      <c r="AA226" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB226" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD226" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF226" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG226" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH226" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI226" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ226" s="62">
+        <v>3</v>
+      </c>
+      <c r="AK226" s="62">
+        <v>10</v>
+      </c>
+      <c r="AL226" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM226" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN226" s="60">
+        <v>0</v>
+      </c>
+      <c r="AO226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP226" s="3">
+        <v>9</v>
+      </c>
+      <c r="AQ226" s="3">
+        <v>89</v>
+      </c>
+      <c r="AR226" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AS226" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT226" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU226" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="1048576" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1048576" s="29"/>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8D3D3EAD-616D-4D59-895F-D6059D2464FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{64168CA9-A5B3-4743-AAD5-46EDA7821608}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="86">
   <si>
     <t>Time</t>
   </si>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
   <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="R266" sqref="R266"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="Z234" sqref="Z234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35106,17 +35106,17 @@
       <c r="AH229" s="49">
         <v>1</v>
       </c>
-      <c r="AI229" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ229" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK229" s="64">
-        <v>2</v>
+      <c r="AI229" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ229" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK229" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL229" s="65" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AM229" s="52">
         <v>0</v>
@@ -35249,23 +35249,23 @@
       <c r="AH230" s="49">
         <v>1</v>
       </c>
-      <c r="AI230" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ230" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK230" s="64">
-        <v>2</v>
+      <c r="AI230" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ230" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK230" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL230" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM230" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN230" s="52">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AM230" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN230" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="AO230" s="41" t="s">
         <v>35</v>
@@ -35402,7 +35402,7 @@
         <v>2</v>
       </c>
       <c r="AL231" s="65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM231" s="52">
         <v>0</v>
@@ -35821,23 +35821,23 @@
       <c r="AH234" s="49">
         <v>1</v>
       </c>
-      <c r="AI234" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ234" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK234" s="64">
-        <v>2</v>
+      <c r="AI234" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ234" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK234" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL234" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM234" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN234" s="52">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AM234" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN234" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="AO234" s="41" t="s">
         <v>35</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="AJ235" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK235" s="64">
         <v>2</v>
       </c>
       <c r="AL235" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM235" s="52">
         <v>0</v>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{64168CA9-A5B3-4743-AAD5-46EDA7821608}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9BA6D20F-553E-4216-9196-08850370D90F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="89">
   <si>
     <t>Time</t>
   </si>
@@ -290,6 +290,15 @@
   <si>
     <t>bars10x1.5</t>
   </si>
+  <si>
+    <t>no stimuli</t>
+  </si>
+  <si>
+    <t>bars5</t>
+  </si>
+  <si>
+    <t>bars50</t>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -730,11 +739,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -803,6 +827,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2339,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
   <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="Z234" sqref="Z234"/>
+    <sheetView tabSelected="1" topLeftCell="D220" workbookViewId="0">
+      <selection activeCell="AV253" sqref="AV253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,8 +2406,8 @@
     <col min="33" max="33" width="8.140625" style="48" customWidth="1"/>
     <col min="34" max="34" width="9.5703125" style="48" customWidth="1"/>
     <col min="35" max="35" width="3.42578125" style="53" customWidth="1"/>
-    <col min="36" max="36" width="2.85546875" style="53" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" style="53" customWidth="1"/>
+    <col min="36" max="36" width="3.85546875" style="53" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" style="53" customWidth="1"/>
     <col min="38" max="38" width="8.5703125" style="53" customWidth="1"/>
     <col min="39" max="39" width="3" style="51" customWidth="1"/>
     <col min="40" max="40" width="4.85546875" style="51" customWidth="1"/>
@@ -2388,7 +2415,7 @@
     <col min="42" max="42" width="6.140625" style="3" customWidth="1"/>
     <col min="43" max="43" width="3.42578125" style="3" customWidth="1"/>
     <col min="44" max="44" width="5.140625" style="3" customWidth="1"/>
-    <col min="45" max="45" width="6.28515625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="5.5703125" style="3" customWidth="1"/>
     <col min="46" max="46" width="7.28515625" style="3" customWidth="1"/>
     <col min="47" max="47" width="2.140625" style="28" customWidth="1"/>
   </cols>
@@ -35137,7 +35164,7 @@
         <v>1400</v>
       </c>
       <c r="AS229" s="41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AT229" s="41">
         <v>2</v>
@@ -35279,8 +35306,8 @@
       <c r="AR230" s="41">
         <v>1400</v>
       </c>
-      <c r="AS230" s="41">
-        <v>2</v>
+      <c r="AS230" s="68">
+        <v>9</v>
       </c>
       <c r="AT230" s="41">
         <v>2</v>
@@ -35422,8 +35449,8 @@
       <c r="AR231" s="41">
         <v>1400</v>
       </c>
-      <c r="AS231" s="41">
-        <v>2</v>
+      <c r="AS231" s="68">
+        <v>9</v>
       </c>
       <c r="AT231" s="41">
         <v>2</v>
@@ -35565,8 +35592,8 @@
       <c r="AR232" s="41">
         <v>1400</v>
       </c>
-      <c r="AS232" s="41">
-        <v>2</v>
+      <c r="AS232" s="68">
+        <v>9</v>
       </c>
       <c r="AT232" s="41">
         <v>2</v>
@@ -35708,8 +35735,8 @@
       <c r="AR233" s="41">
         <v>1400</v>
       </c>
-      <c r="AS233" s="41">
-        <v>2</v>
+      <c r="AS233" s="68">
+        <v>9</v>
       </c>
       <c r="AT233" s="41">
         <v>2</v>
@@ -35851,8 +35878,8 @@
       <c r="AR234" s="41">
         <v>1400</v>
       </c>
-      <c r="AS234" s="41">
-        <v>2</v>
+      <c r="AS234" s="68">
+        <v>9</v>
       </c>
       <c r="AT234" s="41">
         <v>2</v>
@@ -35994,8 +36021,8 @@
       <c r="AR235" s="41">
         <v>1400</v>
       </c>
-      <c r="AS235" s="41">
-        <v>2</v>
+      <c r="AS235" s="68">
+        <v>9</v>
       </c>
       <c r="AT235" s="41">
         <v>2</v>
@@ -36107,23 +36134,23 @@
       <c r="AH236" s="49">
         <v>1</v>
       </c>
-      <c r="AI236" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ236" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK236" s="64">
-        <v>2</v>
+      <c r="AI236" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ236" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK236" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL236" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM236" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN236" s="52">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AM236" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN236" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="AO236" s="41" t="s">
         <v>35</v>
@@ -36137,8 +36164,8 @@
       <c r="AR236" s="41">
         <v>1400</v>
       </c>
-      <c r="AS236" s="41">
-        <v>2</v>
+      <c r="AS236" s="68">
+        <v>9</v>
       </c>
       <c r="AT236" s="41">
         <v>2</v>
@@ -36250,17 +36277,17 @@
       <c r="AH237" s="49">
         <v>1</v>
       </c>
-      <c r="AI237" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ237" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK237" s="64">
-        <v>2</v>
-      </c>
-      <c r="AL237" s="65" t="s">
-        <v>65</v>
+      <c r="AI237" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ237" s="66">
+        <v>50</v>
+      </c>
+      <c r="AK237" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL237" s="67" t="s">
+        <v>75</v>
       </c>
       <c r="AM237" s="52">
         <v>0</v>
@@ -36280,8 +36307,8 @@
       <c r="AR237" s="41">
         <v>1400</v>
       </c>
-      <c r="AS237" s="41">
-        <v>2</v>
+      <c r="AS237" s="68">
+        <v>9</v>
       </c>
       <c r="AT237" s="41">
         <v>2</v>
@@ -36397,13 +36424,13 @@
         <v>0</v>
       </c>
       <c r="AJ238" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK238" s="64">
         <v>2</v>
       </c>
       <c r="AL238" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM238" s="52">
         <v>0</v>
@@ -36423,8 +36450,8 @@
       <c r="AR238" s="41">
         <v>1400</v>
       </c>
-      <c r="AS238" s="41">
-        <v>2</v>
+      <c r="AS238" s="68">
+        <v>9</v>
       </c>
       <c r="AT238" s="41">
         <v>2</v>
@@ -36540,13 +36567,13 @@
         <v>0</v>
       </c>
       <c r="AJ239" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK239" s="64">
         <v>2</v>
       </c>
       <c r="AL239" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM239" s="52">
         <v>0</v>
@@ -36566,8 +36593,8 @@
       <c r="AR239" s="41">
         <v>1400</v>
       </c>
-      <c r="AS239" s="41">
-        <v>2</v>
+      <c r="AS239" s="68">
+        <v>9</v>
       </c>
       <c r="AT239" s="41">
         <v>2</v>
@@ -36683,13 +36710,13 @@
         <v>0</v>
       </c>
       <c r="AJ240" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK240" s="64">
         <v>2</v>
       </c>
       <c r="AL240" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM240" s="52">
         <v>0</v>
@@ -36709,8 +36736,8 @@
       <c r="AR240" s="41">
         <v>1400</v>
       </c>
-      <c r="AS240" s="41">
-        <v>2</v>
+      <c r="AS240" s="68">
+        <v>9</v>
       </c>
       <c r="AT240" s="41">
         <v>2</v>
@@ -36826,13 +36853,13 @@
         <v>0</v>
       </c>
       <c r="AJ241" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK241" s="64">
         <v>2</v>
       </c>
       <c r="AL241" s="65" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="AM241" s="52">
         <v>0</v>
@@ -36852,8 +36879,8 @@
       <c r="AR241" s="41">
         <v>1400</v>
       </c>
-      <c r="AS241" s="41">
-        <v>2</v>
+      <c r="AS241" s="68">
+        <v>9</v>
       </c>
       <c r="AT241" s="41">
         <v>2</v>
@@ -36965,17 +36992,17 @@
       <c r="AH242" s="49">
         <v>1</v>
       </c>
-      <c r="AI242" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ242" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK242" s="64">
-        <v>2</v>
+      <c r="AI242" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ242" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK242" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL242" s="65" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AM242" s="52">
         <v>0</v>
@@ -36995,8 +37022,8 @@
       <c r="AR242" s="41">
         <v>1400</v>
       </c>
-      <c r="AS242" s="41">
-        <v>2</v>
+      <c r="AS242" s="68">
+        <v>9</v>
       </c>
       <c r="AT242" s="41">
         <v>2</v>
@@ -37112,13 +37139,13 @@
         <v>0</v>
       </c>
       <c r="AJ243" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK243" s="64">
         <v>2</v>
       </c>
       <c r="AL243" s="65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM243" s="52">
         <v>0</v>
@@ -37138,8 +37165,8 @@
       <c r="AR243" s="41">
         <v>1400</v>
       </c>
-      <c r="AS243" s="41">
-        <v>2</v>
+      <c r="AS243" s="68">
+        <v>9</v>
       </c>
       <c r="AT243" s="41">
         <v>2</v>
@@ -37255,13 +37282,13 @@
         <v>0</v>
       </c>
       <c r="AJ244" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK244" s="64">
         <v>2</v>
       </c>
       <c r="AL244" s="65" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="AM244" s="52">
         <v>0</v>
@@ -37281,8 +37308,8 @@
       <c r="AR244" s="41">
         <v>1400</v>
       </c>
-      <c r="AS244" s="41">
-        <v>2</v>
+      <c r="AS244" s="68">
+        <v>9</v>
       </c>
       <c r="AT244" s="41">
         <v>2</v>
@@ -37398,13 +37425,13 @@
         <v>0</v>
       </c>
       <c r="AJ245" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK245" s="64">
         <v>2</v>
       </c>
       <c r="AL245" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM245" s="52">
         <v>0</v>
@@ -37424,8 +37451,8 @@
       <c r="AR245" s="41">
         <v>1400</v>
       </c>
-      <c r="AS245" s="41">
-        <v>2</v>
+      <c r="AS245" s="68">
+        <v>9</v>
       </c>
       <c r="AT245" s="41">
         <v>2</v>
@@ -37541,13 +37568,13 @@
         <v>0</v>
       </c>
       <c r="AJ246" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK246" s="64">
         <v>2</v>
       </c>
       <c r="AL246" s="65" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="AM246" s="52">
         <v>0</v>
@@ -37567,8 +37594,8 @@
       <c r="AR246" s="41">
         <v>1400</v>
       </c>
-      <c r="AS246" s="41">
-        <v>2</v>
+      <c r="AS246" s="68">
+        <v>9</v>
       </c>
       <c r="AT246" s="41">
         <v>2</v>
@@ -37684,13 +37711,13 @@
         <v>0</v>
       </c>
       <c r="AJ247" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK247" s="64">
         <v>2</v>
       </c>
       <c r="AL247" s="65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM247" s="52">
         <v>0</v>
@@ -37710,8 +37737,8 @@
       <c r="AR247" s="41">
         <v>1400</v>
       </c>
-      <c r="AS247" s="41">
-        <v>2</v>
+      <c r="AS247" s="68">
+        <v>9</v>
       </c>
       <c r="AT247" s="41">
         <v>2</v>
@@ -37827,13 +37854,13 @@
         <v>0</v>
       </c>
       <c r="AJ248" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK248" s="64">
         <v>2</v>
       </c>
       <c r="AL248" s="65" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="AM248" s="52">
         <v>0</v>
@@ -37853,8 +37880,8 @@
       <c r="AR248" s="41">
         <v>1400</v>
       </c>
-      <c r="AS248" s="41">
-        <v>2</v>
+      <c r="AS248" s="68">
+        <v>9</v>
       </c>
       <c r="AT248" s="41">
         <v>2</v>
@@ -37970,13 +37997,13 @@
         <v>0</v>
       </c>
       <c r="AJ249" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK249" s="64">
         <v>2</v>
       </c>
       <c r="AL249" s="65" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="AM249" s="52">
         <v>0</v>
@@ -37996,8 +38023,8 @@
       <c r="AR249" s="41">
         <v>1400</v>
       </c>
-      <c r="AS249" s="41">
-        <v>2</v>
+      <c r="AS249" s="68">
+        <v>9</v>
       </c>
       <c r="AT249" s="41">
         <v>2</v>
@@ -38113,13 +38140,13 @@
         <v>0</v>
       </c>
       <c r="AJ250" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK250" s="64">
         <v>2</v>
       </c>
       <c r="AL250" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM250" s="52">
         <v>0</v>
@@ -38139,8 +38166,8 @@
       <c r="AR250" s="41">
         <v>1400</v>
       </c>
-      <c r="AS250" s="41">
-        <v>2</v>
+      <c r="AS250" s="68">
+        <v>9</v>
       </c>
       <c r="AT250" s="41">
         <v>2</v>
@@ -38256,13 +38283,13 @@
         <v>0</v>
       </c>
       <c r="AJ251" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK251" s="64">
         <v>2</v>
       </c>
       <c r="AL251" s="65" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="AM251" s="52">
         <v>0</v>
@@ -38282,8 +38309,8 @@
       <c r="AR251" s="41">
         <v>1400</v>
       </c>
-      <c r="AS251" s="41">
-        <v>2</v>
+      <c r="AS251" s="68">
+        <v>9</v>
       </c>
       <c r="AT251" s="41">
         <v>2</v>
@@ -38395,17 +38422,17 @@
       <c r="AH252" s="49">
         <v>1</v>
       </c>
-      <c r="AI252" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ252" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK252" s="64">
-        <v>2</v>
+      <c r="AI252" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ252" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK252" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL252" s="65" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AM252" s="52">
         <v>0</v>
@@ -38420,13 +38447,13 @@
         <v>9</v>
       </c>
       <c r="AQ252" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR252" s="41">
         <v>1400</v>
       </c>
-      <c r="AS252" s="41">
-        <v>2</v>
+      <c r="AS252" s="68">
+        <v>9</v>
       </c>
       <c r="AT252" s="41">
         <v>2</v>
@@ -38542,13 +38569,13 @@
         <v>0</v>
       </c>
       <c r="AJ253" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK253" s="64">
         <v>2</v>
       </c>
       <c r="AL253" s="65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM253" s="52">
         <v>0</v>
@@ -38563,13 +38590,13 @@
         <v>9</v>
       </c>
       <c r="AQ253" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR253" s="41">
         <v>1400</v>
       </c>
-      <c r="AS253" s="41">
-        <v>2</v>
+      <c r="AS253" s="68">
+        <v>9</v>
       </c>
       <c r="AT253" s="41">
         <v>2</v>
@@ -38685,13 +38712,13 @@
         <v>0</v>
       </c>
       <c r="AJ254" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK254" s="64">
         <v>2</v>
       </c>
       <c r="AL254" s="65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM254" s="52">
         <v>0</v>
@@ -38706,13 +38733,13 @@
         <v>9</v>
       </c>
       <c r="AQ254" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR254" s="41">
         <v>1400</v>
       </c>
-      <c r="AS254" s="41">
-        <v>2</v>
+      <c r="AS254" s="68">
+        <v>9</v>
       </c>
       <c r="AT254" s="41">
         <v>2</v>
@@ -38828,13 +38855,13 @@
         <v>0</v>
       </c>
       <c r="AJ255" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK255" s="64">
         <v>2</v>
       </c>
       <c r="AL255" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM255" s="52">
         <v>0</v>
@@ -38849,13 +38876,13 @@
         <v>9</v>
       </c>
       <c r="AQ255" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR255" s="41">
         <v>1400</v>
       </c>
-      <c r="AS255" s="41">
-        <v>2</v>
+      <c r="AS255" s="68">
+        <v>9</v>
       </c>
       <c r="AT255" s="41">
         <v>2</v>
@@ -38971,13 +38998,13 @@
         <v>0</v>
       </c>
       <c r="AJ256" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK256" s="64">
         <v>2</v>
       </c>
       <c r="AL256" s="65" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="AM256" s="52">
         <v>0</v>
@@ -38992,13 +39019,13 @@
         <v>9</v>
       </c>
       <c r="AQ256" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR256" s="41">
         <v>1400</v>
       </c>
-      <c r="AS256" s="41">
-        <v>2</v>
+      <c r="AS256" s="68">
+        <v>9</v>
       </c>
       <c r="AT256" s="41">
         <v>2</v>
@@ -39114,13 +39141,13 @@
         <v>0</v>
       </c>
       <c r="AJ257" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK257" s="64">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL257" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM257" s="52">
         <v>0</v>
@@ -39135,13 +39162,13 @@
         <v>9</v>
       </c>
       <c r="AQ257" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR257" s="41">
         <v>1400</v>
       </c>
-      <c r="AS257" s="41">
-        <v>2</v>
+      <c r="AS257" s="68">
+        <v>9</v>
       </c>
       <c r="AT257" s="41">
         <v>2</v>
@@ -39257,13 +39284,13 @@
         <v>0</v>
       </c>
       <c r="AJ258" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK258" s="64">
         <v>2</v>
       </c>
       <c r="AL258" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM258" s="52">
         <v>0</v>
@@ -39278,13 +39305,13 @@
         <v>9</v>
       </c>
       <c r="AQ258" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR258" s="41">
         <v>1400</v>
       </c>
-      <c r="AS258" s="41">
-        <v>2</v>
+      <c r="AS258" s="68">
+        <v>9</v>
       </c>
       <c r="AT258" s="41">
         <v>2</v>
@@ -39400,13 +39427,13 @@
         <v>0</v>
       </c>
       <c r="AJ259" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK259" s="64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL259" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM259" s="52">
         <v>0</v>
@@ -39421,13 +39448,13 @@
         <v>9</v>
       </c>
       <c r="AQ259" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR259" s="41">
         <v>1400</v>
       </c>
-      <c r="AS259" s="41">
-        <v>2</v>
+      <c r="AS259" s="68">
+        <v>9</v>
       </c>
       <c r="AT259" s="41">
         <v>2</v>
@@ -39543,13 +39570,13 @@
         <v>0</v>
       </c>
       <c r="AJ260" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK260" s="64">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AL260" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM260" s="52">
         <v>0</v>
@@ -39564,13 +39591,13 @@
         <v>9</v>
       </c>
       <c r="AQ260" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR260" s="41">
         <v>1400</v>
       </c>
-      <c r="AS260" s="41">
-        <v>2</v>
+      <c r="AS260" s="68">
+        <v>9</v>
       </c>
       <c r="AT260" s="41">
         <v>2</v>
@@ -39686,13 +39713,13 @@
         <v>0</v>
       </c>
       <c r="AJ261" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK261" s="64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL261" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM261" s="52">
         <v>0</v>
@@ -39707,13 +39734,13 @@
         <v>9</v>
       </c>
       <c r="AQ261" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR261" s="41">
         <v>1400</v>
       </c>
-      <c r="AS261" s="41">
-        <v>2</v>
+      <c r="AS261" s="68">
+        <v>9</v>
       </c>
       <c r="AT261" s="41">
         <v>2</v>
@@ -39829,13 +39856,13 @@
         <v>0</v>
       </c>
       <c r="AJ262" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK262" s="64">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AL262" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM262" s="52">
         <v>0</v>
@@ -39850,13 +39877,13 @@
         <v>9</v>
       </c>
       <c r="AQ262" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR262" s="41">
         <v>1400</v>
       </c>
-      <c r="AS262" s="41">
-        <v>2</v>
+      <c r="AS262" s="68">
+        <v>9</v>
       </c>
       <c r="AT262" s="41">
         <v>2</v>
@@ -39972,13 +39999,13 @@
         <v>0</v>
       </c>
       <c r="AJ263" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK263" s="64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL263" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM263" s="52">
         <v>0</v>
@@ -39993,13 +40020,13 @@
         <v>9</v>
       </c>
       <c r="AQ263" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR263" s="41">
         <v>1400</v>
       </c>
-      <c r="AS263" s="41">
-        <v>2</v>
+      <c r="AS263" s="68">
+        <v>9</v>
       </c>
       <c r="AT263" s="41">
         <v>2</v>
@@ -40115,13 +40142,13 @@
         <v>0</v>
       </c>
       <c r="AJ264" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK264" s="64">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AL264" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM264" s="52">
         <v>0</v>
@@ -40136,13 +40163,13 @@
         <v>9</v>
       </c>
       <c r="AQ264" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR264" s="41">
         <v>1400</v>
       </c>
-      <c r="AS264" s="41">
-        <v>2</v>
+      <c r="AS264" s="68">
+        <v>9</v>
       </c>
       <c r="AT264" s="41">
         <v>2</v>
@@ -40258,13 +40285,13 @@
         <v>0</v>
       </c>
       <c r="AJ265" s="64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK265" s="64">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AL265" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM265" s="52">
         <v>0</v>
@@ -40279,13 +40306,13 @@
         <v>9</v>
       </c>
       <c r="AQ265" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR265" s="41">
         <v>1400</v>
       </c>
-      <c r="AS265" s="41">
-        <v>2</v>
+      <c r="AS265" s="68">
+        <v>9</v>
       </c>
       <c r="AT265" s="41">
         <v>2</v>
@@ -40397,17 +40424,17 @@
       <c r="AH266" s="49">
         <v>1</v>
       </c>
-      <c r="AI266" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ266" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK266" s="64">
-        <v>2</v>
+      <c r="AI266" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ266" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK266" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL266" s="65" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AM266" s="52">
         <v>0</v>
@@ -40422,13 +40449,13 @@
         <v>9</v>
       </c>
       <c r="AQ266" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR266" s="41">
         <v>1400</v>
       </c>
-      <c r="AS266" s="41">
-        <v>2</v>
+      <c r="AS266" s="68">
+        <v>9</v>
       </c>
       <c r="AT266" s="41">
         <v>2</v>
@@ -40540,17 +40567,17 @@
       <c r="AH267" s="49">
         <v>1</v>
       </c>
-      <c r="AI267" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ267" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK267" s="64">
-        <v>2</v>
+      <c r="AI267" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ267" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK267" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL267" s="65" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AM267" s="52">
         <v>0</v>
@@ -40565,13 +40592,13 @@
         <v>9</v>
       </c>
       <c r="AQ267" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR267" s="41">
         <v>1400</v>
       </c>
-      <c r="AS267" s="41">
-        <v>2</v>
+      <c r="AS267" s="68">
+        <v>9</v>
       </c>
       <c r="AT267" s="41">
         <v>2</v>
@@ -40687,13 +40714,13 @@
         <v>0</v>
       </c>
       <c r="AJ268" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK268" s="64">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL268" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM268" s="52">
         <v>0</v>
@@ -40708,13 +40735,13 @@
         <v>9</v>
       </c>
       <c r="AQ268" s="41">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR268" s="41">
         <v>1400</v>
       </c>
-      <c r="AS268" s="41">
-        <v>2</v>
+      <c r="AS268" s="68">
+        <v>9</v>
       </c>
       <c r="AT268" s="41">
         <v>2</v>
@@ -40826,17 +40853,17 @@
       <c r="AH269" s="49">
         <v>1</v>
       </c>
-      <c r="AI269" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ269" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK269" s="64">
-        <v>2</v>
+      <c r="AI269" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ269" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK269" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL269" s="65" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AM269" s="52">
         <v>0</v>
@@ -40848,16 +40875,16 @@
         <v>35</v>
       </c>
       <c r="AP269" s="41">
+        <v>8</v>
+      </c>
+      <c r="AQ269" s="41">
+        <v>94</v>
+      </c>
+      <c r="AR269" s="41">
+        <v>800</v>
+      </c>
+      <c r="AS269" s="68">
         <v>9</v>
-      </c>
-      <c r="AQ269" s="41">
-        <v>89</v>
-      </c>
-      <c r="AR269" s="41">
-        <v>1400</v>
-      </c>
-      <c r="AS269" s="41">
-        <v>2</v>
       </c>
       <c r="AT269" s="41">
         <v>2</v>
@@ -40973,13 +41000,13 @@
         <v>0</v>
       </c>
       <c r="AJ270" s="64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK270" s="64">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL270" s="65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM270" s="52">
         <v>0</v>
@@ -40991,16 +41018,16 @@
         <v>35</v>
       </c>
       <c r="AP270" s="41">
+        <v>8</v>
+      </c>
+      <c r="AQ270" s="41">
+        <v>94</v>
+      </c>
+      <c r="AR270" s="41">
+        <v>800</v>
+      </c>
+      <c r="AS270" s="68">
         <v>9</v>
-      </c>
-      <c r="AQ270" s="41">
-        <v>89</v>
-      </c>
-      <c r="AR270" s="41">
-        <v>1400</v>
-      </c>
-      <c r="AS270" s="41">
-        <v>2</v>
       </c>
       <c r="AT270" s="41">
         <v>2</v>
@@ -41112,17 +41139,17 @@
       <c r="AH271" s="49">
         <v>1</v>
       </c>
-      <c r="AI271" s="64">
-        <v>0</v>
-      </c>
-      <c r="AJ271" s="64">
-        <v>5</v>
-      </c>
-      <c r="AK271" s="64">
-        <v>2</v>
+      <c r="AI271" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ271" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK271" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="AL271" s="65" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AM271" s="52">
         <v>0</v>
@@ -41134,16 +41161,16 @@
         <v>35</v>
       </c>
       <c r="AP271" s="41">
+        <v>10</v>
+      </c>
+      <c r="AQ271" s="41">
+        <v>94</v>
+      </c>
+      <c r="AR271" s="41">
+        <v>2000</v>
+      </c>
+      <c r="AS271" s="68">
         <v>9</v>
-      </c>
-      <c r="AQ271" s="41">
-        <v>89</v>
-      </c>
-      <c r="AR271" s="41">
-        <v>1400</v>
-      </c>
-      <c r="AS271" s="41">
-        <v>2</v>
       </c>
       <c r="AT271" s="41">
         <v>2</v>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9BA6D20F-553E-4216-9196-08850370D90F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{56C28A6C-507E-447C-871D-8C8D0B6880E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="90">
   <si>
     <t>Time</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>bars50</t>
+  </si>
+  <si>
+    <t>2-3</t>
   </si>
 </sst>
 </file>
@@ -2366,8 +2369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B566-E79C-4B86-8075-B0877778D379}">
   <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D220" workbookViewId="0">
-      <selection activeCell="AV253" sqref="AV253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM278" sqref="AM278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41179,6 +41183,864 @@
         <v>33</v>
       </c>
     </row>
+    <row r="272" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A272" s="26">
+        <v>190829163150</v>
+      </c>
+      <c r="B272" s="4">
+        <v>32</v>
+      </c>
+      <c r="C272" s="22">
+        <v>1</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G272" s="15">
+        <v>3</v>
+      </c>
+      <c r="H272" s="16">
+        <v>1</v>
+      </c>
+      <c r="I272" s="16">
+        <v>1</v>
+      </c>
+      <c r="J272" s="16">
+        <v>1</v>
+      </c>
+      <c r="K272" s="16">
+        <v>2</v>
+      </c>
+      <c r="L272" s="16">
+        <v>9</v>
+      </c>
+      <c r="M272" s="16">
+        <v>5</v>
+      </c>
+      <c r="N272" s="16">
+        <v>2</v>
+      </c>
+      <c r="O272" s="16">
+        <v>7</v>
+      </c>
+      <c r="P272" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q272" s="16">
+        <v>9</v>
+      </c>
+      <c r="R272" s="16">
+        <v>2</v>
+      </c>
+      <c r="S272" s="16">
+        <v>2</v>
+      </c>
+      <c r="T272" s="16">
+        <v>0</v>
+      </c>
+      <c r="U272" s="20">
+        <v>0</v>
+      </c>
+      <c r="V272" s="16">
+        <v>0</v>
+      </c>
+      <c r="W272" s="44">
+        <v>1</v>
+      </c>
+      <c r="X272" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH272" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI272" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ272" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK272" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL272" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM272" s="51">
+        <v>0</v>
+      </c>
+      <c r="AN272" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU272" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A273" s="26">
+        <v>190829163647</v>
+      </c>
+      <c r="B273" s="4">
+        <v>32</v>
+      </c>
+      <c r="C273" s="22">
+        <v>2</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G273" s="15">
+        <v>3</v>
+      </c>
+      <c r="H273" s="16">
+        <v>1</v>
+      </c>
+      <c r="I273" s="16">
+        <v>1</v>
+      </c>
+      <c r="J273" s="16">
+        <v>1</v>
+      </c>
+      <c r="K273" s="16">
+        <v>2</v>
+      </c>
+      <c r="L273" s="16">
+        <v>9</v>
+      </c>
+      <c r="M273" s="16">
+        <v>5</v>
+      </c>
+      <c r="N273" s="16">
+        <v>2</v>
+      </c>
+      <c r="O273" s="16">
+        <v>7</v>
+      </c>
+      <c r="P273" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q273" s="16">
+        <v>9</v>
+      </c>
+      <c r="R273" s="16">
+        <v>2</v>
+      </c>
+      <c r="S273" s="16">
+        <v>2</v>
+      </c>
+      <c r="T273" s="16">
+        <v>0</v>
+      </c>
+      <c r="U273" s="20">
+        <v>0</v>
+      </c>
+      <c r="V273" s="16">
+        <v>0</v>
+      </c>
+      <c r="W273" s="44">
+        <v>1</v>
+      </c>
+      <c r="X273" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH273" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI273" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ273" s="53">
+        <v>3</v>
+      </c>
+      <c r="AK273" s="53">
+        <v>10</v>
+      </c>
+      <c r="AL273" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM273" s="51">
+        <v>1</v>
+      </c>
+      <c r="AN273" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU273" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A274" s="26">
+        <v>190830101425</v>
+      </c>
+      <c r="B274" s="4">
+        <v>33</v>
+      </c>
+      <c r="C274" s="22">
+        <v>1</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G274" s="15">
+        <v>0</v>
+      </c>
+      <c r="H274" s="16">
+        <v>0</v>
+      </c>
+      <c r="I274" s="16">
+        <v>0</v>
+      </c>
+      <c r="J274" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K274" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L274" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M274" s="16">
+        <v>1</v>
+      </c>
+      <c r="N274" s="16">
+        <v>1</v>
+      </c>
+      <c r="O274" s="16">
+        <v>7</v>
+      </c>
+      <c r="P274" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q274" s="16">
+        <v>7</v>
+      </c>
+      <c r="R274" s="16">
+        <v>5</v>
+      </c>
+      <c r="S274" s="16">
+        <v>2</v>
+      </c>
+      <c r="T274" s="16">
+        <v>0</v>
+      </c>
+      <c r="U274" s="20">
+        <v>0</v>
+      </c>
+      <c r="V274" s="16">
+        <v>1</v>
+      </c>
+      <c r="W274" s="44">
+        <v>0</v>
+      </c>
+      <c r="X274" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH274" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI274" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ274" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK274" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL274" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM274" s="51">
+        <v>5</v>
+      </c>
+      <c r="AN274" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU274" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="275" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A275" s="26">
+        <v>190830101632</v>
+      </c>
+      <c r="B275" s="4">
+        <v>33</v>
+      </c>
+      <c r="C275" s="22">
+        <v>2</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G275" s="15">
+        <v>0</v>
+      </c>
+      <c r="H275" s="16">
+        <v>0</v>
+      </c>
+      <c r="I275" s="16">
+        <v>0</v>
+      </c>
+      <c r="J275" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K275" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L275" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M275" s="16">
+        <v>1</v>
+      </c>
+      <c r="N275" s="16">
+        <v>1</v>
+      </c>
+      <c r="O275" s="16">
+        <v>7</v>
+      </c>
+      <c r="P275" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q275" s="16">
+        <v>7</v>
+      </c>
+      <c r="R275" s="16">
+        <v>5</v>
+      </c>
+      <c r="S275" s="16">
+        <v>2</v>
+      </c>
+      <c r="T275" s="16">
+        <v>0</v>
+      </c>
+      <c r="U275" s="20">
+        <v>0</v>
+      </c>
+      <c r="V275" s="16">
+        <v>1</v>
+      </c>
+      <c r="W275" s="44">
+        <v>0</v>
+      </c>
+      <c r="X275" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH275" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI275" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ275" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK275" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL275" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM275" s="51">
+        <v>7</v>
+      </c>
+      <c r="AN275" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU275" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A276" s="26">
+        <v>190830101814</v>
+      </c>
+      <c r="B276" s="4">
+        <v>33</v>
+      </c>
+      <c r="C276" s="22">
+        <v>3</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G276" s="15">
+        <v>0</v>
+      </c>
+      <c r="H276" s="16">
+        <v>0</v>
+      </c>
+      <c r="I276" s="16">
+        <v>0</v>
+      </c>
+      <c r="J276" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K276" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L276" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M276" s="16">
+        <v>1</v>
+      </c>
+      <c r="N276" s="16">
+        <v>1</v>
+      </c>
+      <c r="O276" s="16">
+        <v>7</v>
+      </c>
+      <c r="P276" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q276" s="16">
+        <v>7</v>
+      </c>
+      <c r="R276" s="16">
+        <v>5</v>
+      </c>
+      <c r="S276" s="16">
+        <v>2</v>
+      </c>
+      <c r="T276" s="16">
+        <v>0</v>
+      </c>
+      <c r="U276" s="20">
+        <v>0</v>
+      </c>
+      <c r="V276" s="16">
+        <v>1</v>
+      </c>
+      <c r="W276" s="44">
+        <v>0</v>
+      </c>
+      <c r="X276" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH276" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI276" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ276" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK276" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL276" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM276" s="51">
+        <v>4</v>
+      </c>
+      <c r="AN276" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU276" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A277" s="26">
+        <v>190830101920</v>
+      </c>
+      <c r="B277" s="4">
+        <v>33</v>
+      </c>
+      <c r="C277" s="22">
+        <v>4</v>
+      </c>
+      <c r="D277" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G277" s="15">
+        <v>0</v>
+      </c>
+      <c r="H277" s="16">
+        <v>0</v>
+      </c>
+      <c r="I277" s="16">
+        <v>0</v>
+      </c>
+      <c r="J277" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K277" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L277" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M277" s="16">
+        <v>1</v>
+      </c>
+      <c r="N277" s="16">
+        <v>1</v>
+      </c>
+      <c r="O277" s="16">
+        <v>7</v>
+      </c>
+      <c r="P277" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q277" s="16">
+        <v>7</v>
+      </c>
+      <c r="R277" s="16">
+        <v>5</v>
+      </c>
+      <c r="S277" s="16">
+        <v>2</v>
+      </c>
+      <c r="T277" s="16">
+        <v>0</v>
+      </c>
+      <c r="U277" s="20">
+        <v>0</v>
+      </c>
+      <c r="V277" s="16">
+        <v>1</v>
+      </c>
+      <c r="W277" s="44">
+        <v>0</v>
+      </c>
+      <c r="X277" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH277" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI277" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ277" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK277" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL277" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM277" s="51">
+        <v>5</v>
+      </c>
+      <c r="AN277" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU277" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="1048576" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1048576" s="29"/>
       <c r="B1048576" s="30"/>

--- a/Lab book Razban.xlsx
+++ b/Lab book Razban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PrepStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0E1DB1-00C9-4FF6-8B78-9870827F0593}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB8C69-36A9-42E7-9858-C4FBE055DC19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC6BFB3C-CB1D-4BB3-8C6E-6F05D5CC33F1}"/>
   </bookViews>
@@ -2448,8 +2448,8 @@
   <dimension ref="A1:AY1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O380" sqref="O380"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N380" sqref="N380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
